--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>表1.1</t>
   </si>
@@ -319,6 +319,17 @@
 VS 非常量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>GPU缓存优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
+前者是后者的2.5倍； 
+3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
+前者提升-80%（gtx670）、-40%（gts250）； 
+4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
+前者提升150%（gtx670）、-20%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -663,11 +674,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="119841920"/>
-        <c:axId val="119843840"/>
+        <c:axId val="114319744"/>
+        <c:axId val="114321664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119841920"/>
+        <c:axId val="114319744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,17 +699,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119843840"/>
+        <c:crossAx val="114321664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119843840"/>
+        <c:axId val="114321664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,25 +730,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119841920"/>
+        <c:crossAx val="114319744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -849,25 +857,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
+                  <c:v>23.148148148148145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,11 +1006,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120746752"/>
-        <c:axId val="120748672"/>
+        <c:axId val="116031488"/>
+        <c:axId val="116033408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120746752"/>
+        <c:axId val="116031488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,14 +1085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120748672"/>
+        <c:crossAx val="116033408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120748672"/>
+        <c:axId val="116033408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1176,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120746752"/>
+        <c:crossAx val="116031488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,7 +1249,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1501,11 +1509,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137357184"/>
-        <c:axId val="146825216"/>
+        <c:axId val="116084096"/>
+        <c:axId val="116106752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137357184"/>
+        <c:axId val="116084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,14 +1588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146825216"/>
+        <c:crossAx val="116106752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146825216"/>
+        <c:axId val="116106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137357184"/>
+        <c:crossAx val="116084096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,7 +1752,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1855,25 +1863,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
+                  <c:v>23.148148148148145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,11 +2012,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="149525632"/>
-        <c:axId val="149527552"/>
+        <c:axId val="116140672"/>
+        <c:axId val="116159232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149525632"/>
+        <c:axId val="116140672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,14 +2091,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149527552"/>
+        <c:crossAx val="116159232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149527552"/>
+        <c:axId val="116159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149525632"/>
+        <c:crossAx val="116140672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2247,7 +2255,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2387,11 +2395,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="118706560"/>
-        <c:axId val="118708480"/>
+        <c:axId val="114343296"/>
+        <c:axId val="114959872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118706560"/>
+        <c:axId val="114343296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,17 +2420,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118708480"/>
+        <c:crossAx val="114959872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118708480"/>
+        <c:axId val="114959872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,25 +2451,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118706560"/>
+        <c:crossAx val="114343296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2602,11 +2607,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="118747136"/>
-        <c:axId val="118749056"/>
+        <c:axId val="114990080"/>
+        <c:axId val="115012736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118747136"/>
+        <c:axId val="114990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,14 +2634,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118749056"/>
+        <c:crossAx val="115012736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118749056"/>
+        <c:axId val="115012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2666,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118747136"/>
+        <c:crossAx val="114990080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2674,7 +2679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2814,11 +2819,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="119921664"/>
-        <c:axId val="119927936"/>
+        <c:axId val="115312896"/>
+        <c:axId val="115339648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119921664"/>
+        <c:axId val="115312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,14 +2846,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119927936"/>
+        <c:crossAx val="115339648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119927936"/>
+        <c:axId val="115339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2878,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119921664"/>
+        <c:crossAx val="115312896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2891,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3026,11 +3031,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="119990912"/>
-        <c:axId val="120091392"/>
+        <c:axId val="115488640"/>
+        <c:axId val="115490816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119990912"/>
+        <c:axId val="115488640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,17 +3056,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120091392"/>
+        <c:crossAx val="115490816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120091392"/>
+        <c:axId val="115490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,25 +3087,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119990912"/>
+        <c:crossAx val="115488640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3241,11 +3243,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120125312"/>
-        <c:axId val="120004608"/>
+        <c:axId val="115524736"/>
+        <c:axId val="115526656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120125312"/>
+        <c:axId val="115524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3266,17 +3268,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120004608"/>
+        <c:crossAx val="115526656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120004608"/>
+        <c:axId val="115526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,25 +3299,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120125312"/>
+        <c:crossAx val="115524736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3456,11 +3455,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120047104"/>
-        <c:axId val="120049024"/>
+        <c:axId val="115581696"/>
+        <c:axId val="115583616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120047104"/>
+        <c:axId val="115581696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,17 +3480,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120049024"/>
+        <c:crossAx val="115583616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120049024"/>
+        <c:axId val="115583616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,25 +3511,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120047104"/>
+        <c:crossAx val="115581696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3671,11 +3667,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120165120"/>
-        <c:axId val="120167040"/>
+        <c:axId val="115630080"/>
+        <c:axId val="115632000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120165120"/>
+        <c:axId val="115630080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,17 +3692,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120167040"/>
+        <c:crossAx val="115632000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120167040"/>
+        <c:axId val="115632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,25 +3723,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120165120"/>
+        <c:crossAx val="115630080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4006,11 +3999,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="120690176"/>
-        <c:axId val="120692096"/>
+        <c:axId val="115970816"/>
+        <c:axId val="115972736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120690176"/>
+        <c:axId val="115970816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,14 +4078,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120692096"/>
+        <c:crossAx val="115972736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120692096"/>
+        <c:axId val="115972736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120690176"/>
+        <c:crossAx val="115970816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4249,7 +4242,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8209,7 +8202,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8229,9 +8222,7 @@
       <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:12">
@@ -8269,7 +8260,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="4">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="D4" s="3">
         <f>LOG(B4)/LOG(2)+3</f>
@@ -8277,7 +8268,7 @@
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
-        <v>96.153846153846146</v>
+        <v>23.148148148148145</v>
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
@@ -8295,7 +8286,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
@@ -8303,7 +8294,7 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
@@ -8321,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.49</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -8329,7 +8320,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>102.04081632653062</v>
+        <v>25</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
@@ -8347,7 +8338,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.93</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -8355,7 +8346,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>107.5268817204301</v>
+        <v>25</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
@@ -8373,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -8381,7 +8372,7 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>111.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
@@ -8399,7 +8390,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>3.6</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -8407,7 +8398,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>111.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
@@ -8425,7 +8416,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>7.1</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -8433,7 +8424,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>112.67605633802818</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
@@ -8684,7 +8675,7 @@
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>表1.1</t>
   </si>
@@ -320,6 +320,30 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>数据规模
+(M)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存显存
+时间效率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输时间(us)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间效率
+数据
+/时间GByte/s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GPU缓存优化 结论： 
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
 2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
@@ -327,7 +351,8 @@
 3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
 前者提升-80%（gtx670）、-40%（gts250）； 
 4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
-前者提升150%（gtx670）、-20%（gts250）；</t>
+前者提升150%（gtx670）、-20%（gts250）；
+5）时间效率，内存显存之间，数据量越大，时间效率持续增长；2M时130G，128M时2.5T。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -335,8 +360,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -442,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,10 +544,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,11 +722,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114319744"/>
-        <c:axId val="114321664"/>
+        <c:axId val="155538560"/>
+        <c:axId val="155540480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114319744"/>
+        <c:axId val="155538560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,14 +749,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114321664"/>
+        <c:crossAx val="155540480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114321664"/>
+        <c:axId val="155540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +781,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114319744"/>
+        <c:crossAx val="155538560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -746,7 +794,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,11 +1054,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116031488"/>
-        <c:axId val="116033408"/>
+        <c:axId val="160461568"/>
+        <c:axId val="160463488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116031488"/>
+        <c:axId val="160461568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1089,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1085,14 +1132,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116033408"/>
+        <c:crossAx val="160463488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116033408"/>
+        <c:axId val="160463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1184,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1176,7 +1222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116031488"/>
+        <c:crossAx val="160461568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,7 +1236,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1249,13 +1294,222 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数据规模
+(M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>传输时间(us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$30:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>时间效率
+数据
+/时间GByte/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0134228187919461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.724832214765101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.87012987012986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.92771084337346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1422.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2461.5384615384619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3368.4210526315787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3335.5048859934855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="160492160"/>
+        <c:axId val="159781248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160492160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159781248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159781248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160492160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1509,11 +1763,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116084096"/>
-        <c:axId val="116106752"/>
+        <c:axId val="160504448"/>
+        <c:axId val="160518912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116084096"/>
+        <c:axId val="160504448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1798,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1588,14 +1841,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116106752"/>
+        <c:crossAx val="160518912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116106752"/>
+        <c:axId val="160518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1893,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1679,7 +1931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116084096"/>
+        <c:crossAx val="160504448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,7 +1945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1752,13 +2003,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2012,11 +2263,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116140672"/>
-        <c:axId val="116159232"/>
+        <c:axId val="160540544"/>
+        <c:axId val="160567296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116140672"/>
+        <c:axId val="160540544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2091,14 +2341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116159232"/>
+        <c:crossAx val="160567296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116159232"/>
+        <c:axId val="160567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2182,7 +2431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116140672"/>
+        <c:crossAx val="160540544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,7 +2445,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2255,7 +2503,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2395,11 +2643,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114343296"/>
-        <c:axId val="114959872"/>
+        <c:axId val="156901760"/>
+        <c:axId val="156903680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114343296"/>
+        <c:axId val="156901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2670,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114959872"/>
+        <c:crossAx val="156903680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114959872"/>
+        <c:axId val="156903680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2702,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114343296"/>
+        <c:crossAx val="156901760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2467,7 +2715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2607,11 +2855,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114990080"/>
-        <c:axId val="115012736"/>
+        <c:axId val="156946432"/>
+        <c:axId val="156948352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114990080"/>
+        <c:axId val="156946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,14 +2882,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115012736"/>
+        <c:crossAx val="156948352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115012736"/>
+        <c:axId val="156948352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2914,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114990080"/>
+        <c:crossAx val="156946432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2679,7 +2927,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2819,11 +3067,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115312896"/>
-        <c:axId val="115339648"/>
+        <c:axId val="158698496"/>
+        <c:axId val="158717056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115312896"/>
+        <c:axId val="158698496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,14 +3094,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115339648"/>
+        <c:crossAx val="158717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115339648"/>
+        <c:axId val="158717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +3126,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115312896"/>
+        <c:crossAx val="158698496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,7 +3139,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3031,11 +3279,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115488640"/>
-        <c:axId val="115490816"/>
+        <c:axId val="158866048"/>
+        <c:axId val="158872320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115488640"/>
+        <c:axId val="158866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,14 +3306,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115490816"/>
+        <c:crossAx val="158872320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115490816"/>
+        <c:axId val="158872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3338,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115488640"/>
+        <c:crossAx val="158866048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3103,7 +3351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3243,11 +3491,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115524736"/>
-        <c:axId val="115526656"/>
+        <c:axId val="158898048"/>
+        <c:axId val="158916608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115524736"/>
+        <c:axId val="158898048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3518,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115526656"/>
+        <c:crossAx val="158916608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115526656"/>
+        <c:axId val="158916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3550,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115524736"/>
+        <c:crossAx val="158898048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3315,7 +3563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3455,11 +3703,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115581696"/>
-        <c:axId val="115583616"/>
+        <c:axId val="159225344"/>
+        <c:axId val="159227264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115581696"/>
+        <c:axId val="159225344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,14 +3730,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115583616"/>
+        <c:crossAx val="159227264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115583616"/>
+        <c:axId val="159227264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,7 +3762,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115581696"/>
+        <c:crossAx val="159225344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,7 +3775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3667,11 +3915,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115630080"/>
-        <c:axId val="115632000"/>
+        <c:axId val="159273728"/>
+        <c:axId val="159275648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115630080"/>
+        <c:axId val="159273728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,14 +3942,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115632000"/>
+        <c:crossAx val="159275648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115632000"/>
+        <c:axId val="159275648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3974,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115630080"/>
+        <c:crossAx val="159273728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3739,7 +3987,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3999,11 +4247,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115970816"/>
-        <c:axId val="115972736"/>
+        <c:axId val="159876608"/>
+        <c:axId val="159878528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115970816"/>
+        <c:axId val="159876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,14 +4326,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115972736"/>
+        <c:crossAx val="159878528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115972736"/>
+        <c:axId val="159878528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115970816"/>
+        <c:crossAx val="159876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4242,1096 +4490,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5651,6 +4813,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6516,26 +5708,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7051,16 +6243,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -7667,16 +6859,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8176,16 +7368,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="129" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8199,10 +7391,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8673,21 +7865,188 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="26" t="s">
+    <row r="27" spans="1:12" ht="27">
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="34"/>
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>3</v>
+      </c>
+      <c r="E28" s="28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="28">
+        <v>6</v>
+      </c>
+      <c r="H28" s="28">
+        <v>7</v>
+      </c>
+      <c r="I28" s="28">
+        <v>8</v>
+      </c>
+      <c r="J28" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27">
+      <c r="A29" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B29" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2</v>
+      </c>
+      <c r="F29" s="28">
+        <v>8</v>
+      </c>
+      <c r="G29" s="28">
+        <v>32</v>
+      </c>
+      <c r="H29" s="29">
+        <v>128</v>
+      </c>
+      <c r="I29" s="28">
+        <v>512</v>
+      </c>
+      <c r="J29" s="28">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27">
+      <c r="A30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="28">
+        <v>14.9</v>
+      </c>
+      <c r="C30" s="28">
+        <v>14.9</v>
+      </c>
+      <c r="D30" s="28">
+        <v>15.2</v>
+      </c>
+      <c r="E30" s="28">
+        <v>15.4</v>
+      </c>
+      <c r="F30" s="28">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G30" s="28">
+        <v>22.5</v>
+      </c>
+      <c r="H30" s="28">
+        <v>52</v>
+      </c>
+      <c r="I30" s="28">
+        <v>152</v>
+      </c>
+      <c r="J30" s="28">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="54">
+      <c r="A31" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="31">
+        <f t="shared" ref="B31:J31" si="6">B29/B30*1000</f>
+        <v>2.0134228187919461</v>
+      </c>
+      <c r="C31" s="31">
+        <f t="shared" si="6"/>
+        <v>8.724832214765101</v>
+      </c>
+      <c r="D31" s="31">
+        <f t="shared" si="6"/>
+        <v>32.89473684210526</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="6"/>
+        <v>129.87012987012986</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="6"/>
+        <v>481.92771084337346</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" si="6"/>
+        <v>1422.2222222222222</v>
+      </c>
+      <c r="H31" s="31">
+        <f t="shared" si="6"/>
+        <v>2461.5384615384619</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="6"/>
+        <v>3368.4210526315787</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" si="6"/>
+        <v>3335.5048859934855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="30"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="30"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="150.75" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A35:H35"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8700,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9177,16 +8536,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>表1.1</t>
   </si>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>传输时间(us)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>时间效率
 数据
 /时间GByte/s</t>
@@ -355,14 +351,50 @@
 5）时间效率，内存显存之间，数据量越大，时间效率持续增长；2M时130G，128M时2.5T。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>gtx670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gts250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输时间(T ms)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间效率
+E=数据
+/时间GByte/s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输时间(ms)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -432,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -464,11 +496,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,15 +639,54 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,11 +839,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="155538560"/>
-        <c:axId val="155540480"/>
+        <c:axId val="73376896"/>
+        <c:axId val="73378816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155538560"/>
+        <c:axId val="73376896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +866,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155540480"/>
+        <c:crossAx val="73378816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155540480"/>
+        <c:axId val="73378816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +898,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155538560"/>
+        <c:crossAx val="73376896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,7 +911,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1054,11 +1171,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160461568"/>
-        <c:axId val="160463488"/>
+        <c:axId val="73847552"/>
+        <c:axId val="73849472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160461568"/>
+        <c:axId val="73847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,14 +1249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160463488"/>
+        <c:crossAx val="73849472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160463488"/>
+        <c:axId val="73849472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160461568"/>
+        <c:crossAx val="73847552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1411,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1303,7 +1420,9 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
+  <c:style val="4"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1312,49 +1431,73 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>GPU GTX670</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>数据规模
-(M)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$29:$J$29</c:f>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0.77108433734939741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>2.275555555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>3.9384615384615382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024</c:v>
+                  <c:v>5.3894736842105262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,133 +1507,164 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>GPU GTS250</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>传输时间(us)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$30:$J$30</c:f>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$43:$I$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14.9</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.9</c:v>
+                  <c:v>1.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.2</c:v>
+                  <c:v>2.1739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.4</c:v>
+                  <c:v>2.9411764705882351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>3.4782608695652177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.5</c:v>
+                  <c:v>3.4042553191489362</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>3.4594594594594597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>307</c:v>
+                  <c:v>3.4829931972789114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>时间效率
-数据
-/时间GByte/s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.0134228187919461</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.724832214765101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.89473684210526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129.87012987012986</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>481.92771084337346</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1422.2222222222222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2461.5384615384619</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3368.4210526315787</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3335.5048859934855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="160492160"/>
-        <c:axId val="159781248"/>
+        <c:axId val="73931776"/>
+        <c:axId val="73950336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160492160"/>
+        <c:axId val="73931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>1&lt;&lt;(2x-7) MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159781248"/>
+        <c:crossAx val="73950336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159781248"/>
+        <c:axId val="73950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>带宽</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>GB/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160492160"/>
+        <c:crossAx val="73931776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,11 +1937,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160504448"/>
-        <c:axId val="160518912"/>
+        <c:axId val="74039296"/>
+        <c:axId val="74041216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160504448"/>
+        <c:axId val="74039296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,14 +2015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160518912"/>
+        <c:crossAx val="74041216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160518912"/>
+        <c:axId val="74041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +2105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160504448"/>
+        <c:crossAx val="74039296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,7 +2177,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2263,11 +2437,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160540544"/>
-        <c:axId val="160567296"/>
+        <c:axId val="74021888"/>
+        <c:axId val="74159232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160540544"/>
+        <c:axId val="74021888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,14 +2515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160567296"/>
+        <c:crossAx val="74159232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160567296"/>
+        <c:axId val="74159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160540544"/>
+        <c:crossAx val="74021888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,7 +2677,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2643,11 +2817,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156901760"/>
-        <c:axId val="156903680"/>
+        <c:axId val="73294208"/>
+        <c:axId val="73296128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156901760"/>
+        <c:axId val="73294208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,14 +2844,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156903680"/>
+        <c:crossAx val="73296128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156903680"/>
+        <c:axId val="73296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2876,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156901760"/>
+        <c:crossAx val="73294208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2715,7 +2889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2855,11 +3029,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156946432"/>
-        <c:axId val="156948352"/>
+        <c:axId val="73486336"/>
+        <c:axId val="73488256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156946432"/>
+        <c:axId val="73486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,14 +3056,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156948352"/>
+        <c:crossAx val="73488256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156948352"/>
+        <c:axId val="73488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +3088,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156946432"/>
+        <c:crossAx val="73486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2927,7 +3101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,11 +3241,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158698496"/>
-        <c:axId val="158717056"/>
+        <c:axId val="73530368"/>
+        <c:axId val="73401472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158698496"/>
+        <c:axId val="73530368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,14 +3268,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158717056"/>
+        <c:crossAx val="73401472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158717056"/>
+        <c:axId val="73401472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3300,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158698496"/>
+        <c:crossAx val="73530368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3139,7 +3313,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3279,11 +3453,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158866048"/>
-        <c:axId val="158872320"/>
+        <c:axId val="73566848"/>
+        <c:axId val="73573120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158866048"/>
+        <c:axId val="73566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,14 +3480,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158872320"/>
+        <c:crossAx val="73573120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158872320"/>
+        <c:axId val="73573120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3512,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158866048"/>
+        <c:crossAx val="73566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3351,7 +3525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3491,11 +3665,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158898048"/>
-        <c:axId val="158916608"/>
+        <c:axId val="73594752"/>
+        <c:axId val="73613312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158898048"/>
+        <c:axId val="73594752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,14 +3692,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158916608"/>
+        <c:crossAx val="73613312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158916608"/>
+        <c:axId val="73613312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3724,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158898048"/>
+        <c:crossAx val="73594752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3563,7 +3737,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3703,11 +3877,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159225344"/>
-        <c:axId val="159227264"/>
+        <c:axId val="73676288"/>
+        <c:axId val="73678208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159225344"/>
+        <c:axId val="73676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,14 +3904,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159227264"/>
+        <c:crossAx val="73678208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159227264"/>
+        <c:axId val="73678208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3936,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159225344"/>
+        <c:crossAx val="73676288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3775,7 +3949,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3915,11 +4089,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159273728"/>
-        <c:axId val="159275648"/>
+        <c:axId val="73704192"/>
+        <c:axId val="73706112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159273728"/>
+        <c:axId val="73704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,14 +4116,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159275648"/>
+        <c:crossAx val="73706112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159275648"/>
+        <c:axId val="73706112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +4148,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159273728"/>
+        <c:crossAx val="73704192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3987,7 +4161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4247,11 +4421,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159876608"/>
-        <c:axId val="159878528"/>
+        <c:axId val="73922048"/>
+        <c:axId val="73923968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159876608"/>
+        <c:axId val="73922048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4326,14 +4500,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159878528"/>
+        <c:crossAx val="73923968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159878528"/>
+        <c:axId val="73923968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,7 +4591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159876608"/>
+        <c:crossAx val="73922048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4490,7 +4664,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4821,19 +4995,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1647826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5708,26 +5882,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6243,16 +6417,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -6859,16 +7033,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7368,16 +7542,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="129" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7391,10 +7565,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7872,16 +8046,19 @@
       <c r="D27" s="26" t="s">
         <v>77</v>
       </c>
+      <c r="E27" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="34"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="28">
         <v>1</v>
       </c>
       <c r="C28" s="28">
         <v>2</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>3</v>
       </c>
       <c r="E28" s="28">
@@ -7896,12 +8073,10 @@
       <c r="H28" s="28">
         <v>7</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="41">
         <v>8</v>
       </c>
-      <c r="J28" s="28">
-        <v>9</v>
-      </c>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="27" t="s">
@@ -7928,97 +8103,90 @@
       <c r="H29" s="29">
         <v>128</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="41">
         <v>512</v>
       </c>
-      <c r="J29" s="28">
-        <v>1024</v>
-      </c>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="27">
-      <c r="A30" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="28">
-        <v>14.9</v>
-      </c>
-      <c r="C30" s="28">
-        <v>14.9</v>
-      </c>
-      <c r="D30" s="28">
-        <v>15.2</v>
-      </c>
-      <c r="E30" s="28">
-        <v>15.4</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="A30" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="40">
         <v>16.600000000000001</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="40">
         <v>22.5</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="40">
         <v>52</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="42">
         <v>152</v>
       </c>
-      <c r="J30" s="28">
-        <v>307</v>
-      </c>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="31">
-        <f t="shared" ref="B31:J31" si="6">B29/B30*1000</f>
-        <v>2.0134228187919461</v>
-      </c>
-      <c r="C31" s="31">
-        <f t="shared" si="6"/>
-        <v>8.724832214765101</v>
-      </c>
-      <c r="D31" s="31">
-        <f t="shared" si="6"/>
-        <v>32.89473684210526</v>
-      </c>
-      <c r="E31" s="31">
-        <f t="shared" si="6"/>
-        <v>129.87012987012986</v>
+        <v>78</v>
+      </c>
+      <c r="B31" s="31" t="e">
+        <f>B29/B30/625*1000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="31" t="e">
+        <f>C29/C30/625*1000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="31" t="e">
+        <f>D29/D30/625*1000</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="31" t="e">
+        <f>E29/E30/625*1000</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F31" s="31">
-        <f t="shared" si="6"/>
-        <v>481.92771084337346</v>
+        <f>F29/F30/625*1000</f>
+        <v>0.77108433734939741</v>
       </c>
       <c r="G31" s="31">
-        <f t="shared" si="6"/>
-        <v>1422.2222222222222</v>
+        <f>G29/G30/625*1000</f>
+        <v>2.275555555555556</v>
       </c>
       <c r="H31" s="31">
-        <f t="shared" si="6"/>
-        <v>2461.5384615384619</v>
-      </c>
-      <c r="I31" s="31">
-        <f t="shared" si="6"/>
-        <v>3368.4210526315787</v>
-      </c>
-      <c r="J31" s="31">
-        <f t="shared" si="6"/>
-        <v>3335.5048859934855</v>
-      </c>
+        <f>H29/H30/625*1000</f>
+        <v>3.9384615384615382</v>
+      </c>
+      <c r="I31" s="43">
+        <f>I29/I30/625*1000</f>
+        <v>5.3894736842105262</v>
+      </c>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="30"/>
@@ -8033,16 +8201,186 @@
       <c r="J33" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="150.75" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="39" spans="1:10" ht="27">
+      <c r="C39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="32"/>
+      <c r="B40" s="28">
+        <v>1</v>
+      </c>
+      <c r="C40" s="28">
+        <v>2</v>
+      </c>
+      <c r="D40" s="33">
+        <v>3</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4</v>
+      </c>
+      <c r="F40" s="28">
+        <v>5</v>
+      </c>
+      <c r="G40" s="28">
+        <v>6</v>
+      </c>
+      <c r="H40" s="28">
+        <v>7</v>
+      </c>
+      <c r="I40" s="28">
+        <v>8</v>
+      </c>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" ht="27">
+      <c r="A41" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="28">
+        <v>2</v>
+      </c>
+      <c r="F41" s="28">
+        <v>8</v>
+      </c>
+      <c r="G41" s="28">
+        <v>32</v>
+      </c>
+      <c r="H41" s="29">
+        <v>128</v>
+      </c>
+      <c r="I41" s="28">
+        <v>512</v>
+      </c>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:10" ht="27">
+      <c r="A42" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="C42" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="F42" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G42" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="H42" s="28">
+        <v>37</v>
+      </c>
+      <c r="I42" s="28">
+        <v>147</v>
+      </c>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" ht="54">
+      <c r="A43" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="38">
+        <f>B41/B42</f>
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="38">
+        <f>C41/C42</f>
+        <v>1.857142857142857</v>
+      </c>
+      <c r="D43" s="38">
+        <f>D41/D42</f>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="E43" s="38">
+        <f>E41/E42</f>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="F43" s="38">
+        <f>F41/F42</f>
+        <v>3.4782608695652177</v>
+      </c>
+      <c r="G43" s="38">
+        <f>G41/G42</f>
+        <v>3.4042553191489362</v>
+      </c>
+      <c r="H43" s="38">
+        <f>H41/H42</f>
+        <v>3.4594594594594597</v>
+      </c>
+      <c r="I43" s="38">
+        <f>I41/I42</f>
+        <v>3.4829931972789114</v>
+      </c>
+      <c r="J43" s="34"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="30"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="30"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8536,16 +8874,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>表1.1</t>
   </si>
@@ -340,18 +340,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU缓存优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
-前者是后者的2.5倍； 
-3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
-前者提升-80%（gtx670）、-40%（gts250）； 
-4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
-前者提升150%（gtx670）、-20%（gts250）；
-5）时间效率，内存显存之间，数据量越大，时间效率持续增长；2M时130G，128M时2.5T。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>gtx670</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -382,7 +370,18 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>GPU缓存优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
+前者是后者的2.5倍； 
+3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
+前者提升-80%（gtx670）、-40%（gts250）； 
+4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
+前者提升150%（gtx670）、-20%（gts250）；
+5）时间效率，内存显存之间，数据量越大，时间效率即带宽持续增长；
+gtx670:32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
+gts250:32K耗时0.04ms带宽0.8GB/s，2M耗时0.68ms带宽2.9GB/s，128M耗时37ms带宽3.5GB/s;
+数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.xx(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -522,31 +521,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,18 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -664,19 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -687,6 +642,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,11 +809,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73376896"/>
-        <c:axId val="73378816"/>
+        <c:axId val="154752128"/>
+        <c:axId val="154754048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73376896"/>
+        <c:axId val="154752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,14 +836,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73378816"/>
+        <c:crossAx val="154754048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73378816"/>
+        <c:axId val="154754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +868,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73376896"/>
+        <c:crossAx val="154752128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,7 +881,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1171,11 +1141,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73847552"/>
-        <c:axId val="73849472"/>
+        <c:axId val="158561024"/>
+        <c:axId val="158562944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73847552"/>
+        <c:axId val="158561024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +1219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73849472"/>
+        <c:crossAx val="158562944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73849472"/>
+        <c:axId val="158562944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73847552"/>
+        <c:crossAx val="158561024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1411,7 +1381,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1430,74 +1400,48 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>GPU GTX670</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$40:$I$40</c:f>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$K$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1.6842105263157896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>4.7619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77108433734939741</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.275555555555556</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9384615384615382</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3894736842105262</c:v>
+                  <c:v>3.6781609195402303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6834532374100721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,73 +1450,46 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>GPU GTS250</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$40:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$43:$I$43</c:f>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.857142857142857</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2.1739130434782608</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2.9411764705882351</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3.4782608695652177</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3.4042553191489362</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3.4594594594594597</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.4829931972789114</c:v>
                 </c:pt>
               </c:numCache>
@@ -1580,16 +1497,15 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showVal val="1"/>
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="73931776"/>
-        <c:axId val="73950336"/>
+        <c:axId val="158603904"/>
+        <c:axId val="158614272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73931776"/>
+        <c:axId val="158603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1531,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>1&lt;&lt;(2x-7) MB</a:t>
+                  <a:t>1&lt;&lt;(2x-11) MB</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1626,14 +1542,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73950336"/>
+        <c:crossAx val="158614272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73950336"/>
+        <c:axId val="158614272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1580,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73931776"/>
+        <c:crossAx val="158603904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1677,7 +1593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1937,11 +1853,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74039296"/>
-        <c:axId val="74041216"/>
+        <c:axId val="159128960"/>
+        <c:axId val="159143424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74039296"/>
+        <c:axId val="159128960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,14 +1931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74041216"/>
+        <c:crossAx val="159143424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74041216"/>
+        <c:axId val="159143424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2021,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74039296"/>
+        <c:crossAx val="159128960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2177,7 +2093,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2437,11 +2353,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74021888"/>
-        <c:axId val="74159232"/>
+        <c:axId val="159169152"/>
+        <c:axId val="159200000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74021888"/>
+        <c:axId val="159169152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,14 +2431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74159232"/>
+        <c:crossAx val="159200000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74159232"/>
+        <c:axId val="159200000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74021888"/>
+        <c:crossAx val="159169152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,7 +2593,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2817,11 +2733,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73294208"/>
-        <c:axId val="73296128"/>
+        <c:axId val="154149248"/>
+        <c:axId val="154151168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73294208"/>
+        <c:axId val="154149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,14 +2760,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73296128"/>
+        <c:crossAx val="154151168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73296128"/>
+        <c:axId val="154151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2792,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73294208"/>
+        <c:crossAx val="154149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,7 +2805,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3029,11 +2945,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73486336"/>
-        <c:axId val="73488256"/>
+        <c:axId val="154198016"/>
+        <c:axId val="154199936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73486336"/>
+        <c:axId val="154198016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,14 +2972,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73488256"/>
+        <c:crossAx val="154199936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73488256"/>
+        <c:axId val="154199936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3004,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73486336"/>
+        <c:crossAx val="154198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,7 +3017,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3241,11 +3157,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73530368"/>
-        <c:axId val="73401472"/>
+        <c:axId val="154962944"/>
+        <c:axId val="154985600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73530368"/>
+        <c:axId val="154962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,14 +3184,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73401472"/>
+        <c:crossAx val="154985600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73401472"/>
+        <c:axId val="154985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3216,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73530368"/>
+        <c:crossAx val="154962944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,7 +3229,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3453,11 +3369,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73566848"/>
-        <c:axId val="73573120"/>
+        <c:axId val="155196032"/>
+        <c:axId val="155206400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73566848"/>
+        <c:axId val="155196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,14 +3396,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73573120"/>
+        <c:crossAx val="155206400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73573120"/>
+        <c:axId val="155206400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,7 +3428,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73566848"/>
+        <c:crossAx val="155196032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,7 +3441,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3665,11 +3581,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73594752"/>
-        <c:axId val="73613312"/>
+        <c:axId val="155228032"/>
+        <c:axId val="155246592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73594752"/>
+        <c:axId val="155228032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,14 +3608,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73613312"/>
+        <c:crossAx val="155246592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73613312"/>
+        <c:axId val="155246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3724,7 +3640,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73594752"/>
+        <c:crossAx val="155228032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3737,7 +3653,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3877,11 +3793,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73676288"/>
-        <c:axId val="73678208"/>
+        <c:axId val="155555328"/>
+        <c:axId val="155557248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73676288"/>
+        <c:axId val="155555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,14 +3820,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73678208"/>
+        <c:crossAx val="155557248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73678208"/>
+        <c:axId val="155557248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +3852,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73676288"/>
+        <c:crossAx val="155555328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3949,7 +3865,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4089,11 +4005,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73704192"/>
-        <c:axId val="73706112"/>
+        <c:axId val="156979968"/>
+        <c:axId val="156981888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73704192"/>
+        <c:axId val="156979968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,14 +4032,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73706112"/>
+        <c:crossAx val="156981888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73706112"/>
+        <c:axId val="156981888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,7 +4064,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73704192"/>
+        <c:crossAx val="156979968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,7 +4077,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4421,11 +4337,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73922048"/>
-        <c:axId val="73923968"/>
+        <c:axId val="158500352"/>
+        <c:axId val="158502272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73922048"/>
+        <c:axId val="158500352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,7 +4372,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4500,14 +4415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73923968"/>
+        <c:crossAx val="158502272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73923968"/>
+        <c:axId val="158502272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4467,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4591,7 +4505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73922048"/>
+        <c:crossAx val="158500352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4605,7 +4519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4664,7 +4577,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4994,16 +4907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1647826</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5882,26 +5795,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6417,16 +6330,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -7033,16 +6946,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7542,16 +7455,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="129" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7567,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7576,6 +7489,7 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
@@ -8047,7 +7961,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8058,7 +7972,7 @@
       <c r="C28" s="28">
         <v>2</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="28">
         <v>3</v>
       </c>
       <c r="E28" s="28">
@@ -8073,157 +7987,188 @@
       <c r="H28" s="28">
         <v>7</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="28">
         <v>8</v>
       </c>
-      <c r="J28" s="44"/>
+      <c r="J28" s="28">
+        <v>9</v>
+      </c>
+      <c r="K28" s="28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="28">
-        <v>0.03</v>
+        <v>2E-3</v>
       </c>
       <c r="C29" s="28">
-        <v>0.13</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D29" s="28">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="28">
         <v>0.5</v>
       </c>
-      <c r="E29" s="28">
+      <c r="G29" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="28">
+      <c r="H29" s="28">
         <v>8</v>
       </c>
-      <c r="G29" s="28">
+      <c r="I29" s="28">
         <v>32</v>
       </c>
-      <c r="H29" s="29">
+      <c r="J29" s="29">
         <v>128</v>
       </c>
-      <c r="I29" s="41">
+      <c r="K29" s="28">
         <v>512</v>
       </c>
-      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="27">
-      <c r="A30" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="40">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G30" s="40">
-        <v>22.5</v>
-      </c>
-      <c r="H30" s="40">
-        <v>52</v>
-      </c>
-      <c r="I30" s="42">
-        <v>152</v>
-      </c>
-      <c r="J30" s="44"/>
+      <c r="A30" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D30" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F30" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="36">
+        <v>1.68</v>
+      </c>
+      <c r="I30" s="36">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J30" s="36">
+        <v>34</v>
+      </c>
+      <c r="K30" s="28">
+        <v>139</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="31" t="e">
-        <f>B29/B30/625*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="31" t="e">
-        <f>C29/C30/625*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="31" t="e">
-        <f>D29/D30/625*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="31" t="e">
-        <f>E29/E30/625*1000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="31">
-        <f>F29/F30/625*1000</f>
-        <v>0.77108433734939741</v>
-      </c>
-      <c r="G31" s="31">
-        <f>G29/G30/625*1000</f>
-        <v>2.275555555555556</v>
-      </c>
-      <c r="H31" s="31">
-        <f>H29/H30/625*1000</f>
-        <v>3.9384615384615382</v>
-      </c>
-      <c r="I31" s="43">
-        <f>I29/I30/625*1000</f>
-        <v>5.3894736842105262</v>
-      </c>
-      <c r="J31" s="45"/>
+      <c r="B31" s="37">
+        <f t="shared" ref="B31:K31" si="6">B29/B30</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C31" s="37">
+        <f t="shared" si="6"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="D31" s="37">
+        <f t="shared" si="6"/>
+        <v>1.6842105263157896</v>
+      </c>
+      <c r="E31" s="37">
+        <f t="shared" si="6"/>
+        <v>3.125</v>
+      </c>
+      <c r="F31" s="37">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="37">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="H31" s="37">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="I31" s="37">
+        <f t="shared" si="6"/>
+        <v>3.6781609195402303</v>
+      </c>
+      <c r="J31" s="37">
+        <f t="shared" si="6"/>
+        <v>3.7647058823529411</v>
+      </c>
+      <c r="K31" s="31">
+        <f t="shared" si="6"/>
+        <v>3.6834532374100721</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="30"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="150.75" customHeight="1">
-      <c r="A35" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="39" spans="1:10" ht="27">
+    <row r="34" spans="1:11">
+      <c r="C34" s="41"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:11" ht="174" customHeight="1">
+      <c r="A35" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="39" spans="1:11" ht="27">
       <c r="C39" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="32"/>
       <c r="B40" s="28">
         <v>1</v>
@@ -8231,7 +8176,7 @@
       <c r="C40" s="28">
         <v>2</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="28">
         <v>3</v>
       </c>
       <c r="E40" s="28">
@@ -8249,138 +8194,160 @@
       <c r="I40" s="28">
         <v>8</v>
       </c>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:10" ht="27">
+      <c r="J40" s="28">
+        <v>9</v>
+      </c>
+      <c r="K40" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="27">
       <c r="A41" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="28">
-        <v>0.03</v>
+        <v>2E-3</v>
       </c>
       <c r="C41" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D41" s="28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E41" s="28">
         <v>0.13</v>
       </c>
-      <c r="D41" s="28">
+      <c r="F41" s="28">
         <v>0.5</v>
       </c>
-      <c r="E41" s="28">
+      <c r="G41" s="28">
         <v>2</v>
       </c>
-      <c r="F41" s="28">
+      <c r="H41" s="28">
         <v>8</v>
       </c>
-      <c r="G41" s="28">
+      <c r="I41" s="28">
         <v>32</v>
       </c>
-      <c r="H41" s="29">
+      <c r="J41" s="29">
         <v>128</v>
       </c>
-      <c r="I41" s="28">
+      <c r="K41" s="28">
         <v>512</v>
       </c>
-      <c r="J41" s="25"/>
-    </row>
-    <row r="42" spans="1:10" ht="27">
+    </row>
+    <row r="42" spans="1:11" ht="27">
       <c r="A42" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="E42" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="G42" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="H42" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I42" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="J42" s="28">
+        <v>37</v>
+      </c>
+      <c r="K42" s="28">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="54">
+      <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="28">
-        <v>0.04</v>
-      </c>
-      <c r="C42" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D42" s="28">
-        <v>0.23</v>
-      </c>
-      <c r="E42" s="28">
-        <v>0.68</v>
-      </c>
-      <c r="F42" s="28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G42" s="28">
-        <v>9.4</v>
-      </c>
-      <c r="H42" s="28">
-        <v>37</v>
-      </c>
-      <c r="I42" s="28">
-        <v>147</v>
-      </c>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:10" ht="54">
-      <c r="A43" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="38">
-        <f>B41/B42</f>
-        <v>0.75</v>
-      </c>
-      <c r="C43" s="38">
-        <f>C41/C42</f>
+      <c r="B43" s="34" t="e">
+        <f t="shared" ref="B43:C43" si="7">B41/B42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="34" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="34">
+        <f t="shared" ref="D43" si="8">D41/D42</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E43" s="34">
+        <f t="shared" ref="E43" si="9">E41/E42</f>
         <v>1.857142857142857</v>
       </c>
-      <c r="D43" s="38">
-        <f>D41/D42</f>
+      <c r="F43" s="34">
+        <f t="shared" ref="F43" si="10">F41/F42</f>
         <v>2.1739130434782608</v>
       </c>
-      <c r="E43" s="38">
-        <f>E41/E42</f>
+      <c r="G43" s="34">
+        <f t="shared" ref="G43" si="11">G41/G42</f>
         <v>2.9411764705882351</v>
       </c>
-      <c r="F43" s="38">
-        <f>F41/F42</f>
+      <c r="H43" s="34">
+        <f t="shared" ref="H43" si="12">H41/H42</f>
         <v>3.4782608695652177</v>
       </c>
-      <c r="G43" s="38">
-        <f>G41/G42</f>
+      <c r="I43" s="34">
+        <f t="shared" ref="I43" si="13">I41/I42</f>
         <v>3.4042553191489362</v>
       </c>
-      <c r="H43" s="38">
-        <f>H41/H42</f>
+      <c r="J43" s="31">
+        <f t="shared" ref="J43" si="14">J41/J42</f>
         <v>3.4594594594594597</v>
       </c>
-      <c r="I43" s="38">
-        <f>I41/I42</f>
+      <c r="K43" s="31">
+        <f t="shared" ref="K43" si="15">K41/K42</f>
         <v>3.4829931972789114</v>
       </c>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="30"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="30"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8874,16 +8841,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>表1.1</t>
   </si>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU缓存优化 结论： 
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
 2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
@@ -381,7 +377,7 @@
 5）时间效率，内存显存之间，数据量越大，时间效率即带宽持续增长；
 gtx670:32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
 gts250:32K耗时0.04ms带宽0.8GB/s，2M耗时0.68ms带宽2.9GB/s，128M耗时37ms带宽3.5GB/s;
-数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.xx(gts250);</t>
+数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -809,11 +805,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="154752128"/>
-        <c:axId val="154754048"/>
+        <c:axId val="92551040"/>
+        <c:axId val="92561408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154752128"/>
+        <c:axId val="92551040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,14 +832,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154754048"/>
+        <c:crossAx val="92561408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154754048"/>
+        <c:axId val="92561408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +864,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154752128"/>
+        <c:crossAx val="92551040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -881,7 +877,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1141,11 +1137,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158561024"/>
-        <c:axId val="158562944"/>
+        <c:axId val="95388800"/>
+        <c:axId val="95390720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158561024"/>
+        <c:axId val="95388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,14 +1215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158562944"/>
+        <c:crossAx val="95390720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158562944"/>
+        <c:axId val="95390720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158561024"/>
+        <c:crossAx val="95388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1381,7 +1377,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1463,34 +1459,34 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.407407407407407E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.77500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.857142857142857</c:v>
+                  <c:v>1.9402985074626866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1739130434782608</c:v>
+                  <c:v>2.3809523809523809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9411764705882351</c:v>
+                  <c:v>2.8985507246376816</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.4782608695652177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4042553191489362</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4594594594594597</c:v>
+                  <c:v>3.3684210526315788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4829931972789114</c:v>
+                  <c:v>3.436241610738255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,11 +1497,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="158603904"/>
-        <c:axId val="158614272"/>
+        <c:axId val="95419392"/>
+        <c:axId val="96089216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158603904"/>
+        <c:axId val="95419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,14 +1538,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158614272"/>
+        <c:crossAx val="96089216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158614272"/>
+        <c:axId val="96089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1576,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158603904"/>
+        <c:crossAx val="95419392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1589,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1853,11 +1849,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159128960"/>
-        <c:axId val="159143424"/>
+        <c:axId val="96399360"/>
+        <c:axId val="96401280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159128960"/>
+        <c:axId val="96399360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,14 +1927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159143424"/>
+        <c:crossAx val="96401280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159143424"/>
+        <c:axId val="96401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159128960"/>
+        <c:crossAx val="96399360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2093,7 +2089,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2353,11 +2349,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159169152"/>
-        <c:axId val="159200000"/>
+        <c:axId val="96418816"/>
+        <c:axId val="96437376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159169152"/>
+        <c:axId val="96418816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,14 +2427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159200000"/>
+        <c:crossAx val="96437376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159200000"/>
+        <c:axId val="96437376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159169152"/>
+        <c:crossAx val="96418816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,7 +2589,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2733,11 +2729,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="154149248"/>
-        <c:axId val="154151168"/>
+        <c:axId val="94581888"/>
+        <c:axId val="94583808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154149248"/>
+        <c:axId val="94581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,14 +2756,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154151168"/>
+        <c:crossAx val="94583808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154151168"/>
+        <c:axId val="94583808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2788,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154149248"/>
+        <c:crossAx val="94581888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2805,7 +2801,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2945,11 +2941,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="154198016"/>
-        <c:axId val="154199936"/>
+        <c:axId val="94716672"/>
+        <c:axId val="94718592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154198016"/>
+        <c:axId val="94716672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,14 +2968,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154199936"/>
+        <c:crossAx val="94718592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154199936"/>
+        <c:axId val="94718592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3000,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154198016"/>
+        <c:crossAx val="94716672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3017,7 +3013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3157,11 +3153,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="154962944"/>
-        <c:axId val="154985600"/>
+        <c:axId val="94646272"/>
+        <c:axId val="94648192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154962944"/>
+        <c:axId val="94646272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,14 +3180,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154985600"/>
+        <c:crossAx val="94648192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154985600"/>
+        <c:axId val="94648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3212,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154962944"/>
+        <c:crossAx val="94646272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3229,7 +3225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3369,11 +3365,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="155196032"/>
-        <c:axId val="155206400"/>
+        <c:axId val="94690688"/>
+        <c:axId val="94696960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155196032"/>
+        <c:axId val="94690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,14 +3392,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155206400"/>
+        <c:crossAx val="94696960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155206400"/>
+        <c:axId val="94696960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +3424,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155196032"/>
+        <c:crossAx val="94690688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3441,7 +3437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3581,11 +3577,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="155228032"/>
-        <c:axId val="155246592"/>
+        <c:axId val="95070848"/>
+        <c:axId val="95093504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155228032"/>
+        <c:axId val="95070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,14 +3604,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155246592"/>
+        <c:crossAx val="95093504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155246592"/>
+        <c:axId val="95093504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3636,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155228032"/>
+        <c:crossAx val="95070848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3653,7 +3649,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3793,11 +3789,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="155555328"/>
-        <c:axId val="155557248"/>
+        <c:axId val="95319936"/>
+        <c:axId val="95326208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155555328"/>
+        <c:axId val="95319936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,14 +3816,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155557248"/>
+        <c:crossAx val="95326208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155557248"/>
+        <c:axId val="95326208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3848,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155555328"/>
+        <c:crossAx val="95319936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3865,7 +3861,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4005,11 +4001,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156979968"/>
-        <c:axId val="156981888"/>
+        <c:axId val="95224960"/>
+        <c:axId val="95226880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156979968"/>
+        <c:axId val="95224960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,14 +4028,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156981888"/>
+        <c:crossAx val="95226880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156981888"/>
+        <c:axId val="95226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4060,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156979968"/>
+        <c:crossAx val="95224960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4077,7 +4073,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4337,11 +4333,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158500352"/>
-        <c:axId val="158502272"/>
+        <c:axId val="95786880"/>
+        <c:axId val="95793152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158500352"/>
+        <c:axId val="95786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,6 +4368,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4415,14 +4412,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158502272"/>
+        <c:crossAx val="95793152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158502272"/>
+        <c:axId val="95793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,6 +4464,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4505,7 +4503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158500352"/>
+        <c:crossAx val="95786880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4519,6 +4517,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4577,7 +4576,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7480,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8147,7 +8146,7 @@
     </row>
     <row r="35" spans="1:11" ht="174" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -8240,48 +8239,48 @@
       <c r="A42" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>85</v>
+      <c r="B42" s="28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0.03</v>
       </c>
       <c r="D42" s="28">
         <v>0.04</v>
       </c>
       <c r="E42" s="28">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F42" s="28">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G42" s="28">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="H42" s="28">
         <v>2.2999999999999998</v>
       </c>
       <c r="I42" s="28">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J42" s="28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K42" s="28">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="54">
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="34" t="e">
+      <c r="B43" s="34">
         <f t="shared" ref="B43:C43" si="7">B41/B42</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="34" t="e">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C43" s="34">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D43" s="34">
         <f t="shared" ref="D43" si="8">D41/D42</f>
@@ -8289,15 +8288,15 @@
       </c>
       <c r="E43" s="34">
         <f t="shared" ref="E43" si="9">E41/E42</f>
-        <v>1.857142857142857</v>
+        <v>1.9402985074626866</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" ref="F43" si="10">F41/F42</f>
-        <v>2.1739130434782608</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="G43" s="34">
         <f t="shared" ref="G43" si="11">G41/G42</f>
-        <v>2.9411764705882351</v>
+        <v>2.8985507246376816</v>
       </c>
       <c r="H43" s="34">
         <f t="shared" ref="H43" si="12">H41/H42</f>
@@ -8305,15 +8304,15 @@
       </c>
       <c r="I43" s="34">
         <f t="shared" ref="I43" si="13">I41/I42</f>
-        <v>3.4042553191489362</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J43" s="31">
         <f t="shared" ref="J43" si="14">J41/J42</f>
-        <v>3.4594594594594597</v>
+        <v>3.3684210526315788</v>
       </c>
       <c r="K43" s="31">
         <f t="shared" ref="K43" si="15">K41/K42</f>
-        <v>3.4829931972789114</v>
+        <v>3.436241610738255</v>
       </c>
     </row>
     <row r="44" spans="1:11">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -334,12 +334,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>时间效率
-数据
-/时间GByte/s</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>gtx670</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -353,12 +347,6 @@
   </si>
   <si>
     <t>传输时间(T ms)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间效率
-E=数据
-/时间GByte/s</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +366,16 @@
 gtx670:32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
 gts250:32K耗时0.04ms带宽0.8GB/s，2M耗时0.68ms带宽2.9GB/s，128M耗时37ms带宽3.5GB/s;
 数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间效率
+数据/时间GByte/s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间效率
+E=数据/时间GByte/s</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -805,11 +803,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92551040"/>
-        <c:axId val="92561408"/>
+        <c:axId val="96516736"/>
+        <c:axId val="96523008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92551040"/>
+        <c:axId val="96516736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,14 +830,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92561408"/>
+        <c:crossAx val="96523008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92561408"/>
+        <c:axId val="96523008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +862,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92551040"/>
+        <c:crossAx val="96516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,7 +875,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1137,11 +1135,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95388800"/>
-        <c:axId val="95390720"/>
+        <c:axId val="100468992"/>
+        <c:axId val="100512128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95388800"/>
+        <c:axId val="100468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,14 +1213,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95390720"/>
+        <c:crossAx val="100512128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95390720"/>
+        <c:axId val="100512128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95388800"/>
+        <c:crossAx val="100468992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1377,7 +1375,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1497,11 +1495,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="95419392"/>
-        <c:axId val="96089216"/>
+        <c:axId val="100872576"/>
+        <c:axId val="100874496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95419392"/>
+        <c:axId val="100872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,14 +1536,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96089216"/>
+        <c:crossAx val="100874496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96089216"/>
+        <c:axId val="100874496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1574,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95419392"/>
+        <c:crossAx val="100872576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,7 +1587,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1849,11 +1847,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="96399360"/>
-        <c:axId val="96401280"/>
+        <c:axId val="102323328"/>
+        <c:axId val="102325248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96399360"/>
+        <c:axId val="102323328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,14 +1925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96401280"/>
+        <c:crossAx val="102325248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96401280"/>
+        <c:axId val="102325248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96399360"/>
+        <c:crossAx val="102323328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2089,7 +2087,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2349,11 +2347,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="96418816"/>
-        <c:axId val="96437376"/>
+        <c:axId val="102375808"/>
+        <c:axId val="102377728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96418816"/>
+        <c:axId val="102375808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,14 +2425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96437376"/>
+        <c:crossAx val="102377728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96437376"/>
+        <c:axId val="102377728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96418816"/>
+        <c:crossAx val="102375808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,7 +2587,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2729,11 +2727,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94581888"/>
-        <c:axId val="94583808"/>
+        <c:axId val="97683328"/>
+        <c:axId val="97701888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94581888"/>
+        <c:axId val="97683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,14 +2754,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94583808"/>
+        <c:crossAx val="97701888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94583808"/>
+        <c:axId val="97701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2786,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94581888"/>
+        <c:crossAx val="97683328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2801,7 +2799,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2941,11 +2939,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94716672"/>
-        <c:axId val="94718592"/>
+        <c:axId val="98121216"/>
+        <c:axId val="98123136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94716672"/>
+        <c:axId val="98121216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,14 +2966,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94718592"/>
+        <c:crossAx val="98123136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94718592"/>
+        <c:axId val="98123136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +2998,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94716672"/>
+        <c:crossAx val="98121216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3013,7 +3011,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,11 +3151,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94646272"/>
-        <c:axId val="94648192"/>
+        <c:axId val="98222848"/>
+        <c:axId val="98224768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94646272"/>
+        <c:axId val="98222848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,14 +3178,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94648192"/>
+        <c:crossAx val="98224768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94648192"/>
+        <c:axId val="98224768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3210,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94646272"/>
+        <c:crossAx val="98222848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3225,7 +3223,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3365,11 +3363,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94690688"/>
-        <c:axId val="94696960"/>
+        <c:axId val="98324864"/>
+        <c:axId val="98326784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94690688"/>
+        <c:axId val="98324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,14 +3390,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94696960"/>
+        <c:crossAx val="98326784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94696960"/>
+        <c:axId val="98326784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3422,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94690688"/>
+        <c:crossAx val="98324864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3437,7 +3435,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3577,11 +3575,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95070848"/>
-        <c:axId val="95093504"/>
+        <c:axId val="98356608"/>
+        <c:axId val="98403840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95070848"/>
+        <c:axId val="98356608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,14 +3602,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95093504"/>
+        <c:crossAx val="98403840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95093504"/>
+        <c:axId val="98403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +3634,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95070848"/>
+        <c:crossAx val="98356608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3649,7 +3647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3789,11 +3787,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95319936"/>
-        <c:axId val="95326208"/>
+        <c:axId val="98446336"/>
+        <c:axId val="98456704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95319936"/>
+        <c:axId val="98446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,14 +3814,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95326208"/>
+        <c:crossAx val="98456704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95326208"/>
+        <c:axId val="98456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +3846,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95319936"/>
+        <c:crossAx val="98446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3861,7 +3859,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4001,11 +3999,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95224960"/>
-        <c:axId val="95226880"/>
+        <c:axId val="98502912"/>
+        <c:axId val="98521472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95224960"/>
+        <c:axId val="98502912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,14 +4026,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95226880"/>
+        <c:crossAx val="98521472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95226880"/>
+        <c:axId val="98521472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4058,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95224960"/>
+        <c:crossAx val="98502912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4073,7 +4071,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4333,11 +4331,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95786880"/>
-        <c:axId val="95793152"/>
+        <c:axId val="98692096"/>
+        <c:axId val="100426880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95786880"/>
+        <c:axId val="98692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,14 +4410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95793152"/>
+        <c:crossAx val="100426880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95793152"/>
+        <c:axId val="100426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,7 +4501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95786880"/>
+        <c:crossAx val="98692096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4576,7 +4574,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7479,12 +7477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
@@ -7960,7 +7959,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8033,7 +8032,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="36">
         <v>1.4999999999999999E-2</v>
@@ -8066,9 +8065,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="54">
+    <row r="31" spans="1:12" ht="40.5">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B31" s="37">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -8146,7 +8145,7 @@
     </row>
     <row r="35" spans="1:11" ht="174" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -8158,13 +8157,13 @@
     </row>
     <row r="39" spans="1:11" ht="27">
       <c r="C39" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8237,7 +8236,7 @@
     </row>
     <row r="42" spans="1:11" ht="27">
       <c r="A42" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="28">
         <v>2.7E-2</v>
@@ -8270,9 +8269,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="54">
+    <row r="43" spans="1:11" ht="40.5">
       <c r="A43" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="34">
         <f t="shared" ref="B43:C43" si="7">B41/B42</f>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>表1.1</t>
   </si>
@@ -320,6 +323,46 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>表5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存显存
+时间效率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据规模
+(M)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtx670
+传输时间(ms)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtx670
+时间效率
+数据/时间GByte/s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtx250
+传输时间(ms)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtx250
+时间效率
+数据/时间GByte/s</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GPU缓存优化 结论： 
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
 2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
@@ -327,7 +370,11 @@
 3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
 前者提升-80%（gtx670）、-40%（gts250）； 
 4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
-前者提升150%（gtx670）、-20%（gts250）；</t>
+前者提升150%（gtx670）、-20%（gts250）；
+5）时间效率，内存显存之间，时间效率即带宽随数据规模持续增长；
+gtx670: 32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
+gts250: 32K耗时0.04ms带宽0.8GB/s，2M耗时0.69ms带宽2.9GB/s，128M耗时38ms带宽3.4GB/s;
+数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -335,8 +382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -406,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -438,11 +486,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +597,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,11 +773,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114319744"/>
-        <c:axId val="114321664"/>
+        <c:axId val="86926080"/>
+        <c:axId val="86928000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114319744"/>
+        <c:axId val="86926080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,14 +800,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114321664"/>
+        <c:crossAx val="86928000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114321664"/>
+        <c:axId val="86928000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +832,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114319744"/>
+        <c:crossAx val="86926080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -746,7 +845,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,11 +1105,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116031488"/>
-        <c:axId val="116033408"/>
+        <c:axId val="90345472"/>
+        <c:axId val="90347392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116031488"/>
+        <c:axId val="90345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +1184,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116033408"/>
+        <c:crossAx val="90347392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116033408"/>
+        <c:axId val="90347392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116031488"/>
+        <c:crossAx val="90345472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,13 +1348,231 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU GTX670</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6842105263157896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6781609195402303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6834532374100721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU GTS250</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.407407407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8656716417910446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8985507246376816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4782608695652177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.436241610738255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:dropLines/>
+        <c:marker val="1"/>
+        <c:axId val="65461632"/>
+        <c:axId val="60503552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65461632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(1&lt;&lt;(2x-11)) MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60503552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60503552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>带宽</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>GB/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65461632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1509,11 +1826,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116084096"/>
-        <c:axId val="116106752"/>
+        <c:axId val="90172800"/>
+        <c:axId val="90457600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116084096"/>
+        <c:axId val="90172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,14 +1905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116106752"/>
+        <c:crossAx val="90457600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116106752"/>
+        <c:axId val="90457600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1996,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116084096"/>
+        <c:crossAx val="90172800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,13 +2069,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2012,11 +2329,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116140672"/>
-        <c:axId val="116159232"/>
+        <c:axId val="90487424"/>
+        <c:axId val="90497792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116140672"/>
+        <c:axId val="90487424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,14 +2408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116159232"/>
+        <c:crossAx val="90497792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116159232"/>
+        <c:axId val="90497792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116140672"/>
+        <c:crossAx val="90487424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,7 +2572,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2395,11 +2712,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114343296"/>
-        <c:axId val="114959872"/>
+        <c:axId val="87109632"/>
+        <c:axId val="87111552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114343296"/>
+        <c:axId val="87109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2739,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114959872"/>
+        <c:crossAx val="87111552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114959872"/>
+        <c:axId val="87111552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2771,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114343296"/>
+        <c:crossAx val="87109632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2467,7 +2784,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2607,11 +2924,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="114990080"/>
-        <c:axId val="115012736"/>
+        <c:axId val="87563648"/>
+        <c:axId val="87590400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114990080"/>
+        <c:axId val="87563648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,14 +2951,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115012736"/>
+        <c:crossAx val="87590400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115012736"/>
+        <c:axId val="87590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2983,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114990080"/>
+        <c:crossAx val="87563648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2679,7 +2996,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2819,11 +3136,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115312896"/>
-        <c:axId val="115339648"/>
+        <c:axId val="88283776"/>
+        <c:axId val="88294144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115312896"/>
+        <c:axId val="88283776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,14 +3163,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115339648"/>
+        <c:crossAx val="88294144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115339648"/>
+        <c:axId val="88294144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +3195,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115312896"/>
+        <c:crossAx val="88283776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,7 +3208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3031,11 +3348,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115488640"/>
-        <c:axId val="115490816"/>
+        <c:axId val="88336640"/>
+        <c:axId val="88351104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115488640"/>
+        <c:axId val="88336640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,14 +3375,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115490816"/>
+        <c:crossAx val="88351104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115490816"/>
+        <c:axId val="88351104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3407,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115488640"/>
+        <c:crossAx val="88336640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3103,7 +3420,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3243,11 +3560,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115524736"/>
-        <c:axId val="115526656"/>
+        <c:axId val="88397312"/>
+        <c:axId val="88399232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115524736"/>
+        <c:axId val="88397312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3587,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115526656"/>
+        <c:crossAx val="88399232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115526656"/>
+        <c:axId val="88399232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3619,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115524736"/>
+        <c:crossAx val="88397312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3315,7 +3632,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3455,11 +3772,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115581696"/>
-        <c:axId val="115583616"/>
+        <c:axId val="90010368"/>
+        <c:axId val="90012288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115581696"/>
+        <c:axId val="90010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,14 +3799,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115583616"/>
+        <c:crossAx val="90012288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115583616"/>
+        <c:axId val="90012288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,7 +3831,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115581696"/>
+        <c:crossAx val="90010368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,7 +3844,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3667,11 +3984,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115630080"/>
-        <c:axId val="115632000"/>
+        <c:axId val="90062848"/>
+        <c:axId val="90064768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115630080"/>
+        <c:axId val="90062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,14 +4011,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115632000"/>
+        <c:crossAx val="90064768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115632000"/>
+        <c:axId val="90064768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +4043,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115630080"/>
+        <c:crossAx val="90062848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3739,7 +4056,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3999,11 +4316,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115970816"/>
-        <c:axId val="115972736"/>
+        <c:axId val="90284800"/>
+        <c:axId val="90286720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115970816"/>
+        <c:axId val="90284800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,14 +4395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115972736"/>
+        <c:crossAx val="90286720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115972736"/>
+        <c:axId val="90286720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115970816"/>
+        <c:crossAx val="90284800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4242,7 +4559,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5656,6 +5973,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5722,6 +6069,94 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1.问题规模与时间效率的关系-CPU单线程"/>
+      <sheetName val="2.问题规模与时间效率的关系-CPU多线程"/>
+      <sheetName val="3.问题规模与时间效率的关系-GPU初始"/>
+      <sheetName val="4.问题规模与时间效率的关系-GPU优化1"/>
+      <sheetName val="5.问题规模与时间效率的关系-GPU优化2"/>
+      <sheetName val="6.问题规模与时间效率的关系-GPU优化3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="31">
+          <cell r="B31">
+            <v>0.13333333333333333</v>
+          </cell>
+          <cell r="C31">
+            <v>0.47058823529411764</v>
+          </cell>
+          <cell r="D31">
+            <v>1.6842105263157896</v>
+          </cell>
+          <cell r="E31">
+            <v>3.125</v>
+          </cell>
+          <cell r="F31">
+            <v>5</v>
+          </cell>
+          <cell r="G31">
+            <v>5.5555555555555554</v>
+          </cell>
+          <cell r="H31">
+            <v>4.7619047619047619</v>
+          </cell>
+          <cell r="I31">
+            <v>3.6781609195402303</v>
+          </cell>
+          <cell r="J31">
+            <v>3.7647058823529411</v>
+          </cell>
+          <cell r="K31">
+            <v>3.6834532374100721</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>7.407407407407407E-2</v>
+          </cell>
+          <cell r="C43">
+            <v>0.26666666666666666</v>
+          </cell>
+          <cell r="D43">
+            <v>0.8</v>
+          </cell>
+          <cell r="E43">
+            <v>1.8656716417910446</v>
+          </cell>
+          <cell r="F43">
+            <v>2.3809523809523809</v>
+          </cell>
+          <cell r="G43">
+            <v>2.8985507246376816</v>
+          </cell>
+          <cell r="H43">
+            <v>3.4782608695652177</v>
+          </cell>
+          <cell r="I43">
+            <v>3.3333333333333335</v>
+          </cell>
+          <cell r="J43">
+            <v>3.3684210526315788</v>
+          </cell>
+          <cell r="K43">
+            <v>3.436241610738255</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8199,14 +8634,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
@@ -8673,21 +9109,263 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="26" t="s">
+    <row r="27" spans="1:12" ht="27">
+      <c r="C27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2</v>
+      </c>
+      <c r="D28" s="30">
+        <v>3</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>5</v>
+      </c>
+      <c r="G28" s="30">
+        <v>6</v>
+      </c>
+      <c r="H28" s="30">
+        <v>7</v>
+      </c>
+      <c r="I28" s="30">
+        <v>8</v>
+      </c>
+      <c r="J28" s="30">
+        <v>9</v>
+      </c>
+      <c r="K28" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27">
+      <c r="A29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2E-3</v>
+      </c>
+      <c r="C29" s="30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D29" s="30">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E29" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="30">
+        <v>2</v>
+      </c>
+      <c r="H29" s="30">
+        <v>8</v>
+      </c>
+      <c r="I29" s="30">
+        <v>32</v>
+      </c>
+      <c r="J29" s="32">
+        <v>128</v>
+      </c>
+      <c r="K29" s="30">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27">
+      <c r="A30" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.04</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="34">
+        <v>1.68</v>
+      </c>
+      <c r="I30" s="34">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J30" s="34">
+        <v>34</v>
+      </c>
+      <c r="K30" s="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="54">
+      <c r="A31" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="35">
+        <f t="shared" ref="B31:K31" si="6">B29/B30</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C31" s="35">
+        <f t="shared" si="6"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="D31" s="35">
+        <f t="shared" si="6"/>
+        <v>1.6842105263157896</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="6"/>
+        <v>3.125</v>
+      </c>
+      <c r="F31" s="35">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="35">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="H31" s="35">
+        <f t="shared" si="6"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="I31" s="35">
+        <f t="shared" si="6"/>
+        <v>3.6781609195402303</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" si="6"/>
+        <v>3.7647058823529411</v>
+      </c>
+      <c r="K31" s="36">
+        <f t="shared" si="6"/>
+        <v>3.6834532374100721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="27">
+      <c r="A32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="30">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="E32" s="30">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="H32" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I32" s="30">
+        <v>9.6</v>
+      </c>
+      <c r="J32" s="30">
+        <v>38</v>
+      </c>
+      <c r="K32" s="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="54">
+      <c r="A33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="35">
+        <f>B29/B32</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C33" s="35">
+        <f>C29/C32</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D33" s="35">
+        <f>D29/D32</f>
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="35">
+        <f>E29/E32</f>
+        <v>1.8656716417910446</v>
+      </c>
+      <c r="F33" s="35">
+        <f>F29/F32</f>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="G33" s="35">
+        <f>G29/G32</f>
+        <v>2.8985507246376816</v>
+      </c>
+      <c r="H33" s="35">
+        <f>H29/H32</f>
+        <v>3.4782608695652177</v>
+      </c>
+      <c r="I33" s="35">
+        <f>I29/I32</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J33" s="35">
+        <f>J29/J32</f>
+        <v>3.3684210526315788</v>
+      </c>
+      <c r="K33" s="36">
+        <f>K29/K32</f>
+        <v>3.436241610738255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="O34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="173.25" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A38:H38"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8700,7 +9378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>表1.1</t>
   </si>
@@ -377,6 +374,39 @@
 数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>表4.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复
+VS
+非重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp读取
+同一个值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,12 +622,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -621,6 +645,15 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,11 +806,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="86926080"/>
-        <c:axId val="86928000"/>
+        <c:axId val="93832704"/>
+        <c:axId val="93834624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86926080"/>
+        <c:axId val="93832704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,14 +833,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86928000"/>
+        <c:crossAx val="93834624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86928000"/>
+        <c:axId val="93834624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +865,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86926080"/>
+        <c:crossAx val="93832704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,13 +878,513 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>常量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$18:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.75268817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.526315789473683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.810810810810811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.95890410958904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非常量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.391304347826086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="126551936"/>
+        <c:axId val="126574592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126551936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126574592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126574592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126551936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1105,11 +1638,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90345472"/>
-        <c:axId val="90347392"/>
+        <c:axId val="126616704"/>
+        <c:axId val="126618624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90345472"/>
+        <c:axId val="126616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1184,14 +1716,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90347392"/>
+        <c:crossAx val="126618624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90347392"/>
+        <c:axId val="126618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1768,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1275,7 +1806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90345472"/>
+        <c:crossAx val="126616704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,7 +1820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1348,13 +1878,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:style val="4"/>
@@ -1474,11 +2004,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="65461632"/>
-        <c:axId val="60503552"/>
+        <c:axId val="126647296"/>
+        <c:axId val="126649472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65461632"/>
+        <c:axId val="126647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,14 +2045,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60503552"/>
+        <c:crossAx val="126649472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60503552"/>
+        <c:axId val="126649472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +2083,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65461632"/>
+        <c:crossAx val="126647296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,13 +2096,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1826,11 +2356,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90172800"/>
-        <c:axId val="90457600"/>
+        <c:axId val="126930944"/>
+        <c:axId val="126932864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90172800"/>
+        <c:axId val="126930944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +2391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1905,14 +2434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90457600"/>
+        <c:crossAx val="126932864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90457600"/>
+        <c:axId val="126932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +2486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1996,7 +2524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90172800"/>
+        <c:crossAx val="126930944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2010,7 +2538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2069,13 +2596,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2329,11 +2856,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90487424"/>
-        <c:axId val="90497792"/>
+        <c:axId val="126946304"/>
+        <c:axId val="126973056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90487424"/>
+        <c:axId val="126946304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2408,14 +2934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90497792"/>
+        <c:crossAx val="126973056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90497792"/>
+        <c:axId val="126973056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2986,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2499,7 +3024,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90487424"/>
+        <c:crossAx val="126946304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2513,7 +3038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2572,7 +3096,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2712,11 +3236,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="87109632"/>
-        <c:axId val="87111552"/>
+        <c:axId val="93930240"/>
+        <c:axId val="93932160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87109632"/>
+        <c:axId val="93930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,14 +3263,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87111552"/>
+        <c:crossAx val="93932160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87111552"/>
+        <c:axId val="93932160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,7 +3295,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87109632"/>
+        <c:crossAx val="93930240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2784,7 +3308,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2924,11 +3448,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="87563648"/>
-        <c:axId val="87590400"/>
+        <c:axId val="94331264"/>
+        <c:axId val="94333184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87563648"/>
+        <c:axId val="94331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,14 +3475,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87590400"/>
+        <c:crossAx val="94333184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87590400"/>
+        <c:axId val="94333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3507,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87563648"/>
+        <c:crossAx val="94331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,7 +3520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3136,11 +3660,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88283776"/>
-        <c:axId val="88294144"/>
+        <c:axId val="94576000"/>
+        <c:axId val="94619136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88283776"/>
+        <c:axId val="94576000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +3687,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88294144"/>
+        <c:crossAx val="94619136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88294144"/>
+        <c:axId val="94619136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3719,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88283776"/>
+        <c:crossAx val="94576000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3208,7 +3732,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3348,11 +3872,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88336640"/>
-        <c:axId val="88351104"/>
+        <c:axId val="110083072"/>
+        <c:axId val="111342720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88336640"/>
+        <c:axId val="110083072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,14 +3899,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88351104"/>
+        <c:crossAx val="111342720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88351104"/>
+        <c:axId val="111342720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3931,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88336640"/>
+        <c:crossAx val="110083072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3420,7 +3944,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3560,11 +4084,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88397312"/>
-        <c:axId val="88399232"/>
+        <c:axId val="111433984"/>
+        <c:axId val="111440256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88397312"/>
+        <c:axId val="111433984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,14 +4111,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88399232"/>
+        <c:crossAx val="111440256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88399232"/>
+        <c:axId val="111440256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +4143,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88397312"/>
+        <c:crossAx val="111433984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3632,7 +4156,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3772,11 +4296,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90010368"/>
-        <c:axId val="90012288"/>
+        <c:axId val="126289792"/>
+        <c:axId val="126304256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90010368"/>
+        <c:axId val="126289792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,16 +4321,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90012288"/>
+        <c:crossAx val="126304256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90012288"/>
+        <c:axId val="126304256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,23 +4353,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90010368"/>
+        <c:crossAx val="126289792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3984,11 +4511,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90062848"/>
-        <c:axId val="90064768"/>
+        <c:axId val="126424192"/>
+        <c:axId val="126426112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90062848"/>
+        <c:axId val="126424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,16 +4536,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90064768"/>
+        <c:crossAx val="126426112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90064768"/>
+        <c:axId val="126426112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,23 +4568,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90062848"/>
+        <c:crossAx val="126424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4075,39 +4605,15 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$17</c:f>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>常量</c:v>
+                  <c:v>重复</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4116,53 +4622,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showVal val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$18:$E$24</c:f>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$35:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4170,22 +4640,22 @@
                   <c:v>9.615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.416666666666668</c:v>
+                  <c:v>11.363636363636363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.75268817204301</c:v>
+                  <c:v>11.494252873563219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>11.76470588235294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.810810810810811</c:v>
+                  <c:v>11.76470588235294</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.95890410958904</c:v>
+                  <c:v>11.940298507462686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,39 +4666,15 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$17</c:f>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非常量</c:v>
+                  <c:v>非重复</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4237,53 +4683,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showVal val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$18:$F$24</c:f>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$35:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4316,11 +4726,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="90284800"/>
-        <c:axId val="90286720"/>
+        <c:axId val="136000256"/>
+        <c:axId val="140566528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90284800"/>
+        <c:axId val="136000256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,238 +4738,70 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>问题规模</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="90286720"/>
+        <c:crossAx val="140566528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90286720"/>
+        <c:axId val="140566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>时间效率</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="90284800"/>
+        <c:crossAx val="136000256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5908,6 +6150,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6069,94 +6341,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1.问题规模与时间效率的关系-CPU单线程"/>
-      <sheetName val="2.问题规模与时间效率的关系-CPU多线程"/>
-      <sheetName val="3.问题规模与时间效率的关系-GPU初始"/>
-      <sheetName val="4.问题规模与时间效率的关系-GPU优化1"/>
-      <sheetName val="5.问题规模与时间效率的关系-GPU优化2"/>
-      <sheetName val="6.问题规模与时间效率的关系-GPU优化3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="31">
-          <cell r="B31">
-            <v>0.13333333333333333</v>
-          </cell>
-          <cell r="C31">
-            <v>0.47058823529411764</v>
-          </cell>
-          <cell r="D31">
-            <v>1.6842105263157896</v>
-          </cell>
-          <cell r="E31">
-            <v>3.125</v>
-          </cell>
-          <cell r="F31">
-            <v>5</v>
-          </cell>
-          <cell r="G31">
-            <v>5.5555555555555554</v>
-          </cell>
-          <cell r="H31">
-            <v>4.7619047619047619</v>
-          </cell>
-          <cell r="I31">
-            <v>3.6781609195402303</v>
-          </cell>
-          <cell r="J31">
-            <v>3.7647058823529411</v>
-          </cell>
-          <cell r="K31">
-            <v>3.6834532374100721</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>7.407407407407407E-2</v>
-          </cell>
-          <cell r="C43">
-            <v>0.26666666666666666</v>
-          </cell>
-          <cell r="D43">
-            <v>0.8</v>
-          </cell>
-          <cell r="E43">
-            <v>1.8656716417910446</v>
-          </cell>
-          <cell r="F43">
-            <v>2.3809523809523809</v>
-          </cell>
-          <cell r="G43">
-            <v>2.8985507246376816</v>
-          </cell>
-          <cell r="H43">
-            <v>3.4782608695652177</v>
-          </cell>
-          <cell r="I43">
-            <v>3.3333333333333335</v>
-          </cell>
-          <cell r="J43">
-            <v>3.3684210526315788</v>
-          </cell>
-          <cell r="K43">
-            <v>3.436241610738255</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6951,26 +7135,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7486,16 +7670,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -8102,16 +8286,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8125,12 +8309,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -8611,16 +8799,240 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="129" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="32" spans="1:14" ht="40.5">
+      <c r="C32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="40.5">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D35" s="3">
+        <f>LOG(B35)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35:E41" si="6">B35/C35*50</f>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="F35" s="8">
+        <f>B35/G35*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D41" si="7">LOG(B36)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="6"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ref="F36:F41" si="8">B36/G36*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="6"/>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="8"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="6"/>
+        <v>11.494252873563219</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="8"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="6"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="8"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G39" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="6"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="8"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G40" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="6"/>
+        <v>11.940298507462686</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="8"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G41" s="4">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8636,7 +9048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
@@ -9113,236 +9525,236 @@
       <c r="C27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="26" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28">
         <v>1</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="28">
         <v>2</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
         <v>3</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>4</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <v>5</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="28">
         <v>6</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="28">
         <v>7</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="28">
         <v>8</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="28">
         <v>9</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="27">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <v>2E-3</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>0.125</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <v>0.5</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <v>2</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
         <v>8</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="28">
         <v>32</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="30">
         <v>128</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="28">
         <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="32">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>1.9E-2</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="32">
         <v>0.04</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <v>0.1</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="32">
         <v>0.36</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="32">
         <v>1.68</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="32">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="32">
         <v>34</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="28">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="54">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <f t="shared" si="6"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <f t="shared" si="6"/>
         <v>1.6842105263157896</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <f t="shared" si="6"/>
         <v>3.125</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="33">
         <f t="shared" si="6"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="33">
         <f t="shared" si="6"/>
         <v>4.7619047619047619</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <f t="shared" si="6"/>
         <v>3.6781609195402303</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <f t="shared" si="6"/>
         <v>3.7647058823529411</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="34">
         <f t="shared" si="6"/>
         <v>3.6834532374100721</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="28">
         <v>2.7E-2</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="28">
         <v>0.03</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>0.04</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <v>0.21</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="28">
         <v>0.69</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="28">
         <v>9.6</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="28">
         <v>38</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="28">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="54">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="35">
-        <f>B29/B32</f>
+      <c r="B33" s="33">
+        <f t="shared" ref="B33:K33" si="7">B29/B32</f>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="C33" s="35">
-        <f>C29/C32</f>
+      <c r="C33" s="33">
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="D33" s="35">
-        <f>D29/D32</f>
+      <c r="D33" s="33">
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="E33" s="35">
-        <f>E29/E32</f>
+      <c r="E33" s="33">
+        <f t="shared" si="7"/>
         <v>1.8656716417910446</v>
       </c>
-      <c r="F33" s="35">
-        <f>F29/F32</f>
+      <c r="F33" s="33">
+        <f t="shared" si="7"/>
         <v>2.3809523809523809</v>
       </c>
-      <c r="G33" s="35">
-        <f>G29/G32</f>
+      <c r="G33" s="33">
+        <f t="shared" si="7"/>
         <v>2.8985507246376816</v>
       </c>
-      <c r="H33" s="35">
-        <f>H29/H32</f>
+      <c r="H33" s="33">
+        <f t="shared" si="7"/>
         <v>3.4782608695652177</v>
       </c>
-      <c r="I33" s="35">
-        <f>I29/I32</f>
+      <c r="I33" s="33">
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J33" s="35">
-        <f>J29/J32</f>
+      <c r="J33" s="33">
+        <f t="shared" si="7"/>
         <v>3.3684210526315788</v>
       </c>
-      <c r="K33" s="36">
-        <f>K29/K32</f>
+      <c r="K33" s="34">
+        <f t="shared" si="7"/>
         <v>3.436241610738255</v>
       </c>
     </row>
@@ -9352,16 +9764,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9855,16 +10267,16 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>表1.1</t>
   </si>
@@ -227,16 +227,6 @@
     <t>图4.2</t>
   </si>
   <si>
-    <t>GPU合并优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
-前者是后者的6倍； 
-3）时间效率，合并与非合并对比，合并 vs 非合并 = 102:34=3，17:3.4=5， 
-前者提升200%（gtx670）、400%（gts250）； 
-4）时间效率，GPU VS CPU = 102:10=10，17:12=1.4， 
-前者提升900%（gtx670）、40%（gts250）；</t>
-  </si>
-  <si>
     <t>表5.1</t>
   </si>
   <si>
@@ -405,6 +395,69 @@
   <si>
     <t>时间(ms)
 重复</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gtx670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替
+VS
+非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU合并优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
+前者是后者的6倍； 
+3）时间效率，合并与非合并对比，合并 vs 非合并 = 102:34=3，17:3.4=5， 
+前者提升200%（gtx670）、400%（gts250）； 
+4）时间效率，GPU VS CPU = 102:10=10，17:12=1.4， 
+前者提升900%（gtx670）、40%（gts250）；
+5）时间效率，重复与非重复对比，重复 vs 非重复 = 147:122=1.2，11:17=0.6， 
+前者提升20%（gtx670）、-40%（gts250）； 
+6）时间效率，交替与非交替对比，交替 vs 非交替 = x:122=y，x:17=y， 
+前者提升x%（gtx670）、x%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gts250</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -646,14 +699,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,11 +859,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93832704"/>
-        <c:axId val="93834624"/>
+        <c:axId val="136533120"/>
+        <c:axId val="136535040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93832704"/>
+        <c:axId val="136533120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,14 +886,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93834624"/>
+        <c:crossAx val="136535040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93834624"/>
+        <c:axId val="136535040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +918,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93832704"/>
+        <c:crossAx val="136533120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -878,13 +931,228 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>重复</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$48:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>104.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.57894736842107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.05882352941174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.9344262295082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.91304347826087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177.77777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非重复</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$48:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.69565217391303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.95121951219512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137.93103448275863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.35087719298244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="140178560"/>
+        <c:axId val="140180480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140178560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140180480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140180480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140178560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1138,11 +1406,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126551936"/>
-        <c:axId val="126574592"/>
+        <c:axId val="137396992"/>
+        <c:axId val="137398912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126551936"/>
+        <c:axId val="137396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,6 +1441,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1216,14 +1485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126574592"/>
+        <c:crossAx val="137398912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126574592"/>
+        <c:axId val="137398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,6 +1537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1306,7 +1576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126551936"/>
+        <c:crossAx val="137396992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1320,6 +1590,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1378,13 +1649,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1638,11 +1909,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126616704"/>
-        <c:axId val="126618624"/>
+        <c:axId val="137510912"/>
+        <c:axId val="137512832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126616704"/>
+        <c:axId val="137510912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,6 +1944,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1716,14 +1988,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126618624"/>
+        <c:crossAx val="137512832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126618624"/>
+        <c:axId val="137512832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,6 +2040,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1806,7 +2079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126616704"/>
+        <c:crossAx val="137510912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,6 +2093,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1878,13 +2152,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:style val="4"/>
@@ -2004,11 +2278,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="126647296"/>
-        <c:axId val="126649472"/>
+        <c:axId val="137541504"/>
+        <c:axId val="137555968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126647296"/>
+        <c:axId val="137541504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,14 +2319,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126649472"/>
+        <c:crossAx val="137555968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126649472"/>
+        <c:axId val="137555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2357,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126647296"/>
+        <c:crossAx val="137541504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,13 +2370,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2356,11 +2630,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126930944"/>
-        <c:axId val="126932864"/>
+        <c:axId val="137472640"/>
+        <c:axId val="137638656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126930944"/>
+        <c:axId val="137472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,6 +2665,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2434,14 +2709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126932864"/>
+        <c:crossAx val="137638656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126932864"/>
+        <c:axId val="137638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,6 +2761,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2524,7 +2800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126930944"/>
+        <c:crossAx val="137472640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,6 +2814,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2596,13 +2873,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2856,11 +3133,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126946304"/>
-        <c:axId val="126973056"/>
+        <c:axId val="137681152"/>
+        <c:axId val="137680000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126946304"/>
+        <c:axId val="137681152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,6 +3168,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2934,14 +3212,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126973056"/>
+        <c:crossAx val="137680000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126973056"/>
+        <c:axId val="137680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,6 +3264,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3024,7 +3303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126946304"/>
+        <c:crossAx val="137681152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3038,6 +3317,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3096,7 +3376,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3236,11 +3516,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93930240"/>
-        <c:axId val="93932160"/>
+        <c:axId val="135995776"/>
+        <c:axId val="135997696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93930240"/>
+        <c:axId val="135995776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,14 +3543,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93932160"/>
+        <c:crossAx val="135997696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93932160"/>
+        <c:axId val="135997696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,7 +3575,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93930240"/>
+        <c:crossAx val="135995776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3308,7 +3588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3448,11 +3728,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94331264"/>
-        <c:axId val="94333184"/>
+        <c:axId val="136572928"/>
+        <c:axId val="136574848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94331264"/>
+        <c:axId val="136572928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,16 +3753,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94333184"/>
+        <c:crossAx val="136574848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94333184"/>
+        <c:axId val="136574848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,23 +3785,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94331264"/>
+        <c:crossAx val="136572928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3660,11 +3943,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94576000"/>
-        <c:axId val="94619136"/>
+        <c:axId val="136743936"/>
+        <c:axId val="136766592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94576000"/>
+        <c:axId val="136743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,16 +3968,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94619136"/>
+        <c:crossAx val="136766592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94619136"/>
+        <c:axId val="136766592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,23 +4000,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94576000"/>
+        <c:crossAx val="136743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3872,11 +4158,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="110083072"/>
-        <c:axId val="111342720"/>
+        <c:axId val="136915584"/>
+        <c:axId val="136921856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110083072"/>
+        <c:axId val="136915584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,16 +4183,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111342720"/>
+        <c:crossAx val="136921856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111342720"/>
+        <c:axId val="136921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,23 +4215,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110083072"/>
+        <c:crossAx val="136915584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4084,11 +4373,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="111433984"/>
-        <c:axId val="111440256"/>
+        <c:axId val="136951680"/>
+        <c:axId val="136957952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111433984"/>
+        <c:axId val="136951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,16 +4398,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111440256"/>
+        <c:crossAx val="136957952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111440256"/>
+        <c:axId val="136957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,23 +4430,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111433984"/>
+        <c:crossAx val="136951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4296,11 +4588,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126289792"/>
-        <c:axId val="126304256"/>
+        <c:axId val="137012736"/>
+        <c:axId val="137014656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126289792"/>
+        <c:axId val="137012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,14 +4616,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126304256"/>
+        <c:crossAx val="137014656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126304256"/>
+        <c:axId val="137014656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4649,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126289792"/>
+        <c:crossAx val="137012736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4371,7 +4663,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4511,11 +4803,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="126424192"/>
-        <c:axId val="126426112"/>
+        <c:axId val="137200384"/>
+        <c:axId val="137202304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126424192"/>
+        <c:axId val="137200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,14 +4831,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126426112"/>
+        <c:crossAx val="137202304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126426112"/>
+        <c:axId val="137202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,7 +4864,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126424192"/>
+        <c:crossAx val="137200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4586,7 +4878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4726,11 +5018,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136000256"/>
-        <c:axId val="140566528"/>
+        <c:axId val="137105408"/>
+        <c:axId val="137107328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136000256"/>
+        <c:axId val="137105408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4754,14 +5046,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140566528"/>
+        <c:crossAx val="137107328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140566528"/>
+        <c:axId val="137107328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +5079,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136000256"/>
+        <c:crossAx val="137105408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4801,1096 +5093,10 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6175,6 +5381,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7135,26 +6371,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7171,7 +6407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -7670,16 +6908,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -7794,7 +7032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8286,16 +7526,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8309,10 +7549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8582,7 +7822,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="40.5">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -8798,30 +8038,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="129" customHeight="1">
-      <c r="A28" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+    <row r="28" spans="1:14" ht="183" customHeight="1">
+      <c r="A28" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="32" spans="1:14" ht="40.5">
       <c r="C32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>85</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -8829,7 +8069,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="40.5">
+    <row r="34" spans="1:7" ht="27">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -8837,19 +8077,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9031,6 +8271,682 @@
         <v>17.391304347826086</v>
       </c>
       <c r="G41" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="40.5">
+      <c r="C45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="27">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D48" s="3">
+        <f>LOG(B48)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" ref="E48:E54" si="9">B48/C48*50</f>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="F48" s="8">
+        <f>B48/G48*50</f>
+        <v>89.285714285714278</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" ref="D49:D54" si="10">LOG(B49)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="9"/>
+        <v>131.57894736842107</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" ref="F49:F54" si="11">B49/G49*50</f>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="9"/>
+        <v>147.05882352941174</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="11"/>
+        <v>121.95121951219512</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="9"/>
+        <v>163.9344262295082</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="9"/>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="11"/>
+        <v>133.33333333333331</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="9"/>
+        <v>173.91304347826087</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="11"/>
+        <v>137.93103448275863</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="9"/>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="11"/>
+        <v>140.35087719298244</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40.5">
+      <c r="C58" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="27">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D61" s="3">
+        <f>LOG(B61)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" ref="E61:E67" si="12">B61/C61*50</f>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="F61" s="8">
+        <f>B61/G61*50</f>
+        <v>89.285714285714278</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ref="D62:D67" si="13">LOG(B62)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="12"/>
+        <v>131.57894736842107</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" ref="F62:F67" si="14">B62/G62*50</f>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="12"/>
+        <v>147.05882352941174</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="14"/>
+        <v>121.95121951219512</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="12"/>
+        <v>163.9344262295082</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="12"/>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="14"/>
+        <v>133.33333333333331</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6">
+        <v>6</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="12"/>
+        <v>173.91304347826087</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="14"/>
+        <v>137.93103448275863</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <v>16</v>
+      </c>
+      <c r="C67" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="12"/>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="14"/>
+        <v>140.35087719298244</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="40.5">
+      <c r="C71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" ht="27">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D74" s="3">
+        <f>LOG(B74)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <f t="shared" ref="E74:E80" si="15">B74/C74*50</f>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="F74" s="8">
+        <f>B74/G74*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ref="D75:D80" si="16">LOG(B75)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="15"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" ref="F75:F80" si="17">B75/G75*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="15"/>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" si="17"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="15"/>
+        <v>11.494252873563219</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" si="17"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G77" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="15"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F78" s="8">
+        <f t="shared" si="17"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G78" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4">
+        <v>34</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="15"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" si="17"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G79" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4">
+        <v>67</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="15"/>
+        <v>11.940298507462686</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" si="17"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G80" s="4">
         <v>46</v>
       </c>
     </row>
@@ -9048,7 +8964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
@@ -9062,13 +8978,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -9085,19 +9001,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9291,18 +9207,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -9319,19 +9235,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9518,15 +9434,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -9565,7 +9481,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -9600,7 +9516,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -9635,7 +9551,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -9680,7 +9596,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -9715,7 +9631,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -9760,20 +9676,20 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="173.25" customHeight="1">
+      <c r="A38" s="36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="173.25" customHeight="1">
-      <c r="A38" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9790,7 +9706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9803,16 +9719,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -9828,19 +9744,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10034,21 +9950,21 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -10064,19 +9980,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -10263,20 +10179,20 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="120" customHeight="1">
+      <c r="A28" s="36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="120" customHeight="1">
-      <c r="A28" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>表1.1</t>
   </si>
@@ -228,11 +228,6 @@
   </si>
   <si>
     <t>表5.1</t>
-  </si>
-  <si>
-    <t>缓存
-VS
-非缓存</t>
   </si>
   <si>
     <t>x</t>
@@ -458,6 +453,17 @@
   </si>
   <si>
     <t>GPU: gts250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享
+VS
+非共享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp读取
+相邻值</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -859,11 +865,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136533120"/>
-        <c:axId val="136535040"/>
+        <c:axId val="158622464"/>
+        <c:axId val="158624384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136533120"/>
+        <c:axId val="158622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,14 +892,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136535040"/>
+        <c:crossAx val="158624384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136535040"/>
+        <c:axId val="158624384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +924,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136533120"/>
+        <c:crossAx val="158622464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +937,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1071,11 +1077,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="140178560"/>
-        <c:axId val="140180480"/>
+        <c:axId val="160684672"/>
+        <c:axId val="160695040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140178560"/>
+        <c:axId val="160684672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,14 +1105,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140180480"/>
+        <c:crossAx val="160695040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140180480"/>
+        <c:axId val="160695040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1138,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140178560"/>
+        <c:crossAx val="160684672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,13 +1152,228 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$61:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>104.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.57894736842107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.5151515151515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.84615384615384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$61:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>89.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.69565217391303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.95121951219512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137.93103448275863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.35087719298244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="160737152"/>
+        <c:axId val="160751616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="160737152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160751616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160751616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160737152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1406,11 +1627,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137396992"/>
-        <c:axId val="137398912"/>
+        <c:axId val="161524352"/>
+        <c:axId val="161542912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137396992"/>
+        <c:axId val="161524352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,14 +1706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137398912"/>
+        <c:crossAx val="161542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137398912"/>
+        <c:axId val="161542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1797,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137396992"/>
+        <c:crossAx val="161524352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1649,13 +1870,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1909,11 +2130,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137510912"/>
-        <c:axId val="137512832"/>
+        <c:axId val="161195904"/>
+        <c:axId val="161214464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137510912"/>
+        <c:axId val="161195904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,14 +2209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137512832"/>
+        <c:crossAx val="161214464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137512832"/>
+        <c:axId val="161214464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2300,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137510912"/>
+        <c:crossAx val="161195904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2152,13 +2373,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:style val="4"/>
@@ -2278,11 +2499,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="137541504"/>
-        <c:axId val="137555968"/>
+        <c:axId val="161558528"/>
+        <c:axId val="161560448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137541504"/>
+        <c:axId val="161558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,14 +2540,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137555968"/>
+        <c:crossAx val="161560448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137555968"/>
+        <c:axId val="161560448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2578,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137541504"/>
+        <c:crossAx val="161558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2370,13 +2591,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2630,11 +2851,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137472640"/>
-        <c:axId val="137638656"/>
+        <c:axId val="162251520"/>
+        <c:axId val="162253440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137472640"/>
+        <c:axId val="162251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2709,14 +2929,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137638656"/>
+        <c:crossAx val="162253440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137638656"/>
+        <c:axId val="162253440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2981,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2800,7 +3019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137472640"/>
+        <c:crossAx val="162251520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2814,7 +3033,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2873,13 +3091,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -3133,11 +3351,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137681152"/>
-        <c:axId val="137680000"/>
+        <c:axId val="161652736"/>
+        <c:axId val="161654656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137681152"/>
+        <c:axId val="161652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3386,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3212,14 +3429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137680000"/>
+        <c:crossAx val="161654656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137680000"/>
+        <c:axId val="161654656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3481,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3303,7 +3519,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137681152"/>
+        <c:crossAx val="161652736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3317,7 +3533,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3376,7 +3591,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3516,11 +3731,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="135995776"/>
-        <c:axId val="135997696"/>
+        <c:axId val="158543872"/>
+        <c:axId val="158545792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135995776"/>
+        <c:axId val="158543872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3543,14 +3758,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135997696"/>
+        <c:crossAx val="158545792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135997696"/>
+        <c:axId val="158545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3790,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135995776"/>
+        <c:crossAx val="158543872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3588,7 +3803,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3728,11 +3943,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136572928"/>
-        <c:axId val="136574848"/>
+        <c:axId val="158559616"/>
+        <c:axId val="158795264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136572928"/>
+        <c:axId val="158559616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,17 +3968,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136574848"/>
+        <c:crossAx val="158795264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136574848"/>
+        <c:axId val="158795264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,25 +3999,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136572928"/>
+        <c:crossAx val="158559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3943,11 +4155,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136743936"/>
-        <c:axId val="136766592"/>
+        <c:axId val="158829184"/>
+        <c:axId val="158851840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136743936"/>
+        <c:axId val="158829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,17 +4180,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136766592"/>
+        <c:crossAx val="158851840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136766592"/>
+        <c:axId val="158851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,25 +4211,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136743936"/>
+        <c:crossAx val="158829184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4158,11 +4367,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136915584"/>
-        <c:axId val="136921856"/>
+        <c:axId val="159000832"/>
+        <c:axId val="159007104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136915584"/>
+        <c:axId val="159000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,17 +4392,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136921856"/>
+        <c:crossAx val="159007104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136921856"/>
+        <c:axId val="159007104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,25 +4423,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136915584"/>
+        <c:crossAx val="159000832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4373,11 +4579,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="136951680"/>
-        <c:axId val="136957952"/>
+        <c:axId val="159032832"/>
+        <c:axId val="159034752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136951680"/>
+        <c:axId val="159032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,17 +4604,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136957952"/>
+        <c:crossAx val="159034752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136957952"/>
+        <c:axId val="159034752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4430,25 +4635,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136951680"/>
+        <c:crossAx val="159032832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4588,11 +4791,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137012736"/>
-        <c:axId val="137014656"/>
+        <c:axId val="159372416"/>
+        <c:axId val="159374336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137012736"/>
+        <c:axId val="159372416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,17 +4816,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137014656"/>
+        <c:crossAx val="159374336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137014656"/>
+        <c:axId val="159374336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,25 +4847,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137012736"/>
+        <c:crossAx val="159372416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4803,11 +5003,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137200384"/>
-        <c:axId val="137202304"/>
+        <c:axId val="160604544"/>
+        <c:axId val="160606464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137200384"/>
+        <c:axId val="160604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,17 +5028,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137202304"/>
+        <c:crossAx val="160606464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137202304"/>
+        <c:axId val="160606464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,25 +5059,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137200384"/>
+        <c:crossAx val="160604544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5018,11 +5215,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="137105408"/>
-        <c:axId val="137107328"/>
+        <c:axId val="160587136"/>
+        <c:axId val="160650752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137105408"/>
+        <c:axId val="160587136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,17 +5240,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137107328"/>
+        <c:crossAx val="160650752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137107328"/>
+        <c:axId val="160650752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,25 +5271,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137105408"/>
+        <c:crossAx val="160587136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5411,6 +5605,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7551,8 +7775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8040,7 +8264,7 @@
     </row>
     <row r="28" spans="1:14" ht="183" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8052,16 +8276,16 @@
     </row>
     <row r="32" spans="1:14" ht="40.5">
       <c r="C32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -8077,19 +8301,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -8276,16 +8500,16 @@
     </row>
     <row r="45" spans="1:7" ht="40.5">
       <c r="C45" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="G45" s="7"/>
     </row>
@@ -8301,19 +8525,19 @@
         <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -8500,20 +8724,18 @@
     </row>
     <row r="58" spans="1:7" ht="40.5">
       <c r="C58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="F58" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>98</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="1:7">
       <c r="F59" s="7"/>
@@ -8527,19 +8749,19 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -8602,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="13"/>
@@ -8610,7 +8832,7 @@
       </c>
       <c r="E63" s="8">
         <f t="shared" si="12"/>
-        <v>147.05882352941174</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" si="14"/>
@@ -8628,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="4">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="13"/>
@@ -8636,7 +8858,7 @@
       </c>
       <c r="E64" s="8">
         <f t="shared" si="12"/>
-        <v>163.9344262295082</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" si="14"/>
@@ -8654,7 +8876,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="13"/>
@@ -8662,7 +8884,7 @@
       </c>
       <c r="E65" s="8">
         <f t="shared" si="12"/>
-        <v>166.66666666666669</v>
+        <v>153.84615384615384</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" si="14"/>
@@ -8680,7 +8902,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="13"/>
@@ -8688,7 +8910,7 @@
       </c>
       <c r="E66" s="8">
         <f t="shared" si="12"/>
-        <v>173.91304347826087</v>
+        <v>153.84615384615384</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" si="14"/>
@@ -8706,7 +8928,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="4">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" si="13"/>
@@ -8714,7 +8936,7 @@
       </c>
       <c r="E67" s="8">
         <f t="shared" si="12"/>
-        <v>177.77777777777777</v>
+        <v>153.84615384615384</v>
       </c>
       <c r="F67" s="8">
         <f t="shared" si="14"/>
@@ -8726,19 +8948,19 @@
     </row>
     <row r="71" spans="1:7" ht="40.5">
       <c r="C71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E71" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -8753,19 +8975,19 @@
         <v>28</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -8964,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:H38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8984,7 +9206,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -9001,19 +9223,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9207,18 +9429,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -9235,19 +9457,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9434,15 +9656,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -9481,7 +9703,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -9516,7 +9738,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -9551,7 +9773,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -9596,7 +9818,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -9631,7 +9853,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -9676,12 +9898,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -9706,8 +9928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9725,10 +9947,10 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -9744,19 +9966,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9950,21 +10172,21 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -9980,19 +10202,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -10179,12 +10401,12 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
@@ -14,12 +14,12 @@
     <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>表1.1</t>
   </si>
@@ -429,7 +429,50 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>表4.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gts250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享
+VS
+非共享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp读取
+相邻值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图4.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图4.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图4.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图4.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTS250</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -441,29 +484,10 @@
 前者提升200%（gtx670）、400%（gts250）； 
 4）时间效率，GPU VS CPU = 102:10=10，17:12=1.4， 
 前者提升900%（gtx670）、40%（gts250）；
-5）时间效率，重复与非重复对比，重复 vs 非重复 = 147:122=1.2，11:17=0.6， 
-前者提升20%（gtx670）、-40%（gts250）； 
-6）时间效率，交替与非交替对比，交替 vs 非交替 = x:122=y，x:17=y， 
-前者提升x%（gtx670）、x%（gts250）；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU: gts250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享
-VS
-非共享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>warp读取
-相邻值</t>
+5）时间效率，重复与非重复对比，重复 vs 非重复 = 164:125=1.3，11.5:16.7=0.7， 
+前者提升30%（gtx670）、-30%（gts250）； 
+6）时间效率，交替与非交替对比，交替 vs 非交替 = 152:125=1.2，16.9:16.3=1.04， 
+前者提升20%（gtx670）、4%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -865,11 +889,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158622464"/>
-        <c:axId val="158624384"/>
+        <c:axId val="74732672"/>
+        <c:axId val="74734592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158622464"/>
+        <c:axId val="74732672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,14 +916,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158624384"/>
+        <c:crossAx val="74734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158624384"/>
+        <c:axId val="74734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +948,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158622464"/>
+        <c:crossAx val="74732672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -937,7 +961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1077,11 +1101,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160684672"/>
-        <c:axId val="160695040"/>
+        <c:axId val="87984768"/>
+        <c:axId val="87991040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160684672"/>
+        <c:axId val="87984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1129,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160695040"/>
+        <c:crossAx val="87991040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160695040"/>
+        <c:axId val="87991040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1162,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160684672"/>
+        <c:crossAx val="87984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,7 +1176,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1292,11 +1316,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160737152"/>
-        <c:axId val="160751616"/>
+        <c:axId val="88094592"/>
+        <c:axId val="88100864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160737152"/>
+        <c:axId val="88094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,14 +1344,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160751616"/>
+        <c:crossAx val="88100864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160751616"/>
+        <c:axId val="88100864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1377,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160737152"/>
+        <c:crossAx val="88094592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1367,13 +1391,215 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$74:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.020833333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.060240963855422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.891891891891891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.094017094017094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.582417582417584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$74:$F$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.157894736842104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.792899408284024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.822784810126581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.286644951140065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.73640167364017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.877637130801688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="70969984"/>
+        <c:axId val="68784896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70969984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68784896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68784896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70969984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -1627,11 +1853,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161524352"/>
-        <c:axId val="161542912"/>
+        <c:axId val="89635456"/>
+        <c:axId val="89649920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161524352"/>
+        <c:axId val="89635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1706,14 +1931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161542912"/>
+        <c:crossAx val="89649920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161542912"/>
+        <c:axId val="89649920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1797,7 +2021,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161524352"/>
+        <c:crossAx val="89635456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +2035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1870,13 +2093,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2130,11 +2353,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161195904"/>
-        <c:axId val="161214464"/>
+        <c:axId val="89540480"/>
+        <c:axId val="89575424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161195904"/>
+        <c:axId val="89540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2388,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2209,14 +2431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161214464"/>
+        <c:crossAx val="89575424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161214464"/>
+        <c:axId val="89575424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2300,7 +2521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161195904"/>
+        <c:crossAx val="89540480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2314,7 +2535,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2373,13 +2593,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:style val="4"/>
@@ -2499,11 +2719,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="161558528"/>
-        <c:axId val="161560448"/>
+        <c:axId val="89665536"/>
+        <c:axId val="89667456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161558528"/>
+        <c:axId val="89665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,19 +2755,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161560448"/>
+        <c:crossAx val="89667456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161560448"/>
+        <c:axId val="89667456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,30 +2793,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161558528"/>
+        <c:crossAx val="89665536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2851,11 +3068,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162251520"/>
-        <c:axId val="162253440"/>
+        <c:axId val="91104000"/>
+        <c:axId val="91105920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162251520"/>
+        <c:axId val="91104000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,14 +3146,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162253440"/>
+        <c:crossAx val="91105920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162253440"/>
+        <c:axId val="91105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3236,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162251520"/>
+        <c:crossAx val="91104000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3091,13 +3308,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -3351,11 +3568,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161652736"/>
-        <c:axId val="161654656"/>
+        <c:axId val="91168768"/>
+        <c:axId val="91170688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161652736"/>
+        <c:axId val="91168768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,14 +3646,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161654656"/>
+        <c:crossAx val="91170688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161654656"/>
+        <c:axId val="91170688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,7 +3736,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161652736"/>
+        <c:crossAx val="91168768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3591,7 +3808,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3731,11 +3948,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158543872"/>
-        <c:axId val="158545792"/>
+        <c:axId val="85074304"/>
+        <c:axId val="85076224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158543872"/>
+        <c:axId val="85074304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,14 +3975,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158545792"/>
+        <c:crossAx val="85076224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158545792"/>
+        <c:axId val="85076224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,7 +4007,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158543872"/>
+        <c:crossAx val="85074304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3803,7 +4020,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3943,11 +4160,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158559616"/>
-        <c:axId val="158795264"/>
+        <c:axId val="85155840"/>
+        <c:axId val="85157760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158559616"/>
+        <c:axId val="85155840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,14 +4187,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158795264"/>
+        <c:crossAx val="85157760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158795264"/>
+        <c:axId val="85157760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +4219,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158559616"/>
+        <c:crossAx val="85155840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4015,7 +4232,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4155,11 +4372,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158829184"/>
-        <c:axId val="158851840"/>
+        <c:axId val="85269504"/>
+        <c:axId val="85283968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158829184"/>
+        <c:axId val="85269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,14 +4399,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158851840"/>
+        <c:crossAx val="85283968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158851840"/>
+        <c:axId val="85283968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +4431,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158829184"/>
+        <c:crossAx val="85269504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,7 +4444,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4367,11 +4584,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159000832"/>
-        <c:axId val="159007104"/>
+        <c:axId val="85318272"/>
+        <c:axId val="85332736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159000832"/>
+        <c:axId val="85318272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,14 +4611,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159007104"/>
+        <c:crossAx val="85332736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159007104"/>
+        <c:axId val="85332736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,7 +4643,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159000832"/>
+        <c:crossAx val="85318272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4439,7 +4656,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4579,11 +4796,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159032832"/>
-        <c:axId val="159034752"/>
+        <c:axId val="85370752"/>
+        <c:axId val="85721088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159032832"/>
+        <c:axId val="85370752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4606,14 +4823,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159034752"/>
+        <c:crossAx val="85721088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159034752"/>
+        <c:axId val="85721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4855,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159032832"/>
+        <c:crossAx val="85370752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4651,7 +4868,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4791,11 +5008,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159372416"/>
-        <c:axId val="159374336"/>
+        <c:axId val="86082688"/>
+        <c:axId val="86084608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159372416"/>
+        <c:axId val="86082688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,16 +5033,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159374336"/>
+        <c:crossAx val="86084608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159374336"/>
+        <c:axId val="86084608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,23 +5065,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159372416"/>
+        <c:crossAx val="86082688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5003,11 +5223,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160604544"/>
-        <c:axId val="160606464"/>
+        <c:axId val="86520192"/>
+        <c:axId val="86522112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160604544"/>
+        <c:axId val="86520192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,16 +5248,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160606464"/>
+        <c:crossAx val="86522112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160606464"/>
+        <c:axId val="86522112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,23 +5280,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160604544"/>
+        <c:crossAx val="86520192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5215,11 +5438,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160587136"/>
-        <c:axId val="160650752"/>
+        <c:axId val="86535552"/>
+        <c:axId val="86558208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160587136"/>
+        <c:axId val="86535552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,16 +5463,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160650752"/>
+        <c:crossAx val="86558208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160650752"/>
+        <c:axId val="86558208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,23 +5495,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160587136"/>
+        <c:crossAx val="86535552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5635,6 +5861,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7773,10 +8029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8264,7 +8520,7 @@
     </row>
     <row r="28" spans="1:14" ht="183" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8289,11 +8545,11 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:14">
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="27">
+    <row r="34" spans="1:14" ht="27">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -8316,7 +8572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:14">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -8342,7 +8598,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:14">
       <c r="A36" s="6">
         <v>2</v>
       </c>
@@ -8368,7 +8624,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:14">
       <c r="A37" s="6">
         <v>3</v>
       </c>
@@ -8394,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:14">
       <c r="A38" s="6">
         <v>4</v>
       </c>
@@ -8420,7 +8676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:14">
       <c r="A39" s="6">
         <v>5</v>
       </c>
@@ -8446,7 +8702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:14">
       <c r="A40" s="6">
         <v>6</v>
       </c>
@@ -8472,7 +8728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:14">
       <c r="A41" s="6">
         <v>7</v>
       </c>
@@ -8498,7 +8754,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="40.5">
+    <row r="42" spans="1:14">
+      <c r="L42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="40.5">
       <c r="C45" s="10" t="s">
         <v>90</v>
       </c>
@@ -8513,11 +8780,11 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:14">
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="27">
+    <row r="47" spans="1:14" ht="27">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -8540,7 +8807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:14">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -8566,7 +8833,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:14">
       <c r="A49" s="6">
         <v>2</v>
       </c>
@@ -8592,7 +8859,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:14">
       <c r="A50" s="6">
         <v>3</v>
       </c>
@@ -8618,7 +8885,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:14">
       <c r="A51" s="6">
         <v>4</v>
       </c>
@@ -8644,7 +8911,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:14">
       <c r="A52" s="6">
         <v>5</v>
       </c>
@@ -8670,7 +8937,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:14">
       <c r="A53" s="6">
         <v>6</v>
       </c>
@@ -8696,7 +8963,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:14">
       <c r="A54" s="6">
         <v>7</v>
       </c>
@@ -8722,7 +8989,18 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="40.5">
+    <row r="55" spans="1:14">
+      <c r="L55" t="s">
+        <v>102</v>
+      </c>
+      <c r="M55" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="40.5">
       <c r="C58" s="10" t="s">
         <v>91</v>
       </c>
@@ -8733,15 +9011,15 @@
         <v>92</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:14">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="27">
+    <row r="60" spans="1:14" ht="27">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +9042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:14">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -8790,7 +9068,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:14">
       <c r="A62" s="6">
         <v>2</v>
       </c>
@@ -8816,7 +9094,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:14">
       <c r="A63" s="6">
         <v>3</v>
       </c>
@@ -8842,7 +9120,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:14">
       <c r="A64" s="6">
         <v>4</v>
       </c>
@@ -8868,7 +9146,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:14">
       <c r="A65" s="6">
         <v>5</v>
       </c>
@@ -8894,7 +9172,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:14">
       <c r="A66" s="6">
         <v>6</v>
       </c>
@@ -8920,7 +9198,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:14">
       <c r="A67" s="6">
         <v>7</v>
       </c>
@@ -8946,28 +9224,37 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="40.5">
+    <row r="68" spans="1:14">
+      <c r="L68" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68" t="s">
+        <v>105</v>
+      </c>
+      <c r="N68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="40.5">
       <c r="C71" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>92</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="G71" s="25"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" ht="27">
+    <row r="73" spans="1:14" ht="27">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -8990,7 +9277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:14">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -8998,7 +9285,7 @@
         <v>0.25</v>
       </c>
       <c r="C74" s="4">
-        <v>1.3</v>
+        <v>0.96</v>
       </c>
       <c r="D74" s="3">
         <f>LOG(B74)/LOG(2)+3</f>
@@ -9006,17 +9293,17 @@
       </c>
       <c r="E74" s="8">
         <f t="shared" ref="E74:E80" si="15">B74/C74*50</f>
-        <v>9.615384615384615</v>
+        <v>13.020833333333334</v>
       </c>
       <c r="F74" s="8">
         <f>B74/G74*50</f>
-        <v>15.625</v>
+        <v>13.157894736842104</v>
       </c>
       <c r="G74" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="6">
         <v>2</v>
       </c>
@@ -9024,7 +9311,7 @@
         <v>0.5</v>
       </c>
       <c r="C75" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.66</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" ref="D75:D80" si="16">LOG(B75)/LOG(2)+3</f>
@@ -9032,17 +9319,17 @@
       </c>
       <c r="E75" s="8">
         <f t="shared" si="15"/>
-        <v>10.869565217391305</v>
+        <v>15.060240963855422</v>
       </c>
       <c r="F75" s="8">
         <f t="shared" ref="F75:F80" si="17">B75/G75*50</f>
-        <v>16.666666666666664</v>
+        <v>14.792899408284024</v>
       </c>
       <c r="G75" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -9050,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" si="16"/>
@@ -9058,17 +9345,17 @@
       </c>
       <c r="E76" s="8">
         <f t="shared" si="15"/>
-        <v>11.363636363636363</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="F76" s="8">
         <f t="shared" si="17"/>
-        <v>16.666666666666664</v>
+        <v>15.822784810126581</v>
       </c>
       <c r="G76" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="6">
         <v>4</v>
       </c>
@@ -9076,7 +9363,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="4">
-        <v>8.6999999999999993</v>
+        <v>5.92</v>
       </c>
       <c r="D77" s="3">
         <f t="shared" si="16"/>
@@ -9084,17 +9371,17 @@
       </c>
       <c r="E77" s="8">
         <f t="shared" si="15"/>
-        <v>11.494252873563219</v>
+        <v>16.891891891891891</v>
       </c>
       <c r="F77" s="8">
         <f t="shared" si="17"/>
-        <v>16.666666666666664</v>
+        <v>16.286644951140065</v>
       </c>
       <c r="G77" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="6">
         <v>5</v>
       </c>
@@ -9102,7 +9389,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="4">
-        <v>17</v>
+        <v>11.7</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="16"/>
@@ -9110,7 +9397,7 @@
       </c>
       <c r="E78" s="8">
         <f t="shared" si="15"/>
-        <v>11.76470588235294</v>
+        <v>17.094017094017094</v>
       </c>
       <c r="F78" s="8">
         <f t="shared" si="17"/>
@@ -9120,7 +9407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:14">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -9128,7 +9415,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="4">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" si="16"/>
@@ -9136,17 +9423,17 @@
       </c>
       <c r="E79" s="8">
         <f t="shared" si="15"/>
-        <v>11.76470588235294</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="F79" s="8">
         <f t="shared" si="17"/>
-        <v>17.391304347826086</v>
+        <v>16.73640167364017</v>
       </c>
       <c r="G79" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="6">
         <v>7</v>
       </c>
@@ -9154,7 +9441,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="4">
-        <v>67</v>
+        <v>45.5</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" si="16"/>
@@ -9162,14 +9449,25 @@
       </c>
       <c r="E80" s="8">
         <f t="shared" si="15"/>
-        <v>11.940298507462686</v>
+        <v>17.582417582417584</v>
       </c>
       <c r="F80" s="8">
         <f t="shared" si="17"/>
-        <v>17.391304347826086</v>
+        <v>16.877637130801688</v>
       </c>
       <c r="G80" s="4">
-        <v>46</v>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="81" spans="12:14">
+      <c r="L81" t="s">
+        <v>104</v>
+      </c>
+      <c r="M81" t="s">
+        <v>105</v>
+      </c>
+      <c r="N81" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -10183,7 +10481,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>57</v>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
   <si>
     <t>表1.1</t>
   </si>
@@ -242,17 +242,6 @@
     <t>图5.2</t>
   </si>
   <si>
-    <t>GPU缓存优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = x:10=6， 
-前者是后者的6倍； 
-3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = x:102=x，10:17=0.6， 
-前者提升x%（gtx670）、-40%（gts250）； 
-4）时间效率，GPU VS CPU = x:10=x，10:12=0.8， 
-前者提升x%（gtx670）、-20%（gts250）；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>共享
 VS
 非共享</t>
@@ -342,21 +331,6 @@
   </si>
   <si>
     <t>图5.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU缓存优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 25:10=2.5， 
-前者是后者的2.5倍； 
-3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = 25:102=0.2，10:17=0.6， 
-前者提升-80%（gtx670）、-40%（gts250）； 
-4）时间效率，GPU VS CPU = 25:10=2.5，10:12=0.8， 
-前者提升150%（gtx670）、-20%（gts250）；
-5）时间效率，内存显存之间，时间效率即带宽随数据规模持续增长；
-gtx670: 32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
-gts250: 32K耗时0.04ms带宽0.8GB/s，2M耗时0.69ms带宽2.9GB/s，128M耗时38ms带宽3.4GB/s;
-数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -488,6 +462,44 @@
 前者提升30%（gtx670）、-30%（gts250）； 
 6）时间效率，交替与非交替对比，交替 vs 非交替 = 152:125=1.2，16.9:16.3=1.04， 
 前者提升20%（gtx670）、4%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTS250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU常量显存所有线程共享通信优化 结论： 
+1）时间效率，与问题规模弱相关。定量：问题规模变化，时间效率以2%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，GPU性能越好，效率越高。定量：
+'gtx670'  vs 'gts250' = 25:10=2.5， 前者是后者的2.5倍； 
+3）时间效率，常量与非常量对比，常量显存效率下降。定量：25:102=0.2，10:17=0.6， 
+前者提升-80%（gtx670）、-40%（gts250）； 
+4）时间效率，GPU与CPU对比，效率小幅提升。定量：GPU VS CPU = 25:10=2.5，10:12=0.8， 
+前者提升150%（gtx670）、-20%（gts250）；
+5）时间效率，内存显存之间，时间效率即带宽随数据规模持续增长；
+gtx670: 32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
+gts250: 32K耗时0.04ms带宽0.8GB/s，2M耗时0.69ms带宽2.9GB/s，128M耗时38ms带宽3.4GB/s;
+数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU线程块内部所有线程共享通信 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = x:10=6， 
+前者是后者的6倍； 
+3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = x:102=x，10:17=0.6， 
+前者提升x%（gtx670）、-40%（gts250）； 
+4）时间效率，GPU VS CPU = x:10=x，10:12=0.8， 
+前者提升x%（gtx670）、-20%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -889,11 +901,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74732672"/>
-        <c:axId val="74734592"/>
+        <c:axId val="65901312"/>
+        <c:axId val="65903232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74732672"/>
+        <c:axId val="65901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,14 +928,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74734592"/>
+        <c:crossAx val="65903232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74734592"/>
+        <c:axId val="65903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +960,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74732672"/>
+        <c:crossAx val="65901312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,7 +973,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1101,11 +1113,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="87984768"/>
-        <c:axId val="87991040"/>
+        <c:axId val="68905600"/>
+        <c:axId val="68928256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87984768"/>
+        <c:axId val="68905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,17 +1138,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87991040"/>
+        <c:crossAx val="68928256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87991040"/>
+        <c:axId val="68928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,25 +1169,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87984768"/>
+        <c:crossAx val="68905600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1316,11 +1325,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="88094592"/>
-        <c:axId val="88100864"/>
+        <c:axId val="68949888"/>
+        <c:axId val="68968448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88094592"/>
+        <c:axId val="68949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,17 +1350,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88100864"/>
+        <c:crossAx val="68968448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88100864"/>
+        <c:axId val="68968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,25 +1381,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88094592"/>
+        <c:crossAx val="68949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1518,11 +1524,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70969984"/>
-        <c:axId val="68784896"/>
+        <c:axId val="68993792"/>
+        <c:axId val="68995712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70969984"/>
+        <c:axId val="68993792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,17 +1549,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68784896"/>
+        <c:crossAx val="68995712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68784896"/>
+        <c:axId val="68995712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,25 +1580,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70969984"/>
+        <c:crossAx val="68993792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1853,11 +1856,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="89635456"/>
-        <c:axId val="89649920"/>
+        <c:axId val="70866432"/>
+        <c:axId val="70868352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89635456"/>
+        <c:axId val="70866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,6 +1891,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1931,14 +1935,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89649920"/>
+        <c:crossAx val="70868352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89649920"/>
+        <c:axId val="70868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,6 +1987,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2021,7 +2026,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89635456"/>
+        <c:crossAx val="70866432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,6 +2040,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2093,7 +2099,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2353,11 +2359,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="89540480"/>
-        <c:axId val="89575424"/>
+        <c:axId val="70943488"/>
+        <c:axId val="70945408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89540480"/>
+        <c:axId val="70943488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,6 +2394,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2431,14 +2438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89575424"/>
+        <c:crossAx val="70945408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89575424"/>
+        <c:axId val="70945408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,6 +2490,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2521,7 +2529,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89540480"/>
+        <c:crossAx val="70943488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,6 +2543,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2593,7 +2602,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2719,11 +2728,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="89665536"/>
-        <c:axId val="89667456"/>
+        <c:axId val="70978176"/>
+        <c:axId val="70988544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89665536"/>
+        <c:axId val="70978176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,18 +2764,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89667456"/>
+        <c:crossAx val="70988544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89667456"/>
+        <c:axId val="70988544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,22 +2803,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89665536"/>
+        <c:crossAx val="70978176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2827,11 +2839,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$17</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>常量</c:v>
+                  <c:v>共享</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2914,7 +2926,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$18:$E$24</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$18:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2948,11 +2960,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$17</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非常量</c:v>
+                  <c:v>非共享</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3035,7 +3047,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$18:$F$24</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$18:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3068,11 +3080,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="91104000"/>
-        <c:axId val="91105920"/>
+        <c:axId val="71060864"/>
+        <c:axId val="71079424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91104000"/>
+        <c:axId val="71060864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,6 +3115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3146,14 +3159,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91105920"/>
+        <c:crossAx val="71079424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91105920"/>
+        <c:axId val="71079424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,6 +3211,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3236,7 +3250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91104000"/>
+        <c:crossAx val="71060864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,6 +3264,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3308,7 +3323,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3327,11 +3342,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$3</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>常量</c:v>
+                  <c:v>共享</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3414,30 +3429,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$4:$E$10</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23.148148148148145</c:v>
+                  <c:v>96.153846153846146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>102.04081632653062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>107.5268817204301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>111.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>111.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>112.67605633802818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,11 +3463,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$3</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非常量</c:v>
+                  <c:v>非共享</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3535,7 +3550,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$4:$F$10</c:f>
+              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3568,11 +3583,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="91168768"/>
-        <c:axId val="91170688"/>
+        <c:axId val="71326336"/>
+        <c:axId val="71398144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91168768"/>
+        <c:axId val="71326336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,6 +3618,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3646,14 +3662,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91170688"/>
+        <c:crossAx val="71398144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91170688"/>
+        <c:axId val="71398144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,6 +3714,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3736,7 +3753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91168768"/>
+        <c:crossAx val="71326336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3750,6 +3767,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3808,7 +3826,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3948,11 +3966,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="85074304"/>
-        <c:axId val="85076224"/>
+        <c:axId val="65941504"/>
+        <c:axId val="65943424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85074304"/>
+        <c:axId val="65941504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,14 +3993,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85076224"/>
+        <c:crossAx val="65943424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85076224"/>
+        <c:axId val="65943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4025,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85074304"/>
+        <c:crossAx val="65941504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4020,7 +4038,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4160,11 +4178,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="85155840"/>
-        <c:axId val="85157760"/>
+        <c:axId val="66911616"/>
+        <c:axId val="67831296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85155840"/>
+        <c:axId val="66911616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,14 +4205,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85157760"/>
+        <c:crossAx val="67831296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85157760"/>
+        <c:axId val="67831296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4237,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85155840"/>
+        <c:crossAx val="66911616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4232,7 +4250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4372,11 +4390,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="85269504"/>
-        <c:axId val="85283968"/>
+        <c:axId val="67881600"/>
+        <c:axId val="68166400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85269504"/>
+        <c:axId val="67881600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,14 +4417,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85283968"/>
+        <c:crossAx val="68166400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85283968"/>
+        <c:axId val="68166400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4449,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85269504"/>
+        <c:crossAx val="67881600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4444,7 +4462,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4584,11 +4602,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="85318272"/>
-        <c:axId val="85332736"/>
+        <c:axId val="68241664"/>
+        <c:axId val="68252032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85318272"/>
+        <c:axId val="68241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,14 +4629,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85332736"/>
+        <c:crossAx val="68252032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85332736"/>
+        <c:axId val="68252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4661,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85318272"/>
+        <c:crossAx val="68241664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4656,7 +4674,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4796,11 +4814,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="85370752"/>
-        <c:axId val="85721088"/>
+        <c:axId val="68269568"/>
+        <c:axId val="68271488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85370752"/>
+        <c:axId val="68269568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4841,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85721088"/>
+        <c:crossAx val="68271488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85721088"/>
+        <c:axId val="68271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4873,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85370752"/>
+        <c:crossAx val="68269568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4868,7 +4886,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5008,11 +5026,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="86082688"/>
-        <c:axId val="86084608"/>
+        <c:axId val="68736128"/>
+        <c:axId val="68738048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86082688"/>
+        <c:axId val="68736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,17 +5051,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86084608"/>
+        <c:crossAx val="68738048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86084608"/>
+        <c:axId val="68738048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,25 +5082,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86082688"/>
+        <c:crossAx val="68736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5223,11 +5238,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="86520192"/>
-        <c:axId val="86522112"/>
+        <c:axId val="68759936"/>
+        <c:axId val="68761856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86520192"/>
+        <c:axId val="68759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,17 +5263,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86522112"/>
+        <c:crossAx val="68761856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86522112"/>
+        <c:axId val="68761856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5280,25 +5294,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86520192"/>
+        <c:crossAx val="68759936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5438,11 +5450,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="86535552"/>
-        <c:axId val="86558208"/>
+        <c:axId val="68799872"/>
+        <c:axId val="68879872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86535552"/>
+        <c:axId val="68799872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,17 +5475,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86558208"/>
+        <c:crossAx val="68879872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86558208"/>
+        <c:axId val="68879872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,25 +5506,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86535552"/>
+        <c:crossAx val="68799872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8031,7 +8040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -8520,7 +8529,7 @@
     </row>
     <row r="28" spans="1:14" ht="183" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8532,16 +8541,16 @@
     </row>
     <row r="32" spans="1:14" ht="40.5">
       <c r="C32" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -8557,19 +8566,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -8756,27 +8765,27 @@
     </row>
     <row r="42" spans="1:14">
       <c r="L42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N42" t="s">
         <v>105</v>
-      </c>
-      <c r="N42" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="40.5">
       <c r="C45" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" s="7"/>
     </row>
@@ -8792,19 +8801,19 @@
         <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -8991,27 +9000,27 @@
     </row>
     <row r="55" spans="1:14">
       <c r="L55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="40.5">
       <c r="C58" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G58" s="25"/>
     </row>
@@ -9027,19 +9036,19 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -9226,27 +9235,27 @@
     </row>
     <row r="68" spans="1:14">
       <c r="L68" t="s">
+        <v>101</v>
+      </c>
+      <c r="M68" t="s">
         <v>103</v>
       </c>
-      <c r="M68" t="s">
-        <v>105</v>
-      </c>
       <c r="N68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="40.5">
       <c r="C71" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="35" t="s">
         <v>98</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>100</v>
       </c>
       <c r="G71" s="25"/>
     </row>
@@ -9262,19 +9271,19 @@
         <v>28</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -9461,13 +9470,13 @@
     </row>
     <row r="81" spans="12:14">
       <c r="L81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M81" t="s">
+        <v>103</v>
+      </c>
+      <c r="N81" t="s">
         <v>105</v>
-      </c>
-      <c r="N81" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9484,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9504,7 +9513,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -9521,19 +9530,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9738,7 +9747,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -9755,19 +9764,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9959,10 +9968,10 @@
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -10001,7 +10010,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -10036,7 +10045,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -10071,7 +10080,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -10116,7 +10125,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -10151,7 +10160,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -10196,12 +10205,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -10224,10 +10233,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10237,7 +10246,7 @@
     <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.5">
+    <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
         <v>56</v>
       </c>
@@ -10245,18 +10254,18 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="40.5">
+    <row r="3" spans="1:14" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10264,22 +10273,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -10305,7 +10314,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -10331,7 +10340,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -10357,7 +10366,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -10383,7 +10392,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -10409,7 +10418,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -10435,7 +10444,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -10461,7 +10470,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -10472,8 +10481,14 @@
       <c r="L11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="40.5">
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
@@ -10481,18 +10496,18 @@
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="27">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -10500,22 +10515,22 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -10541,7 +10556,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -10567,7 +10582,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -10593,7 +10608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="6">
         <v>4</v>
       </c>
@@ -10619,7 +10634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="6">
         <v>5</v>
       </c>
@@ -10645,7 +10660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -10671,7 +10686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="6">
         <v>7</v>
       </c>
@@ -10697,14 +10712,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="L25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="120" customHeight="1">
+      <c r="M25" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
     <sheet name="2.问题规模与时间效率的关系-CPU多线程" sheetId="2" r:id="rId2"/>
     <sheet name="3.问题规模与时间效率的关系-GPU初始" sheetId="3" r:id="rId3"/>
-    <sheet name="4.问题规模与时间效率的关系-GPU优化1" sheetId="4" r:id="rId4"/>
-    <sheet name="5.问题规模与时间效率的关系-GPU优化2" sheetId="5" r:id="rId5"/>
-    <sheet name="6.问题规模与时间效率的关系-GPU优化3" sheetId="6" r:id="rId6"/>
+    <sheet name="4.问题规模与时间效率的关系-对齐" sheetId="4" r:id="rId4"/>
+    <sheet name="5.问题规模与时间效率的关系-拆分" sheetId="7" r:id="rId5"/>
+    <sheet name="6.问题规模与时间效率的关系-常量" sheetId="5" r:id="rId6"/>
+    <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
   <si>
     <t>表1.1</t>
   </si>
@@ -193,21 +194,6 @@
     <t>GPU: gtx670</t>
   </si>
   <si>
-    <t>合并
-VS
-非合并</t>
-  </si>
-  <si>
-    <t>合并</t>
-  </si>
-  <si>
-    <t>非合并</t>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非合并</t>
-  </si>
-  <si>
     <t>图4.1</t>
   </si>
   <si>
@@ -334,48 +320,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表4.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复
-VS
-非重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>warp读取
 同一个值</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU: gtx670</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表4.5</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -403,10 +353,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表4.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU: gts250</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -422,22 +368,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>图4.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图4.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图4.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图4.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -447,21 +377,6 @@
   </si>
   <si>
     <t>GTS250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU合并优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
-前者是后者的6倍； 
-3）时间效率，合并与非合并对比，合并 vs 非合并 = 102:34=3，17:3.4=5， 
-前者提升200%（gtx670）、400%（gts250）； 
-4）时间效率，GPU VS CPU = 102:10=10，17:12=1.4， 
-前者提升900%（gtx670）、40%（gts250）；
-5）时间效率，重复与非重复对比，重复 vs 非重复 = 164:125=1.3，11.5:16.7=0.7， 
-前者提升30%（gtx670）、-30%（gts250）； 
-6）时间效率，交替与非交替对比，交替 vs 非交替 = 152:125=1.2，16.9:16.3=1.04， 
-前者提升20%（gtx670）、4%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -500,6 +415,163 @@
 前者提升x%（gtx670）、-40%（gts250）； 
 4）时间效率，GPU VS CPU = x:10=x，10:12=0.8， 
 前者提升x%（gtx670）、-20%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐
+VS
+非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐
+VS
+非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU类型对齐优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
+2）时间效率，在都是类型对齐的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
+前者是后者的6倍； 
+3）时间效率，类型对齐与非类型对齐，效率翻倍提升。定量：合并 vs 非合并 = 102:34=3，17:3.4=5， 前者提升200%（gtx670）、400%（gts250）； 
+4）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分
+VS
+不拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序
+VS
+非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU结构体拆分优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
+2）时间效率，在都是结构体拆分的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 前者是后者的6倍； 
+3）时间效率，拆分与不拆分对比，效率小幅度提升。定量：x:125=y，16.3:16.7=0.98， 
+前者提升z%（gtx670）、-2%（gts250）；
+4）时间效率，排序与非排序对比，效率小幅度提升。定量：164:125=1.3，11.7:16.3=0.7， 
+前者提升30%（gtx670）、-30%（gts250）； 
+5）时间效率，交替与非交替对比，效率小幅度提升。定量：152:125=1.2，16.9:16.3=1.04， 
+前者提升20%（gtx670）、4%（gts250）；
+6）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +822,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,11 +979,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65901312"/>
-        <c:axId val="65903232"/>
+        <c:axId val="92493312"/>
+        <c:axId val="92495232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65901312"/>
+        <c:axId val="92493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,14 +1006,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65903232"/>
+        <c:crossAx val="92495232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65903232"/>
+        <c:axId val="92495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +1038,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65901312"/>
+        <c:crossAx val="92493312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,7 +1051,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -992,11 +1070,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$47</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>重复</c:v>
+                  <c:v>排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,7 +1097,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$48:$E$54</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$43:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1053,11 +1131,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$47</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非重复</c:v>
+                  <c:v>非排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1080,7 +1158,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$48:$F$54</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$43:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1113,11 +1191,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68905600"/>
-        <c:axId val="68928256"/>
+        <c:axId val="70819200"/>
+        <c:axId val="71794688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68905600"/>
+        <c:axId val="70819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,16 +1216,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68928256"/>
+        <c:crossAx val="71794688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68928256"/>
+        <c:axId val="71794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,23 +1248,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68905600"/>
+        <c:crossAx val="70819200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1204,7 +1285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$60</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1231,7 +1312,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$61:$E$67</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$56:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1265,7 +1346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$60</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1292,7 +1373,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$61:$F$67</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$56:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1325,11 +1406,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68949888"/>
-        <c:axId val="68968448"/>
+        <c:axId val="144687104"/>
+        <c:axId val="145206272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68949888"/>
+        <c:axId val="144687104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,16 +1431,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68968448"/>
+        <c:crossAx val="145206272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68968448"/>
+        <c:axId val="145206272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,23 +1463,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68949888"/>
+        <c:crossAx val="144687104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1416,7 +1500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$73</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1443,24 +1527,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$74:$E$80</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$69:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.020833333333334</c:v>
+                  <c:v>13.297872340425531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.060240963855422</c:v>
+                  <c:v>15.151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.129032258064516</c:v>
+                  <c:v>16.077170418006432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.891891891891891</c:v>
+                  <c:v>16.863406408094438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.094017094017094</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.391304347826086</c:v>
@@ -1477,7 +1561,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$73</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,12 +1575,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$74:$F$80</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$69:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.157894736842104</c:v>
+                  <c:v>13.297872340425531</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.792899408284024</c:v>
@@ -1505,13 +1589,13 @@
                   <c:v>15.822784810126581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.286644951140065</c:v>
+                  <c:v>16.260162601626014</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.73640167364017</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.877637130801688</c:v>
@@ -1524,11 +1608,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68993792"/>
-        <c:axId val="68995712"/>
+        <c:axId val="60785792"/>
+        <c:axId val="60802944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68993792"/>
+        <c:axId val="60785792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,16 +1633,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68995712"/>
+        <c:crossAx val="60802944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68995712"/>
+        <c:axId val="60802944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,23 +1665,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68993792"/>
+        <c:crossAx val="60785792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1615,7 +1702,437 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$17</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>拆分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.297872340425531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.792899408284024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.822784810126581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.260162601626014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.877637130801688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非拆分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.391304347826086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="261665920"/>
+        <c:axId val="261722496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="261665920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261722496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261722496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261665920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>拆分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$17:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.869565217391305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.494252873563219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.940298507462686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>非拆分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$17:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>96.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.04081632653062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.5268817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67605633802818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="254880000"/>
+        <c:axId val="94290304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254880000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94290304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94290304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254880000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1702,7 +2219,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$18:$E$24</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$E$18:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1736,7 +2253,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$17</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,7 +2340,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$18:$F$24</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$F$18:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1856,11 +2373,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70866432"/>
-        <c:axId val="70868352"/>
+        <c:axId val="100611968"/>
+        <c:axId val="100630528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70866432"/>
+        <c:axId val="100611968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,14 +2452,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70868352"/>
+        <c:crossAx val="100630528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70868352"/>
+        <c:axId val="100630528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70866432"/>
+        <c:crossAx val="100611968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2099,13 +2616,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2118,7 +2635,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$3</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2205,7 +2722,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$E$4:$E$10</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2239,7 +2756,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$3</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2326,7 +2843,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$F$4:$F$10</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2359,11 +2876,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70943488"/>
-        <c:axId val="70945408"/>
+        <c:axId val="100689024"/>
+        <c:axId val="100690944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70943488"/>
+        <c:axId val="100689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,14 +2955,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70945408"/>
+        <c:crossAx val="100690944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70945408"/>
+        <c:axId val="100690944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +3046,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70943488"/>
+        <c:crossAx val="100689024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,13 +3119,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:style val="4"/>
@@ -2633,7 +3150,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$31:$K$31</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
@@ -2685,7 +3202,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'5.问题规模与时间效率的关系-GPU优化2'!$B$33:$K$33</c:f>
+              <c:f>'6.问题规模与时间效率的关系-常量'!$B$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="10"/>
@@ -2728,11 +3245,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="70978176"/>
-        <c:axId val="70988544"/>
+        <c:axId val="100707328"/>
+        <c:axId val="100725888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70978176"/>
+        <c:axId val="100707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,14 +3286,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70988544"/>
+        <c:crossAx val="100725888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70988544"/>
+        <c:axId val="100725888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +3324,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70978176"/>
+        <c:crossAx val="100707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,13 +3337,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2839,7 +3356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$17</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2926,7 +3443,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$18:$E$24</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$E$18:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2960,7 +3477,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$17</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3047,7 +3564,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$18:$F$24</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$F$18:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3080,11 +3597,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71060864"/>
-        <c:axId val="71079424"/>
+        <c:axId val="100794368"/>
+        <c:axId val="100796288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71060864"/>
+        <c:axId val="100794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,14 +3676,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71079424"/>
+        <c:crossAx val="100796288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71079424"/>
+        <c:axId val="100796288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71060864"/>
+        <c:crossAx val="100794368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3323,13 +3840,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -3342,7 +3859,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$3</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3429,7 +3946,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$E$4:$E$10</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3463,7 +3980,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$3</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3550,7 +4067,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'6.问题规模与时间效率的关系-GPU优化3'!$F$4:$F$10</c:f>
+              <c:f>'7.问题规模与时间效率的关系-共享'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3583,11 +4100,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71326336"/>
-        <c:axId val="71398144"/>
+        <c:axId val="100822016"/>
+        <c:axId val="100844672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71326336"/>
+        <c:axId val="100822016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,14 +4179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71398144"/>
+        <c:crossAx val="100844672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71398144"/>
+        <c:axId val="100844672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +4270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71326336"/>
+        <c:crossAx val="100822016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3826,7 +4343,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3966,11 +4483,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65941504"/>
-        <c:axId val="65943424"/>
+        <c:axId val="93201152"/>
+        <c:axId val="93203072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65941504"/>
+        <c:axId val="93201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,14 +4510,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65943424"/>
+        <c:crossAx val="93203072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65943424"/>
+        <c:axId val="93203072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4542,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65941504"/>
+        <c:crossAx val="93201152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4038,7 +4555,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4178,11 +4695,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="66911616"/>
-        <c:axId val="67831296"/>
+        <c:axId val="93544832"/>
+        <c:axId val="93546752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66911616"/>
+        <c:axId val="93544832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,14 +4722,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67831296"/>
+        <c:crossAx val="93546752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67831296"/>
+        <c:axId val="93546752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,7 +4754,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66911616"/>
+        <c:crossAx val="93544832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4250,7 +4767,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4390,11 +4907,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="67881600"/>
-        <c:axId val="68166400"/>
+        <c:axId val="93588864"/>
+        <c:axId val="93603328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67881600"/>
+        <c:axId val="93588864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,14 +4934,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68166400"/>
+        <c:crossAx val="93603328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68166400"/>
+        <c:axId val="93603328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4449,7 +4966,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67881600"/>
+        <c:crossAx val="93588864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,7 +4979,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4602,11 +5119,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68241664"/>
-        <c:axId val="68252032"/>
+        <c:axId val="93641728"/>
+        <c:axId val="93648000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68241664"/>
+        <c:axId val="93641728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,16 +5144,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68252032"/>
+        <c:crossAx val="93648000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68252032"/>
+        <c:axId val="93648000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,23 +5176,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68241664"/>
+        <c:crossAx val="93641728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4814,11 +5334,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68269568"/>
-        <c:axId val="68271488"/>
+        <c:axId val="93690112"/>
+        <c:axId val="93786496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68269568"/>
+        <c:axId val="93690112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4839,16 +5359,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68271488"/>
+        <c:crossAx val="93786496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68271488"/>
+        <c:axId val="93786496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,23 +5391,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68269568"/>
+        <c:crossAx val="93690112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4905,11 +5428,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$3</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>合并</c:v>
+                  <c:v>对齐</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4932,7 +5455,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$4:$E$10</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4966,11 +5489,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$3</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非合并</c:v>
+                  <c:v>非对齐</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4993,7 +5516,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$4:$F$10</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5026,11 +5549,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68736128"/>
-        <c:axId val="68738048"/>
+        <c:axId val="93881856"/>
+        <c:axId val="93883776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68736128"/>
+        <c:axId val="93881856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,16 +5574,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68738048"/>
+        <c:crossAx val="93883776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68738048"/>
+        <c:axId val="93883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,23 +5606,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68736128"/>
+        <c:crossAx val="93881856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5117,11 +5643,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$17</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>合并</c:v>
+                  <c:v>对齐</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5144,7 +5670,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$18:$E$24</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$E$18:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5178,11 +5704,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$17</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非合并</c:v>
+                  <c:v>非对齐</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5205,7 +5731,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$18:$F$24</c:f>
+              <c:f>'4.问题规模与时间效率的关系-对齐'!$F$18:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5238,11 +5764,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68759936"/>
-        <c:axId val="68761856"/>
+        <c:axId val="94253824"/>
+        <c:axId val="94255744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68759936"/>
+        <c:axId val="94253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,16 +5789,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68761856"/>
+        <c:crossAx val="94255744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68761856"/>
+        <c:axId val="94255744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5294,23 +5821,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68759936"/>
+        <c:crossAx val="94253824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5329,11 +5858,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$34</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>重复</c:v>
+                  <c:v>排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5356,30 +5885,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$E$35:$E$41</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$E$30:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.615384615384615</c:v>
+                  <c:v>9.9206349206349209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.869565217391305</c:v>
+                  <c:v>10.593220338983052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.363636363636363</c:v>
+                  <c:v>11.389521640091118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.494252873563219</c:v>
+                  <c:v>11.668611435239207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.76470588235294</c:v>
+                  <c:v>11.834319526627219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.76470588235294</c:v>
+                  <c:v>11.869436201780415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.940298507462686</c:v>
+                  <c:v>11.994002998500749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,11 +5919,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$34</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>非重复</c:v>
+                  <c:v>非排序</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5417,30 +5946,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'4.问题规模与时间效率的关系-GPU优化1'!$F$35:$F$41</c:f>
+              <c:f>'5.问题规模与时间效率的关系-拆分'!$F$30:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.625</c:v>
+                  <c:v>13.297872340425531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>14.792899408284024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>15.822784810126581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.666666666666664</c:v>
+                  <c:v>16.260162601626014</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.391304347826086</c:v>
+                  <c:v>16.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.391304347826086</c:v>
+                  <c:v>16.877637130801688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5450,11 +5979,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68799872"/>
-        <c:axId val="68879872"/>
+        <c:axId val="100867456"/>
+        <c:axId val="136402432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68799872"/>
+        <c:axId val="100867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,16 +6004,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68879872"/>
+        <c:crossAx val="136402432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68879872"/>
+        <c:axId val="136402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5506,23 +6036,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68799872"/>
+        <c:crossAx val="100867456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5757,16 +6289,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5787,20 +6384,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5817,20 +6414,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5848,19 +6445,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5879,18 +6476,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5908,7 +6505,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6003,7 +6600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7521,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8038,14 +8635,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -8060,7 +8658,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8069,7 +8667,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
+    <row r="3" spans="1:14" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8077,19 +8675,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8107,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
+        <f>B4/C4*50</f>
         <v>96.153846153846146</v>
       </c>
       <c r="F4" s="8">
@@ -8129,15 +8727,15 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
+        <f>LOG(B5)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="0"/>
+        <f>B5/C5*50</f>
         <v>100</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
+        <f>B5/G5*50</f>
         <v>35.714285714285715</v>
       </c>
       <c r="G5" s="4">
@@ -8155,15 +8753,15 @@
         <v>0.49</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(B6)/LOG(2)+3</f>
         <v>3</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
+        <f>B6/C6*50</f>
         <v>102.04081632653062</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
+        <f>B6/G6*50</f>
         <v>35.714285714285715</v>
       </c>
       <c r="G6" s="4">
@@ -8181,15 +8779,15 @@
         <v>0.93</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(B7)/LOG(2)+3</f>
         <v>4</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f>B7/C7*50</f>
         <v>107.5268817204301</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
+        <f>B7/G7*50</f>
         <v>33.333333333333329</v>
       </c>
       <c r="G7" s="4">
@@ -8207,15 +8805,15 @@
         <v>1.8</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(B8)/LOG(2)+3</f>
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
+        <f>B8/C8*50</f>
         <v>111.11111111111111</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
+        <f>B8/G8*50</f>
         <v>33.333333333333329</v>
       </c>
       <c r="G8" s="4">
@@ -8233,15 +8831,15 @@
         <v>3.6</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(B9)/LOG(2)+3</f>
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f>B9/C9*50</f>
         <v>111.11111111111111</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
+        <f>B9/G9*50</f>
         <v>36.363636363636367</v>
       </c>
       <c r="G9" s="4">
@@ -8259,15 +8857,15 @@
         <v>7.1</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(B10)/LOG(2)+3</f>
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>B10/C10*50</f>
         <v>112.67605633802818</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
+        <f>B10/G10*50</f>
         <v>36.363636363636367</v>
       </c>
       <c r="G10" s="4">
@@ -8285,24 +8883,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8319,19 +8917,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8349,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
+        <f>B18/C18*50</f>
         <v>15.625</v>
       </c>
       <c r="F18" s="8">
@@ -8371,15 +8969,15 @@
         <v>1.5</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
+        <f>LOG(B19)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="3"/>
+        <f>B19/C19*50</f>
         <v>16.666666666666664</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
+        <f>B19/G19*50</f>
         <v>3.5714285714285712</v>
       </c>
       <c r="G19" s="4">
@@ -8397,15 +8995,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="4"/>
+        <f>LOG(B20)/LOG(2)+3</f>
         <v>3</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="3"/>
+        <f>B20/C20*50</f>
         <v>16.666666666666664</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="5"/>
+        <f>B20/G20*50</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="G20" s="4">
@@ -8423,15 +9021,15 @@
         <v>6</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="4"/>
+        <f>LOG(B21)/LOG(2)+3</f>
         <v>4</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="3"/>
+        <f>B21/C21*50</f>
         <v>16.666666666666664</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="5"/>
+        <f>B21/G21*50</f>
         <v>3.4482758620689653</v>
       </c>
       <c r="G21" s="4">
@@ -8449,15 +9047,15 @@
         <v>12</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="4"/>
+        <f>LOG(B22)/LOG(2)+3</f>
         <v>5</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="3"/>
+        <f>B22/C22*50</f>
         <v>16.666666666666664</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="5"/>
+        <f>B22/G22*50</f>
         <v>3.4482758620689653</v>
       </c>
       <c r="G22" s="4">
@@ -8475,15 +9073,15 @@
         <v>23</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="4"/>
+        <f>LOG(B23)/LOG(2)+3</f>
         <v>6</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="3"/>
+        <f>B23/C23*50</f>
         <v>17.391304347826086</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="5"/>
+        <f>B23/G23*50</f>
         <v>3.4482758620689653</v>
       </c>
       <c r="G23" s="4">
@@ -8501,15 +9099,15 @@
         <v>46</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="4"/>
+        <f>LOG(B24)/LOG(2)+3</f>
         <v>7</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="3"/>
+        <f>B24/C24*50</f>
         <v>17.391304347826086</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="5"/>
+        <f>B24/G24*50</f>
         <v>3.4334763948497855</v>
       </c>
       <c r="G24" s="4">
@@ -8518,7 +9116,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
@@ -8527,9 +9125,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="183" customHeight="1">
+    <row r="28" spans="1:14" ht="140.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8538,946 +9136,6 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-    </row>
-    <row r="32" spans="1:14" ht="40.5">
-      <c r="C32" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="27">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="6">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D35" s="3">
-        <f>LOG(B35)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" ref="E35:E41" si="6">B35/C35*50</f>
-        <v>9.615384615384615</v>
-      </c>
-      <c r="F35" s="8">
-        <f>B35/G35*50</f>
-        <v>15.625</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="6">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" ref="D36:D41" si="7">LOG(B36)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="6"/>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" ref="F36:F41" si="8">B36/G36*50</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="6"/>
-        <v>11.363636363636363</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="8"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="6">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="6"/>
-        <v>11.494252873563219</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="8"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G38" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="6">
-        <v>5</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="6"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="8"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G39" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="6">
-        <v>6</v>
-      </c>
-      <c r="B40" s="3">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4">
-        <v>34</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="6"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="8"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="G40" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="6">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4">
-        <v>67</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="6"/>
-        <v>11.940298507462686</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="8"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="G41" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="L42" t="s">
-        <v>99</v>
-      </c>
-      <c r="M42" t="s">
-        <v>103</v>
-      </c>
-      <c r="N42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="40.5">
-      <c r="C45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" ht="27">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="6">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="D48" s="3">
-        <f>LOG(B48)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" ref="E48:E54" si="9">B48/C48*50</f>
-        <v>104.16666666666667</v>
-      </c>
-      <c r="F48" s="8">
-        <f>B48/G48*50</f>
-        <v>89.285714285714278</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="6">
-        <v>2</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" ref="D49:D54" si="10">LOG(B49)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="9"/>
-        <v>131.57894736842107</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" ref="F49:F54" si="11">B49/G49*50</f>
-        <v>108.69565217391303</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="6">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="9"/>
-        <v>147.05882352941174</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="11"/>
-        <v>121.95121951219512</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="6">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" si="9"/>
-        <v>163.9344262295082</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="6">
-        <v>5</v>
-      </c>
-      <c r="B52" s="3">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" si="9"/>
-        <v>166.66666666666669</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="11"/>
-        <v>133.33333333333331</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="6">
-        <v>6</v>
-      </c>
-      <c r="B53" s="3">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="9"/>
-        <v>173.91304347826087</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="11"/>
-        <v>137.93103448275863</v>
-      </c>
-      <c r="G53" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="6">
-        <v>7</v>
-      </c>
-      <c r="B54" s="3">
-        <v>16</v>
-      </c>
-      <c r="C54" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="9"/>
-        <v>177.77777777777777</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="11"/>
-        <v>140.35087719298244</v>
-      </c>
-      <c r="G54" s="4">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="L55" t="s">
-        <v>100</v>
-      </c>
-      <c r="M55" t="s">
-        <v>103</v>
-      </c>
-      <c r="N55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="40.5">
-      <c r="C58" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:14" ht="27">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="6">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="D61" s="3">
-        <f>LOG(B61)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="8">
-        <f t="shared" ref="E61:E67" si="12">B61/C61*50</f>
-        <v>104.16666666666667</v>
-      </c>
-      <c r="F61" s="8">
-        <f>B61/G61*50</f>
-        <v>89.285714285714278</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="6">
-        <v>2</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" ref="D62:D67" si="13">LOG(B62)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E62" s="8">
-        <f t="shared" si="12"/>
-        <v>131.57894736842107</v>
-      </c>
-      <c r="F62" s="8">
-        <f t="shared" ref="F62:F67" si="14">B62/G62*50</f>
-        <v>108.69565217391303</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="6">
-        <v>3</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="E63" s="8">
-        <f t="shared" si="12"/>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="F63" s="8">
-        <f t="shared" si="14"/>
-        <v>121.95121951219512</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="6">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="E64" s="8">
-        <f t="shared" si="12"/>
-        <v>151.5151515151515</v>
-      </c>
-      <c r="F64" s="8">
-        <f t="shared" si="14"/>
-        <v>125</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="6">
-        <v>5</v>
-      </c>
-      <c r="B65" s="3">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="E65" s="8">
-        <f t="shared" si="12"/>
-        <v>153.84615384615384</v>
-      </c>
-      <c r="F65" s="8">
-        <f t="shared" si="14"/>
-        <v>133.33333333333331</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="6">
-        <v>6</v>
-      </c>
-      <c r="B66" s="3">
-        <v>8</v>
-      </c>
-      <c r="C66" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="E66" s="8">
-        <f t="shared" si="12"/>
-        <v>153.84615384615384</v>
-      </c>
-      <c r="F66" s="8">
-        <f t="shared" si="14"/>
-        <v>137.93103448275863</v>
-      </c>
-      <c r="G66" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="6">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3">
-        <v>16</v>
-      </c>
-      <c r="C67" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="E67" s="8">
-        <f t="shared" si="12"/>
-        <v>153.84615384615384</v>
-      </c>
-      <c r="F67" s="8">
-        <f t="shared" si="14"/>
-        <v>140.35087719298244</v>
-      </c>
-      <c r="G67" s="4">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="L68" t="s">
-        <v>101</v>
-      </c>
-      <c r="M68" t="s">
-        <v>103</v>
-      </c>
-      <c r="N68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="40.5">
-      <c r="C71" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="25"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:14" ht="27">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="6">
-        <v>1</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="D74" s="3">
-        <f>LOG(B74)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="8">
-        <f t="shared" ref="E74:E80" si="15">B74/C74*50</f>
-        <v>13.020833333333334</v>
-      </c>
-      <c r="F74" s="8">
-        <f>B74/G74*50</f>
-        <v>13.157894736842104</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="6">
-        <v>2</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" ref="D75:D80" si="16">LOG(B75)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="15"/>
-        <v>15.060240963855422</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" ref="F75:F80" si="17">B75/G75*50</f>
-        <v>14.792899408284024</v>
-      </c>
-      <c r="G75" s="4">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="6">
-        <v>3</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="15"/>
-        <v>16.129032258064516</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="17"/>
-        <v>15.822784810126581</v>
-      </c>
-      <c r="G76" s="4">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="6">
-        <v>4</v>
-      </c>
-      <c r="B77" s="3">
-        <v>2</v>
-      </c>
-      <c r="C77" s="4">
-        <v>5.92</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="15"/>
-        <v>16.891891891891891</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="17"/>
-        <v>16.286644951140065</v>
-      </c>
-      <c r="G77" s="4">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="6">
-        <v>5</v>
-      </c>
-      <c r="B78" s="3">
-        <v>4</v>
-      </c>
-      <c r="C78" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="15"/>
-        <v>17.094017094017094</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="17"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G78" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="6">
-        <v>6</v>
-      </c>
-      <c r="B79" s="3">
-        <v>8</v>
-      </c>
-      <c r="C79" s="4">
-        <v>23</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="15"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="17"/>
-        <v>16.73640167364017</v>
-      </c>
-      <c r="G79" s="4">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="6">
-        <v>7</v>
-      </c>
-      <c r="B80" s="3">
-        <v>16</v>
-      </c>
-      <c r="C80" s="4">
-        <v>45.5</v>
-      </c>
-      <c r="D80" s="3">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="15"/>
-        <v>17.582417582417584</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="17"/>
-        <v>16.877637130801688</v>
-      </c>
-      <c r="G80" s="4">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="81" spans="12:14">
-      <c r="L81" t="s">
-        <v>102</v>
-      </c>
-      <c r="M81" t="s">
-        <v>103</v>
-      </c>
-      <c r="N81" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9491,10 +9149,1464 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="40.5">
+      <c r="C1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D4" s="3">
+        <f>LOG(B4)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f>B4/C4*50</f>
+        <v>13.297872340425531</v>
+      </c>
+      <c r="F4" s="8">
+        <f>B4/G4*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="D5" s="3">
+        <f>LOG(B5)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <f>B5/C5*50</f>
+        <v>14.792899408284024</v>
+      </c>
+      <c r="F5" s="8">
+        <f>B5/G5*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="D6" s="3">
+        <f>LOG(B6)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f>B6/C6*50</f>
+        <v>15.822784810126581</v>
+      </c>
+      <c r="F6" s="8">
+        <f>B6/G6*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="D7" s="3">
+        <f>LOG(B7)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <f>B7/C7*50</f>
+        <v>16.260162601626014</v>
+      </c>
+      <c r="F7" s="8">
+        <f>B7/G7*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <f>LOG(B8)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <f>B8/C8*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F8" s="8">
+        <f>B8/G8*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <f>LOG(B9)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <f>B9/C9*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F9" s="8">
+        <f>B9/G9*50</f>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G9" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="D10" s="3">
+        <f>LOG(B10)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <f>B10/C10*50</f>
+        <v>16.877637130801688</v>
+      </c>
+      <c r="F10" s="8">
+        <f>B10/G10*50</f>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G10" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="40.5">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="3">
+        <f>LOG(B17)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <f>B17/C17*50</f>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="F17" s="8">
+        <f>B17/G17*50</f>
+        <v>96.153846153846146</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D18" s="3">
+        <f>LOG(B18)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <f>B18/C18*50</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="F18" s="8">
+        <f>B18/G18*50</f>
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <f>LOG(B19)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
+        <f>B19/C19*50</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="F19" s="8">
+        <f>B19/G19*50</f>
+        <v>102.04081632653062</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D20" s="3">
+        <f>LOG(B20)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="8">
+        <f>B20/C20*50</f>
+        <v>11.494252873563219</v>
+      </c>
+      <c r="F20" s="8">
+        <f>B20/G20*50</f>
+        <v>107.5268817204301</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <f>LOG(B21)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="8">
+        <f>B21/C21*50</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F21" s="8">
+        <f>B21/G21*50</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3">
+        <f>LOG(B22)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="8">
+        <f>B22/C22*50</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F22" s="8">
+        <f>B22/G22*50</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3">
+        <f>LOG(B23)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E23" s="8">
+        <f>B23/C23*50</f>
+        <v>11.940298507462686</v>
+      </c>
+      <c r="F23" s="8">
+        <f>B23/G23*50</f>
+        <v>112.67605633802818</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="K24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40.5">
+      <c r="C27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="27">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="D30" s="3">
+        <f>LOG(B30)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <f>B30/C30*50</f>
+        <v>9.9206349206349209</v>
+      </c>
+      <c r="F30" s="8">
+        <f>B30/G30*50</f>
+        <v>13.297872340425531</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="D31" s="3">
+        <f>LOG(B31)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <f>B31/C31*50</f>
+        <v>10.593220338983052</v>
+      </c>
+      <c r="F31" s="8">
+        <f>B31/G31*50</f>
+        <v>14.792899408284024</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D32" s="3">
+        <f>LOG(B32)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <f>B32/C32*50</f>
+        <v>11.389521640091118</v>
+      </c>
+      <c r="F32" s="8">
+        <f>B32/G32*50</f>
+        <v>15.822784810126581</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>8.57</v>
+      </c>
+      <c r="D33" s="3">
+        <f>LOG(B33)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <f>B33/C33*50</f>
+        <v>11.668611435239207</v>
+      </c>
+      <c r="F33" s="8">
+        <f>B33/G33*50</f>
+        <v>16.260162601626014</v>
+      </c>
+      <c r="G33" s="4">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D34" s="3">
+        <f>LOG(B34)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <f>B34/C34*50</f>
+        <v>11.834319526627219</v>
+      </c>
+      <c r="F34" s="8">
+        <f>B34/G34*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G34" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D35" s="3">
+        <f>LOG(B35)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <f>B35/C35*50</f>
+        <v>11.869436201780415</v>
+      </c>
+      <c r="F35" s="8">
+        <f>B35/G35*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G35" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="D36" s="3">
+        <f>LOG(B36)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <f>B36/C36*50</f>
+        <v>11.994002998500749</v>
+      </c>
+      <c r="F36" s="8">
+        <f>B36/G36*50</f>
+        <v>16.877637130801688</v>
+      </c>
+      <c r="G36" s="4">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="40.5">
+      <c r="C40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" ht="27">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D43" s="3">
+        <f>LOG(B43)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <f>B43/C43*50</f>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="F43" s="8">
+        <f>B43/G43*50</f>
+        <v>89.285714285714278</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="6">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D44" s="3">
+        <f>LOG(B44)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
+        <f>B44/C44*50</f>
+        <v>131.57894736842107</v>
+      </c>
+      <c r="F44" s="8">
+        <f>B44/G44*50</f>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="6">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D45" s="3">
+        <f>LOG(B45)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <f>B45/C45*50</f>
+        <v>147.05882352941174</v>
+      </c>
+      <c r="F45" s="8">
+        <f>B45/G45*50</f>
+        <v>121.95121951219512</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="6">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D46" s="3">
+        <f>LOG(B46)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E46" s="8">
+        <f>B46/C46*50</f>
+        <v>163.9344262295082</v>
+      </c>
+      <c r="F46" s="8">
+        <f>B46/G46*50</f>
+        <v>125</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="6">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D47" s="3">
+        <f>LOG(B47)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="8">
+        <f>B47/C47*50</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="F47" s="8">
+        <f>B47/G47*50</f>
+        <v>133.33333333333331</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="6">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D48" s="3">
+        <f>LOG(B48)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E48" s="8">
+        <f>B48/C48*50</f>
+        <v>173.91304347826087</v>
+      </c>
+      <c r="F48" s="8">
+        <f>B48/G48*50</f>
+        <v>137.93103448275863</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="6">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D49" s="3">
+        <f>LOG(B49)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E49" s="8">
+        <f>B49/C49*50</f>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="F49" s="8">
+        <f>B49/G49*50</f>
+        <v>140.35087719298244</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="L50" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="40.5">
+      <c r="C53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="54">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D56" s="3">
+        <f>LOG(B56)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <f>B56/C56*50</f>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="F56" s="8">
+        <f>B56/G56*50</f>
+        <v>89.285714285714278</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="6">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D57" s="3">
+        <f>LOG(B57)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E57" s="8">
+        <f>B57/C57*50</f>
+        <v>131.57894736842107</v>
+      </c>
+      <c r="F57" s="8">
+        <f>B57/G57*50</f>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D58" s="3">
+        <f>LOG(B58)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E58" s="8">
+        <f>B58/C58*50</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="F58" s="8">
+        <f>B58/G58*50</f>
+        <v>121.95121951219512</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="6">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D59" s="3">
+        <f>LOG(B59)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E59" s="8">
+        <f>B59/C59*50</f>
+        <v>151.5151515151515</v>
+      </c>
+      <c r="F59" s="8">
+        <f>B59/G59*50</f>
+        <v>125</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="6">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D60" s="3">
+        <f>LOG(B60)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E60" s="8">
+        <f>B60/C60*50</f>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="F60" s="8">
+        <f>B60/G60*50</f>
+        <v>133.33333333333331</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="6">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="D61" s="3">
+        <f>LOG(B61)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E61" s="8">
+        <f>B61/C61*50</f>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="F61" s="8">
+        <f>B61/G61*50</f>
+        <v>137.93103448275863</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="6">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3">
+        <v>16</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="D62" s="3">
+        <f>LOG(B62)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E62" s="8">
+        <f>B62/C62*50</f>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="F62" s="8">
+        <f>B62/G62*50</f>
+        <v>140.35087719298244</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="L63" t="s">
+        <v>106</v>
+      </c>
+      <c r="M63" t="s">
+        <v>86</v>
+      </c>
+      <c r="N63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="40.5">
+      <c r="C66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" ht="54">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="6">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D69" s="3">
+        <f>LOG(B69)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="8">
+        <f>B69/C69*50</f>
+        <v>13.297872340425531</v>
+      </c>
+      <c r="F69" s="8">
+        <f>B69/G69*50</f>
+        <v>13.297872340425531</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="6">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="D70" s="3">
+        <f>LOG(B70)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E70" s="8">
+        <f>B70/C70*50</f>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="F70" s="8">
+        <f>B70/G70*50</f>
+        <v>14.792899408284024</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="6">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="D71" s="3">
+        <f>LOG(B71)/LOG(2)+3</f>
+        <v>3</v>
+      </c>
+      <c r="E71" s="8">
+        <f>B71/C71*50</f>
+        <v>16.077170418006432</v>
+      </c>
+      <c r="F71" s="8">
+        <f>B71/G71*50</f>
+        <v>15.822784810126581</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="6">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="D72" s="3">
+        <f>LOG(B72)/LOG(2)+3</f>
+        <v>4</v>
+      </c>
+      <c r="E72" s="8">
+        <f>B72/C72*50</f>
+        <v>16.863406408094438</v>
+      </c>
+      <c r="F72" s="8">
+        <f>B72/G72*50</f>
+        <v>16.260162601626014</v>
+      </c>
+      <c r="G72" s="4">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="6">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="4">
+        <v>12</v>
+      </c>
+      <c r="D73" s="3">
+        <f>LOG(B73)/LOG(2)+3</f>
+        <v>5</v>
+      </c>
+      <c r="E73" s="8">
+        <f>B73/C73*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F73" s="8">
+        <f>B73/G73*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G73" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="6">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4">
+        <v>23</v>
+      </c>
+      <c r="D74" s="3">
+        <f>LOG(B74)/LOG(2)+3</f>
+        <v>6</v>
+      </c>
+      <c r="E74" s="8">
+        <f>B74/C74*50</f>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="F74" s="8">
+        <f>B74/G74*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G74" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="6">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3">
+        <v>16</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="D75" s="3">
+        <f>LOG(B75)/LOG(2)+3</f>
+        <v>7</v>
+      </c>
+      <c r="E75" s="8">
+        <f>B75/C75*50</f>
+        <v>17.582417582417584</v>
+      </c>
+      <c r="F75" s="8">
+        <f>B75/G75*50</f>
+        <v>16.877637130801688</v>
+      </c>
+      <c r="G75" s="4">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="L76" t="s">
+        <v>108</v>
+      </c>
+      <c r="M76" t="s">
+        <v>86</v>
+      </c>
+      <c r="N76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="178.5" customHeight="1">
+      <c r="A79" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A79:H79"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9507,13 +10619,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -9530,19 +10642,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9736,18 +10848,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -9764,19 +10876,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9963,15 +11075,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -10010,7 +11122,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -10045,7 +11157,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -10080,7 +11192,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -10125,7 +11237,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -10160,7 +11272,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -10205,12 +11317,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -10231,12 +11343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10248,16 +11360,16 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -10273,19 +11385,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -10479,27 +11591,27 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -10515,19 +11627,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -10714,18 +11826,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="125">
   <si>
     <t>表1.1</t>
   </si>
@@ -407,17 +407,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU线程块内部所有线程共享通信 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以2%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = x:10=6， 
-前者是后者的6倍； 
-3）时间效率，缓存与非缓存对比，缓存 vs 非缓存 = x:102=x，10:17=0.6， 
-前者提升x%（gtx670）、-40%（gts250）； 
-4）时间效率，GPU VS CPU = x:10=x，10:12=0.8， 
-前者提升x%（gtx670）、-20%（gts250）；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>对齐
 VS
 非对齐</t>
@@ -571,7 +560,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>GPU线程块内部所有线程共享通信 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
+2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = x:63=y， 
+前者是后者的y倍； 
+3）时间效率，共享与非共享对比，效率翻倍提升。定量：x:102=x，63:17=3.7， 
+前者提升x%（gtx670）、270%（gts250）； 
+4）时间效率，GPU VS CPU = x:10=x，63:12=5.3， 
+前者提升x%（gtx670）、430%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -979,11 +975,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92493312"/>
-        <c:axId val="92495232"/>
+        <c:axId val="65250816"/>
+        <c:axId val="65254912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92493312"/>
+        <c:axId val="65250816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,14 +1002,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92495232"/>
+        <c:crossAx val="65254912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92495232"/>
+        <c:axId val="65254912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1034,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92493312"/>
+        <c:crossAx val="65250816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,7 +1047,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1191,11 +1187,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70819200"/>
-        <c:axId val="71794688"/>
+        <c:axId val="66008576"/>
+        <c:axId val="66010496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70819200"/>
+        <c:axId val="66008576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,14 +1215,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71794688"/>
+        <c:crossAx val="66010496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71794688"/>
+        <c:axId val="66010496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1248,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70819200"/>
+        <c:crossAx val="66008576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1266,7 +1262,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1406,11 +1402,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="144687104"/>
-        <c:axId val="145206272"/>
+        <c:axId val="67597056"/>
+        <c:axId val="67598976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144687104"/>
+        <c:axId val="67597056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +1430,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145206272"/>
+        <c:crossAx val="67598976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145206272"/>
+        <c:axId val="67598976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1463,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144687104"/>
+        <c:crossAx val="67597056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,7 +1477,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1608,11 +1604,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="60785792"/>
-        <c:axId val="60802944"/>
+        <c:axId val="68578688"/>
+        <c:axId val="68580864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60785792"/>
+        <c:axId val="68578688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,14 +1632,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60802944"/>
+        <c:crossAx val="68580864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60802944"/>
+        <c:axId val="68580864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1665,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60785792"/>
+        <c:crossAx val="68578688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,7 +1679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1823,11 +1819,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="261665920"/>
-        <c:axId val="261722496"/>
+        <c:axId val="68594304"/>
+        <c:axId val="68616960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="261665920"/>
+        <c:axId val="68594304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,14 +1847,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261722496"/>
+        <c:crossAx val="68616960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261722496"/>
+        <c:axId val="68616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1880,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261665920"/>
+        <c:crossAx val="68594304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1898,7 +1894,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2038,11 +2034,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="254880000"/>
-        <c:axId val="94290304"/>
+        <c:axId val="68630400"/>
+        <c:axId val="68657152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254880000"/>
+        <c:axId val="68630400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,14 +2062,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94290304"/>
+        <c:crossAx val="68657152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94290304"/>
+        <c:axId val="68657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2095,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254880000"/>
+        <c:crossAx val="68630400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2113,7 +2109,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2373,11 +2369,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100611968"/>
-        <c:axId val="100630528"/>
+        <c:axId val="68676224"/>
+        <c:axId val="70390528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100611968"/>
+        <c:axId val="68676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,14 +2448,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100630528"/>
+        <c:crossAx val="70390528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100630528"/>
+        <c:axId val="70390528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100611968"/>
+        <c:crossAx val="68676224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2612,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2876,11 +2872,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100689024"/>
-        <c:axId val="100690944"/>
+        <c:axId val="70436736"/>
+        <c:axId val="70778880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100689024"/>
+        <c:axId val="70436736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,14 +2951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100690944"/>
+        <c:crossAx val="70778880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100690944"/>
+        <c:axId val="70778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100689024"/>
+        <c:crossAx val="70436736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,7 +3115,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3245,11 +3241,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="100707328"/>
-        <c:axId val="100725888"/>
+        <c:axId val="70795264"/>
+        <c:axId val="70797184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100707328"/>
+        <c:axId val="70795264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,14 +3282,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100725888"/>
+        <c:crossAx val="70797184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100725888"/>
+        <c:axId val="70797184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3320,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100707328"/>
+        <c:crossAx val="70795264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3337,7 +3333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3448,25 +3444,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.615384615384615</c:v>
+                  <c:v>39.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>49.019607843137251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.416666666666668</c:v>
+                  <c:v>56.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.75268817204301</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.810810810810811</c:v>
+                  <c:v>65.573770491803288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.95890410958904</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3597,11 +3593,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100794368"/>
-        <c:axId val="100796288"/>
+        <c:axId val="70894336"/>
+        <c:axId val="70896256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100794368"/>
+        <c:axId val="70894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,14 +3672,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100796288"/>
+        <c:crossAx val="70896256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100796288"/>
+        <c:axId val="70896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,7 +3763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100794368"/>
+        <c:crossAx val="70894336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3840,7 +3836,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4100,11 +4096,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100822016"/>
-        <c:axId val="100844672"/>
+        <c:axId val="70938624"/>
+        <c:axId val="70940544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100822016"/>
+        <c:axId val="70938624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,14 +4175,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100844672"/>
+        <c:crossAx val="70940544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100844672"/>
+        <c:axId val="70940544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,7 +4266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100822016"/>
+        <c:crossAx val="70938624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4343,7 +4339,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4483,11 +4479,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93201152"/>
-        <c:axId val="93203072"/>
+        <c:axId val="65510016"/>
+        <c:axId val="65520384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93201152"/>
+        <c:axId val="65510016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,14 +4506,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93203072"/>
+        <c:crossAx val="65520384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93203072"/>
+        <c:axId val="65520384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,7 +4538,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93201152"/>
+        <c:crossAx val="65510016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4555,7 +4551,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4695,11 +4691,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93544832"/>
-        <c:axId val="93546752"/>
+        <c:axId val="65538304"/>
+        <c:axId val="65565056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93544832"/>
+        <c:axId val="65538304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,16 +4716,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93546752"/>
+        <c:crossAx val="65565056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93546752"/>
+        <c:axId val="65565056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,23 +4748,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93544832"/>
+        <c:crossAx val="65538304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4907,11 +4906,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93588864"/>
-        <c:axId val="93603328"/>
+        <c:axId val="65586688"/>
+        <c:axId val="65588608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93588864"/>
+        <c:axId val="65586688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,16 +4931,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93603328"/>
+        <c:crossAx val="65588608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93603328"/>
+        <c:axId val="65588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,23 +4963,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93588864"/>
+        <c:crossAx val="65586688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5119,11 +5121,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93641728"/>
-        <c:axId val="93648000"/>
+        <c:axId val="65655936"/>
+        <c:axId val="65657856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93641728"/>
+        <c:axId val="65655936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5147,14 +5149,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93648000"/>
+        <c:crossAx val="65657856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93648000"/>
+        <c:axId val="65657856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5182,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93641728"/>
+        <c:crossAx val="65655936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5194,7 +5196,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5334,11 +5336,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93690112"/>
-        <c:axId val="93786496"/>
+        <c:axId val="65765760"/>
+        <c:axId val="65767680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93690112"/>
+        <c:axId val="65765760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,14 +5364,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93786496"/>
+        <c:crossAx val="65767680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93786496"/>
+        <c:axId val="65767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5395,7 +5397,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93690112"/>
+        <c:crossAx val="65765760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5409,7 +5411,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5549,11 +5551,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93881856"/>
-        <c:axId val="93883776"/>
+        <c:axId val="65798144"/>
+        <c:axId val="65800064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93881856"/>
+        <c:axId val="65798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,14 +5579,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93883776"/>
+        <c:crossAx val="65800064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93883776"/>
+        <c:axId val="65800064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,7 +5612,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93881856"/>
+        <c:crossAx val="65798144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5624,7 +5626,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5764,11 +5766,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94253824"/>
-        <c:axId val="94255744"/>
+        <c:axId val="65821696"/>
+        <c:axId val="65827968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94253824"/>
+        <c:axId val="65821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5792,14 +5794,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94255744"/>
+        <c:crossAx val="65827968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94255744"/>
+        <c:axId val="65827968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5825,7 +5827,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94253824"/>
+        <c:crossAx val="65821696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5839,7 +5841,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5979,11 +5981,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100867456"/>
-        <c:axId val="136402432"/>
+        <c:axId val="65964288"/>
+        <c:axId val="65978752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100867456"/>
+        <c:axId val="65964288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,14 +6009,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136402432"/>
+        <c:crossAx val="65978752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136402432"/>
+        <c:axId val="65978752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6040,7 +6042,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100867456"/>
+        <c:crossAx val="65964288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6054,7 +6056,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7493,7 +7495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8637,8 +8639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8658,7 +8660,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8675,19 +8677,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8701,15 +8703,15 @@
         <v>0.13</v>
       </c>
       <c r="D4" s="3">
-        <f>LOG(B4)/LOG(2)+3</f>
+        <f t="shared" ref="D4:D10" si="0">LOG(B4)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f>B4/C4*50</f>
+        <f t="shared" ref="E4:E10" si="1">B4/C4*50</f>
         <v>96.153846153846146</v>
       </c>
       <c r="F4" s="8">
-        <f>B4/G4*50</f>
+        <f t="shared" ref="F4:F10" si="2">B4/G4*50</f>
         <v>31.25</v>
       </c>
       <c r="G4" s="4">
@@ -8727,15 +8729,15 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="3">
-        <f>LOG(B5)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <f>B5/C5*50</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F5" s="8">
-        <f>B5/G5*50</f>
+        <f t="shared" si="2"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G5" s="4">
@@ -8753,15 +8755,15 @@
         <v>0.49</v>
       </c>
       <c r="D6" s="3">
-        <f>LOG(B6)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" s="8">
-        <f>B6/C6*50</f>
+        <f t="shared" si="1"/>
         <v>102.04081632653062</v>
       </c>
       <c r="F6" s="8">
-        <f>B6/G6*50</f>
+        <f t="shared" si="2"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G6" s="4">
@@ -8779,15 +8781,15 @@
         <v>0.93</v>
       </c>
       <c r="D7" s="3">
-        <f>LOG(B7)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="8">
-        <f>B7/C7*50</f>
+        <f t="shared" si="1"/>
         <v>107.5268817204301</v>
       </c>
       <c r="F7" s="8">
-        <f>B7/G7*50</f>
+        <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
       <c r="G7" s="4">
@@ -8805,15 +8807,15 @@
         <v>1.8</v>
       </c>
       <c r="D8" s="3">
-        <f>LOG(B8)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f>B8/C8*50</f>
+        <f t="shared" si="1"/>
         <v>111.11111111111111</v>
       </c>
       <c r="F8" s="8">
-        <f>B8/G8*50</f>
+        <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
       <c r="G8" s="4">
@@ -8831,15 +8833,15 @@
         <v>3.6</v>
       </c>
       <c r="D9" s="3">
-        <f>LOG(B9)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <f>B9/C9*50</f>
+        <f t="shared" si="1"/>
         <v>111.11111111111111</v>
       </c>
       <c r="F9" s="8">
-        <f>B9/G9*50</f>
+        <f t="shared" si="2"/>
         <v>36.363636363636367</v>
       </c>
       <c r="G9" s="4">
@@ -8857,15 +8859,15 @@
         <v>7.1</v>
       </c>
       <c r="D10" s="3">
-        <f>LOG(B10)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f>B10/C10*50</f>
+        <f t="shared" si="1"/>
         <v>112.67605633802818</v>
       </c>
       <c r="F10" s="8">
-        <f>B10/G10*50</f>
+        <f t="shared" si="2"/>
         <v>36.363636363636367</v>
       </c>
       <c r="G10" s="4">
@@ -8900,7 +8902,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8923,13 +8925,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8943,15 +8945,15 @@
         <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <f>LOG(B18)/LOG(2)+3</f>
+        <f t="shared" ref="D18:D24" si="3">LOG(B18)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E18" s="8">
-        <f>B18/C18*50</f>
+        <f t="shared" ref="E18:E24" si="4">B18/C18*50</f>
         <v>15.625</v>
       </c>
       <c r="F18" s="8">
-        <f>B18/G18*50</f>
+        <f t="shared" ref="F18:F24" si="5">B18/G18*50</f>
         <v>3.125</v>
       </c>
       <c r="G18" s="4">
@@ -8969,15 +8971,15 @@
         <v>1.5</v>
       </c>
       <c r="D19" s="3">
-        <f>LOG(B19)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E19" s="8">
-        <f>B19/C19*50</f>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F19" s="8">
-        <f>B19/G19*50</f>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712</v>
       </c>
       <c r="G19" s="4">
@@ -8995,15 +8997,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <f>LOG(B20)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E20" s="8">
-        <f>B20/C20*50</f>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F20" s="8">
-        <f>B20/G20*50</f>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="G20" s="4">
@@ -9021,15 +9023,15 @@
         <v>6</v>
       </c>
       <c r="D21" s="3">
-        <f>LOG(B21)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E21" s="8">
-        <f>B21/C21*50</f>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F21" s="8">
-        <f>B21/G21*50</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="G21" s="4">
@@ -9047,15 +9049,15 @@
         <v>12</v>
       </c>
       <c r="D22" s="3">
-        <f>LOG(B22)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E22" s="8">
-        <f>B22/C22*50</f>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F22" s="8">
-        <f>B22/G22*50</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="G22" s="4">
@@ -9073,15 +9075,15 @@
         <v>23</v>
       </c>
       <c r="D23" s="3">
-        <f>LOG(B23)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E23" s="8">
-        <f>B23/C23*50</f>
+        <f t="shared" si="4"/>
         <v>17.391304347826086</v>
       </c>
       <c r="F23" s="8">
-        <f>B23/G23*50</f>
+        <f t="shared" si="5"/>
         <v>3.4482758620689653</v>
       </c>
       <c r="G23" s="4">
@@ -9099,15 +9101,15 @@
         <v>46</v>
       </c>
       <c r="D24" s="3">
-        <f>LOG(B24)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E24" s="8">
-        <f>B24/C24*50</f>
+        <f t="shared" si="4"/>
         <v>17.391304347826086</v>
       </c>
       <c r="F24" s="8">
-        <f>B24/G24*50</f>
+        <f t="shared" si="5"/>
         <v>3.4334763948497855</v>
       </c>
       <c r="G24" s="4">
@@ -9127,7 +9129,7 @@
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -9151,8 +9153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9164,13 +9166,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>76</v>
@@ -9189,19 +9191,19 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9215,15 +9217,15 @@
         <v>0.94</v>
       </c>
       <c r="D4" s="3">
-        <f>LOG(B4)/LOG(2)+3</f>
+        <f t="shared" ref="D4:D10" si="0">LOG(B4)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f>B4/C4*50</f>
+        <f t="shared" ref="E4:E10" si="1">B4/C4*50</f>
         <v>13.297872340425531</v>
       </c>
       <c r="F4" s="8">
-        <f>B4/G4*50</f>
+        <f t="shared" ref="F4:F10" si="2">B4/G4*50</f>
         <v>15.625</v>
       </c>
       <c r="G4" s="4">
@@ -9241,15 +9243,15 @@
         <v>1.69</v>
       </c>
       <c r="D5" s="3">
-        <f>LOG(B5)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <f>B5/C5*50</f>
+        <f t="shared" si="1"/>
         <v>14.792899408284024</v>
       </c>
       <c r="F5" s="8">
-        <f>B5/G5*50</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G5" s="4">
@@ -9267,15 +9269,15 @@
         <v>3.16</v>
       </c>
       <c r="D6" s="3">
-        <f>LOG(B6)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" s="8">
-        <f>B6/C6*50</f>
+        <f t="shared" si="1"/>
         <v>15.822784810126581</v>
       </c>
       <c r="F6" s="8">
-        <f>B6/G6*50</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G6" s="4">
@@ -9293,15 +9295,15 @@
         <v>6.15</v>
       </c>
       <c r="D7" s="3">
-        <f>LOG(B7)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="8">
-        <f>B7/C7*50</f>
+        <f t="shared" si="1"/>
         <v>16.260162601626014</v>
       </c>
       <c r="F7" s="8">
-        <f>B7/G7*50</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G7" s="4">
@@ -9319,15 +9321,15 @@
         <v>12</v>
       </c>
       <c r="D8" s="3">
-        <f>LOG(B8)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f>B8/C8*50</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F8" s="8">
-        <f>B8/G8*50</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G8" s="4">
@@ -9345,15 +9347,15 @@
         <v>24</v>
       </c>
       <c r="D9" s="3">
-        <f>LOG(B9)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <f>B9/C9*50</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F9" s="8">
-        <f>B9/G9*50</f>
+        <f t="shared" si="2"/>
         <v>17.391304347826086</v>
       </c>
       <c r="G9" s="4">
@@ -9371,15 +9373,15 @@
         <v>47.4</v>
       </c>
       <c r="D10" s="3">
-        <f>LOG(B10)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f>B10/C10*50</f>
+        <f t="shared" si="1"/>
         <v>16.877637130801688</v>
       </c>
       <c r="F10" s="8">
-        <f>B10/G10*50</f>
+        <f t="shared" si="2"/>
         <v>17.391304347826086</v>
       </c>
       <c r="G10" s="4">
@@ -9388,7 +9390,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>86</v>
@@ -9399,19 +9401,19 @@
     </row>
     <row r="14" spans="1:13" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9426,19 +9428,19 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9452,15 +9454,15 @@
         <v>1.3</v>
       </c>
       <c r="D17" s="3">
-        <f>LOG(B17)/LOG(2)+3</f>
+        <f t="shared" ref="D17:D23" si="3">LOG(B17)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E17" s="8">
-        <f>B17/C17*50</f>
+        <f t="shared" ref="E17:E23" si="4">B17/C17*50</f>
         <v>9.615384615384615</v>
       </c>
       <c r="F17" s="8">
-        <f>B17/G17*50</f>
+        <f t="shared" ref="F17:F23" si="5">B17/G17*50</f>
         <v>96.153846153846146</v>
       </c>
       <c r="G17" s="4">
@@ -9478,15 +9480,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D18" s="3">
-        <f>LOG(B18)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E18" s="8">
-        <f>B18/C18*50</f>
+        <f t="shared" si="4"/>
         <v>10.869565217391305</v>
       </c>
       <c r="F18" s="8">
-        <f>B18/G18*50</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G18" s="4">
@@ -9504,15 +9506,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D19" s="3">
-        <f>LOG(B19)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E19" s="8">
-        <f>B19/C19*50</f>
+        <f t="shared" si="4"/>
         <v>11.363636363636363</v>
       </c>
       <c r="F19" s="8">
-        <f>B19/G19*50</f>
+        <f t="shared" si="5"/>
         <v>102.04081632653062</v>
       </c>
       <c r="G19" s="4">
@@ -9530,15 +9532,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D20" s="3">
-        <f>LOG(B20)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E20" s="8">
-        <f>B20/C20*50</f>
+        <f t="shared" si="4"/>
         <v>11.494252873563219</v>
       </c>
       <c r="F20" s="8">
-        <f>B20/G20*50</f>
+        <f t="shared" si="5"/>
         <v>107.5268817204301</v>
       </c>
       <c r="G20" s="4">
@@ -9556,15 +9558,15 @@
         <v>17</v>
       </c>
       <c r="D21" s="3">
-        <f>LOG(B21)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E21" s="8">
-        <f>B21/C21*50</f>
+        <f t="shared" si="4"/>
         <v>11.76470588235294</v>
       </c>
       <c r="F21" s="8">
-        <f>B21/G21*50</f>
+        <f t="shared" si="5"/>
         <v>111.11111111111111</v>
       </c>
       <c r="G21" s="4">
@@ -9582,15 +9584,15 @@
         <v>34</v>
       </c>
       <c r="D22" s="3">
-        <f>LOG(B22)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E22" s="8">
-        <f>B22/C22*50</f>
+        <f t="shared" si="4"/>
         <v>11.76470588235294</v>
       </c>
       <c r="F22" s="8">
-        <f>B22/G22*50</f>
+        <f t="shared" si="5"/>
         <v>111.11111111111111</v>
       </c>
       <c r="G22" s="4">
@@ -9608,15 +9610,15 @@
         <v>67</v>
       </c>
       <c r="D23" s="3">
-        <f>LOG(B23)/LOG(2)+3</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E23" s="8">
-        <f>B23/C23*50</f>
+        <f t="shared" si="4"/>
         <v>11.940298507462686</v>
       </c>
       <c r="F23" s="8">
-        <f>B23/G23*50</f>
+        <f t="shared" si="5"/>
         <v>112.67605633802818</v>
       </c>
       <c r="G23" s="4">
@@ -9625,7 +9627,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="K24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
         <v>86</v>
@@ -9636,13 +9638,13 @@
     </row>
     <row r="27" spans="1:13" ht="40.5">
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>76</v>
@@ -9661,19 +9663,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9687,15 +9689,15 @@
         <v>1.26</v>
       </c>
       <c r="D30" s="3">
-        <f>LOG(B30)/LOG(2)+3</f>
+        <f t="shared" ref="D30:D36" si="6">LOG(B30)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E30" s="8">
-        <f>B30/C30*50</f>
+        <f t="shared" ref="E30:E36" si="7">B30/C30*50</f>
         <v>9.9206349206349209</v>
       </c>
       <c r="F30" s="8">
-        <f>B30/G30*50</f>
+        <f t="shared" ref="F30:F36" si="8">B30/G30*50</f>
         <v>13.297872340425531</v>
       </c>
       <c r="G30" s="4">
@@ -9713,15 +9715,15 @@
         <v>2.36</v>
       </c>
       <c r="D31" s="3">
-        <f>LOG(B31)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E31" s="8">
-        <f>B31/C31*50</f>
+        <f t="shared" si="7"/>
         <v>10.593220338983052</v>
       </c>
       <c r="F31" s="8">
-        <f>B31/G31*50</f>
+        <f t="shared" si="8"/>
         <v>14.792899408284024</v>
       </c>
       <c r="G31" s="4">
@@ -9739,15 +9741,15 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D32" s="3">
-        <f>LOG(B32)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E32" s="8">
-        <f>B32/C32*50</f>
+        <f t="shared" si="7"/>
         <v>11.389521640091118</v>
       </c>
       <c r="F32" s="8">
-        <f>B32/G32*50</f>
+        <f t="shared" si="8"/>
         <v>15.822784810126581</v>
       </c>
       <c r="G32" s="4">
@@ -9765,15 +9767,15 @@
         <v>8.57</v>
       </c>
       <c r="D33" s="3">
-        <f>LOG(B33)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E33" s="8">
-        <f>B33/C33*50</f>
+        <f t="shared" si="7"/>
         <v>11.668611435239207</v>
       </c>
       <c r="F33" s="8">
-        <f>B33/G33*50</f>
+        <f t="shared" si="8"/>
         <v>16.260162601626014</v>
       </c>
       <c r="G33" s="4">
@@ -9791,15 +9793,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="D34" s="3">
-        <f>LOG(B34)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E34" s="8">
-        <f>B34/C34*50</f>
+        <f t="shared" si="7"/>
         <v>11.834319526627219</v>
       </c>
       <c r="F34" s="8">
-        <f>B34/G34*50</f>
+        <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G34" s="4">
@@ -9817,15 +9819,15 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D35" s="3">
-        <f>LOG(B35)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E35" s="8">
-        <f>B35/C35*50</f>
+        <f t="shared" si="7"/>
         <v>11.869436201780415</v>
       </c>
       <c r="F35" s="8">
-        <f>B35/G35*50</f>
+        <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G35" s="4">
@@ -9843,15 +9845,15 @@
         <v>66.7</v>
       </c>
       <c r="D36" s="3">
-        <f>LOG(B36)/LOG(2)+3</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E36" s="8">
-        <f>B36/C36*50</f>
+        <f t="shared" si="7"/>
         <v>11.994002998500749</v>
       </c>
       <c r="F36" s="8">
-        <f>B36/G36*50</f>
+        <f t="shared" si="8"/>
         <v>16.877637130801688</v>
       </c>
       <c r="G36" s="4">
@@ -9871,19 +9873,19 @@
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="C40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -9898,19 +9900,19 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -9924,15 +9926,15 @@
         <v>0.12</v>
       </c>
       <c r="D43" s="3">
-        <f>LOG(B43)/LOG(2)+3</f>
+        <f t="shared" ref="D43:D49" si="9">LOG(B43)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E43" s="8">
-        <f>B43/C43*50</f>
+        <f t="shared" ref="E43:E49" si="10">B43/C43*50</f>
         <v>104.16666666666667</v>
       </c>
       <c r="F43" s="8">
-        <f>B43/G43*50</f>
+        <f t="shared" ref="F43:F49" si="11">B43/G43*50</f>
         <v>89.285714285714278</v>
       </c>
       <c r="G43" s="4">
@@ -9950,15 +9952,15 @@
         <v>0.19</v>
       </c>
       <c r="D44" s="3">
-        <f>LOG(B44)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E44" s="8">
-        <f>B44/C44*50</f>
+        <f t="shared" si="10"/>
         <v>131.57894736842107</v>
       </c>
       <c r="F44" s="8">
-        <f>B44/G44*50</f>
+        <f t="shared" si="11"/>
         <v>108.69565217391303</v>
       </c>
       <c r="G44" s="4">
@@ -9976,15 +9978,15 @@
         <v>0.34</v>
       </c>
       <c r="D45" s="3">
-        <f>LOG(B45)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E45" s="8">
-        <f>B45/C45*50</f>
+        <f t="shared" si="10"/>
         <v>147.05882352941174</v>
       </c>
       <c r="F45" s="8">
-        <f>B45/G45*50</f>
+        <f t="shared" si="11"/>
         <v>121.95121951219512</v>
       </c>
       <c r="G45" s="4">
@@ -10002,15 +10004,15 @@
         <v>0.61</v>
       </c>
       <c r="D46" s="3">
-        <f>LOG(B46)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E46" s="8">
-        <f>B46/C46*50</f>
+        <f t="shared" si="10"/>
         <v>163.9344262295082</v>
       </c>
       <c r="F46" s="8">
-        <f>B46/G46*50</f>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="G46" s="4">
@@ -10028,15 +10030,15 @@
         <v>1.2</v>
       </c>
       <c r="D47" s="3">
-        <f>LOG(B47)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E47" s="8">
-        <f>B47/C47*50</f>
+        <f t="shared" si="10"/>
         <v>166.66666666666669</v>
       </c>
       <c r="F47" s="8">
-        <f>B47/G47*50</f>
+        <f t="shared" si="11"/>
         <v>133.33333333333331</v>
       </c>
       <c r="G47" s="4">
@@ -10054,15 +10056,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D48" s="3">
-        <f>LOG(B48)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E48" s="8">
-        <f>B48/C48*50</f>
+        <f t="shared" si="10"/>
         <v>173.91304347826087</v>
       </c>
       <c r="F48" s="8">
-        <f>B48/G48*50</f>
+        <f t="shared" si="11"/>
         <v>137.93103448275863</v>
       </c>
       <c r="G48" s="4">
@@ -10080,15 +10082,15 @@
         <v>4.5</v>
       </c>
       <c r="D49" s="3">
-        <f>LOG(B49)/LOG(2)+3</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E49" s="8">
-        <f>B49/C49*50</f>
+        <f t="shared" si="10"/>
         <v>177.77777777777777</v>
       </c>
       <c r="F49" s="8">
-        <f>B49/G49*50</f>
+        <f t="shared" si="11"/>
         <v>140.35087719298244</v>
       </c>
       <c r="G49" s="4">
@@ -10097,7 +10099,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="L50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s">
         <v>86</v>
@@ -10108,7 +10110,7 @@
     </row>
     <row r="53" spans="1:14" ht="40.5">
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>77</v>
@@ -10120,14 +10122,14 @@
         <v>85</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="54">
+    <row r="55" spans="1:14" ht="27">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -10161,15 +10163,15 @@
         <v>0.12</v>
       </c>
       <c r="D56" s="3">
-        <f>LOG(B56)/LOG(2)+3</f>
+        <f t="shared" ref="D56:D62" si="12">LOG(B56)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E56" s="8">
-        <f>B56/C56*50</f>
+        <f t="shared" ref="E56:E62" si="13">B56/C56*50</f>
         <v>104.16666666666667</v>
       </c>
       <c r="F56" s="8">
-        <f>B56/G56*50</f>
+        <f t="shared" ref="F56:F62" si="14">B56/G56*50</f>
         <v>89.285714285714278</v>
       </c>
       <c r="G56" s="4">
@@ -10187,15 +10189,15 @@
         <v>0.19</v>
       </c>
       <c r="D57" s="3">
-        <f>LOG(B57)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E57" s="8">
-        <f>B57/C57*50</f>
+        <f t="shared" si="13"/>
         <v>131.57894736842107</v>
       </c>
       <c r="F57" s="8">
-        <f>B57/G57*50</f>
+        <f t="shared" si="14"/>
         <v>108.69565217391303</v>
       </c>
       <c r="G57" s="4">
@@ -10213,15 +10215,15 @@
         <v>0.35</v>
       </c>
       <c r="D58" s="3">
-        <f>LOG(B58)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E58" s="8">
-        <f>B58/C58*50</f>
+        <f t="shared" si="13"/>
         <v>142.85714285714286</v>
       </c>
       <c r="F58" s="8">
-        <f>B58/G58*50</f>
+        <f t="shared" si="14"/>
         <v>121.95121951219512</v>
       </c>
       <c r="G58" s="4">
@@ -10239,15 +10241,15 @@
         <v>0.66</v>
       </c>
       <c r="D59" s="3">
-        <f>LOG(B59)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E59" s="8">
-        <f>B59/C59*50</f>
+        <f t="shared" si="13"/>
         <v>151.5151515151515</v>
       </c>
       <c r="F59" s="8">
-        <f>B59/G59*50</f>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="G59" s="4">
@@ -10265,15 +10267,15 @@
         <v>1.3</v>
       </c>
       <c r="D60" s="3">
-        <f>LOG(B60)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E60" s="8">
-        <f>B60/C60*50</f>
+        <f t="shared" si="13"/>
         <v>153.84615384615384</v>
       </c>
       <c r="F60" s="8">
-        <f>B60/G60*50</f>
+        <f t="shared" si="14"/>
         <v>133.33333333333331</v>
       </c>
       <c r="G60" s="4">
@@ -10291,15 +10293,15 @@
         <v>2.6</v>
       </c>
       <c r="D61" s="3">
-        <f>LOG(B61)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E61" s="8">
-        <f>B61/C61*50</f>
+        <f t="shared" si="13"/>
         <v>153.84615384615384</v>
       </c>
       <c r="F61" s="8">
-        <f>B61/G61*50</f>
+        <f t="shared" si="14"/>
         <v>137.93103448275863</v>
       </c>
       <c r="G61" s="4">
@@ -10317,15 +10319,15 @@
         <v>5.2</v>
       </c>
       <c r="D62" s="3">
-        <f>LOG(B62)/LOG(2)+3</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E62" s="8">
-        <f>B62/C62*50</f>
+        <f t="shared" si="13"/>
         <v>153.84615384615384</v>
       </c>
       <c r="F62" s="8">
-        <f>B62/G62*50</f>
+        <f t="shared" si="14"/>
         <v>140.35087719298244</v>
       </c>
       <c r="G62" s="4">
@@ -10334,7 +10336,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="L63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M63" t="s">
         <v>86</v>
@@ -10345,7 +10347,7 @@
     </row>
     <row r="66" spans="1:14" ht="40.5">
       <c r="C66" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>83</v>
@@ -10362,7 +10364,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:14" ht="54">
+    <row r="68" spans="1:14" ht="27">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -10396,15 +10398,15 @@
         <v>0.94</v>
       </c>
       <c r="D69" s="3">
-        <f>LOG(B69)/LOG(2)+3</f>
+        <f t="shared" ref="D69:D75" si="15">LOG(B69)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E69" s="8">
-        <f>B69/C69*50</f>
+        <f t="shared" ref="E69:E75" si="16">B69/C69*50</f>
         <v>13.297872340425531</v>
       </c>
       <c r="F69" s="8">
-        <f>B69/G69*50</f>
+        <f t="shared" ref="F69:F75" si="17">B69/G69*50</f>
         <v>13.297872340425531</v>
       </c>
       <c r="G69" s="4">
@@ -10422,15 +10424,15 @@
         <v>1.65</v>
       </c>
       <c r="D70" s="3">
-        <f>LOG(B70)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="E70" s="8">
-        <f>B70/C70*50</f>
+        <f t="shared" si="16"/>
         <v>15.151515151515152</v>
       </c>
       <c r="F70" s="8">
-        <f>B70/G70*50</f>
+        <f t="shared" si="17"/>
         <v>14.792899408284024</v>
       </c>
       <c r="G70" s="4">
@@ -10448,15 +10450,15 @@
         <v>3.11</v>
       </c>
       <c r="D71" s="3">
-        <f>LOG(B71)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="E71" s="8">
-        <f>B71/C71*50</f>
+        <f t="shared" si="16"/>
         <v>16.077170418006432</v>
       </c>
       <c r="F71" s="8">
-        <f>B71/G71*50</f>
+        <f t="shared" si="17"/>
         <v>15.822784810126581</v>
       </c>
       <c r="G71" s="4">
@@ -10474,15 +10476,15 @@
         <v>5.93</v>
       </c>
       <c r="D72" s="3">
-        <f>LOG(B72)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="E72" s="8">
-        <f>B72/C72*50</f>
+        <f t="shared" si="16"/>
         <v>16.863406408094438</v>
       </c>
       <c r="F72" s="8">
-        <f>B72/G72*50</f>
+        <f t="shared" si="17"/>
         <v>16.260162601626014</v>
       </c>
       <c r="G72" s="4">
@@ -10500,15 +10502,15 @@
         <v>12</v>
       </c>
       <c r="D73" s="3">
-        <f>LOG(B73)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="E73" s="8">
-        <f>B73/C73*50</f>
+        <f t="shared" si="16"/>
         <v>16.666666666666664</v>
       </c>
       <c r="F73" s="8">
-        <f>B73/G73*50</f>
+        <f t="shared" si="17"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G73" s="4">
@@ -10526,15 +10528,15 @@
         <v>23</v>
       </c>
       <c r="D74" s="3">
-        <f>LOG(B74)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="E74" s="8">
-        <f>B74/C74*50</f>
+        <f t="shared" si="16"/>
         <v>17.391304347826086</v>
       </c>
       <c r="F74" s="8">
-        <f>B74/G74*50</f>
+        <f t="shared" si="17"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G74" s="4">
@@ -10552,15 +10554,15 @@
         <v>45.5</v>
       </c>
       <c r="D75" s="3">
-        <f>LOG(B75)/LOG(2)+3</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="E75" s="8">
-        <f>B75/C75*50</f>
+        <f t="shared" si="16"/>
         <v>17.582417582417584</v>
       </c>
       <c r="F75" s="8">
-        <f>B75/G75*50</f>
+        <f t="shared" si="17"/>
         <v>16.877637130801688</v>
       </c>
       <c r="G75" s="4">
@@ -10569,7 +10571,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="L76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M76" t="s">
         <v>86</v>
@@ -10580,7 +10582,7 @@
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
       <c r="A79" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -10605,8 +10607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11347,8 +11349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11610,9 +11612,7 @@
       <c r="E15" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>125</v>
-      </c>
+      <c r="F15" s="25"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:14">
@@ -11650,7 +11650,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" s="4">
-        <v>1.3</v>
+        <v>0.32</v>
       </c>
       <c r="D18" s="3">
         <f>LOG(B18)/LOG(2)+3</f>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
-        <v>9.615384615384615</v>
+        <v>39.0625</v>
       </c>
       <c r="F18" s="8">
         <f>B18/G18*50</f>
@@ -11676,7 +11676,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="4">
-        <v>2.5</v>
+        <v>0.51</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>49.019607843137251</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>4.8</v>
+        <v>0.88</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="4"/>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" si="3"/>
-        <v>10.416666666666668</v>
+        <v>56.81818181818182</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="5"/>
@@ -11728,7 +11728,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>9.3000000000000007</v>
+        <v>1.6</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
@@ -11736,7 +11736,7 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" si="3"/>
-        <v>10.75268817204301</v>
+        <v>62.5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="5"/>
@@ -11754,7 +11754,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>19</v>
+        <v>3.2</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="4"/>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" si="3"/>
-        <v>10.526315789473683</v>
+        <v>62.5</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="5"/>
@@ -11780,7 +11780,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>37</v>
+        <v>6.1</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="4"/>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" si="3"/>
-        <v>10.810810810810811</v>
+        <v>65.573770491803288</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="5"/>
@@ -11806,7 +11806,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="4"/>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" si="3"/>
-        <v>10.95890410958904</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="5"/>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="6.问题规模与时间效率的关系-常量" sheetId="5" r:id="rId6"/>
     <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>表1.1</t>
   </si>
@@ -123,10 +123,6 @@
     <t>表2.2</t>
   </si>
   <si>
-    <t>问题规模
-(N M)</t>
-  </si>
-  <si>
     <t>图2.2</t>
   </si>
   <si>
@@ -180,14 +176,6 @@
     <t>GTS250</t>
   </si>
   <si>
-    <t>GPU多线程初步 结论： 
-1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
-2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
-3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
-前者提升240%（gtx670）、-70%（gts250）； 
-4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，效率降低50%（gts250），为了避免误差确保CPU测试环境不含CUDA；</t>
-  </si>
-  <si>
     <t>表4.1</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
   </si>
   <si>
     <t>表5.1</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>图5.1</t>
@@ -389,21 +374,6 @@
   </si>
   <si>
     <t>GTS250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU常量显存所有线程共享通信优化 结论： 
-1）时间效率，与问题规模弱相关。定量：问题规模变化，时间效率以2%的增速缓慢提升； 
-2）时间效率，在都合并的条件下，与GPU性能有关，GPU性能越好，效率越高。定量：
-'gtx670'  vs 'gts250' = 25:10=2.5， 前者是后者的2.5倍； 
-3）时间效率，常量与非常量对比，常量显存效率下降。定量：25:102=0.2，10:17=0.6， 
-前者提升-80%（gtx670）、-40%（gts250）； 
-4）时间效率，GPU与CPU对比，效率小幅提升。定量：GPU VS CPU = 25:10=2.5，10:12=0.8， 
-前者提升150%（gtx670）、-20%（gts250）；
-5）时间效率，内存显存之间，时间效率即带宽随数据规模持续增长；
-gtx670: 32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
-gts250: 32K耗时0.04ms带宽0.8GB/s，2M耗时0.69ms带宽2.9GB/s，128M耗时38ms带宽3.4GB/s;
-数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -543,31 +513,60 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>图5.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题规模
+(N 百万)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU线程块内部所有线程共享通信 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
+2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
+前者是后者的3倍； 
+3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
+提升80%（gtx670）、270%（gts250）； 
+4）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
+提升1900%（gtx670）、430%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU常量显存所有线程共享通信优化 结论： 
+1）时间效率，与问题规模弱相关。定量：问题规模变化，时间效率以2%的增速缓慢提升； 
+2）时间效率，在都合并的条件下，与GPU性能有关，GPU性能越好，效率越高。定量：
+'gtx670'  vs 'gts250' = 25:10=2.5， 前者是后者的2.5倍； 
+3）时间效率，常量与非常量对比，常量显存效率下降。定量：25:102=0.2，10:17=0.6， 
+提升-80%（gtx670）、-40%（gts250）； 
+4）时间效率，GPU与CPU对比，效率小幅提升。定量：GPU VS CPU = 25:10=2.5，10:12=0.8， 
+提升150%（gtx670）、-20%（gts250）；
+5）时间效率，内存显存之间，时间效率即带宽随数据规模持续增长；
+gtx670: 32K耗时0.02ms带宽1.7GB/s，2M耗时0.36ms带宽5.6GB/s，128M耗时34ms带宽3.8GB/s;
+gts250: 32K耗时0.04ms带宽0.8GB/s，2M耗时0.69ms带宽2.9GB/s，128M耗时38ms带宽3.4GB/s;
+数据量低于2k时，时间恒定不变，0.015ms(gtx670)，0.027ms(gts250);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GPU结构体拆分优化 结论： 
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
 2）时间效率，在都是结构体拆分的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 前者是后者的6倍； 
 3）时间效率，拆分与不拆分对比，效率小幅度提升。定量：x:125=y，16.3:16.7=0.98， 
-前者提升z%（gtx670）、-2%（gts250）；
+提升z%（gtx670）、-2%（gts250）；
 4）时间效率，排序与非排序对比，效率小幅度提升。定量：164:125=1.3，11.7:16.3=0.7， 
-前者提升30%（gtx670）、-30%（gts250）； 
+提升30%（gtx670）、-30%（gts250）； 
 5）时间效率，交替与非交替对比，效率小幅度提升。定量：152:125=1.2，16.9:16.3=1.04， 
 前者提升20%（gtx670）、4%（gts250）；
 6）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>图5.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU线程块内部所有线程共享通信 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
-2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = x:63=y， 
-前者是后者的y倍； 
-3）时间效率，共享与非共享对比，效率翻倍提升。定量：x:102=x，63:17=3.7， 
-前者提升x%（gtx670）、270%（gts250）； 
-4）时间效率，GPU VS CPU = x:10=x，63:12=5.3， 
-前者提升x%（gtx670）、430%（gts250）；</t>
+    <t>GPU多线程初步 结论： 
+1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
+2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
+3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
+提升240%（gtx670）、-70%（gts250）； 
+4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，效率降低50%（gts250），为了避免误差确保CPU测试环境不含CUDA；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -975,11 +974,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65250816"/>
-        <c:axId val="65254912"/>
+        <c:axId val="157713536"/>
+        <c:axId val="157715456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65250816"/>
+        <c:axId val="157713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,16 +999,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65254912"/>
+        <c:crossAx val="157715456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65254912"/>
+        <c:axId val="157715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,23 +1031,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65250816"/>
+        <c:crossAx val="157713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1187,11 +1189,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="66008576"/>
-        <c:axId val="66010496"/>
+        <c:axId val="164727808"/>
+        <c:axId val="164758656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66008576"/>
+        <c:axId val="164727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,14 +1217,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66010496"/>
+        <c:crossAx val="164758656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66010496"/>
+        <c:axId val="164758656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1250,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66008576"/>
+        <c:crossAx val="164727808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1264,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1402,11 +1404,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="67597056"/>
-        <c:axId val="67598976"/>
+        <c:axId val="164788480"/>
+        <c:axId val="164794752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67597056"/>
+        <c:axId val="164788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,14 +1432,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67598976"/>
+        <c:crossAx val="164794752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67598976"/>
+        <c:axId val="164794752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1465,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67597056"/>
+        <c:crossAx val="164788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,7 +1479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1604,11 +1606,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68578688"/>
-        <c:axId val="68580864"/>
+        <c:axId val="165164160"/>
+        <c:axId val="165166080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68578688"/>
+        <c:axId val="165164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,14 +1634,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68580864"/>
+        <c:crossAx val="165166080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68580864"/>
+        <c:axId val="165166080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1667,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68578688"/>
+        <c:crossAx val="165164160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,7 +1681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1819,11 +1821,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68594304"/>
-        <c:axId val="68616960"/>
+        <c:axId val="165212544"/>
+        <c:axId val="165214464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68594304"/>
+        <c:axId val="165212544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,14 +1849,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68616960"/>
+        <c:crossAx val="165214464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68616960"/>
+        <c:axId val="165214464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1882,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68594304"/>
+        <c:crossAx val="165212544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,7 +1896,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2034,11 +2036,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68630400"/>
-        <c:axId val="68657152"/>
+        <c:axId val="165240192"/>
+        <c:axId val="165254656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68630400"/>
+        <c:axId val="165240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,14 +2064,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68657152"/>
+        <c:crossAx val="165254656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68657152"/>
+        <c:axId val="165254656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2097,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68630400"/>
+        <c:crossAx val="165240192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2111,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2369,11 +2371,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="68676224"/>
-        <c:axId val="70390528"/>
+        <c:axId val="171291008"/>
+        <c:axId val="171292928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68676224"/>
+        <c:axId val="171291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,14 +2450,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70390528"/>
+        <c:crossAx val="171292928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70390528"/>
+        <c:axId val="171292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68676224"/>
+        <c:crossAx val="171291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,7 +2614,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2872,11 +2874,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70436736"/>
-        <c:axId val="70778880"/>
+        <c:axId val="170868096"/>
+        <c:axId val="170911232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70436736"/>
+        <c:axId val="170868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,14 +2953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70778880"/>
+        <c:crossAx val="170911232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70778880"/>
+        <c:axId val="170911232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3044,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70436736"/>
+        <c:crossAx val="170868096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3115,7 +3117,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3241,11 +3243,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="70795264"/>
-        <c:axId val="70797184"/>
+        <c:axId val="171320832"/>
+        <c:axId val="171322752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70795264"/>
+        <c:axId val="171320832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,14 +3284,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70797184"/>
+        <c:crossAx val="171322752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70797184"/>
+        <c:axId val="171322752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3322,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70795264"/>
+        <c:crossAx val="171320832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,7 +3335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3593,11 +3595,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70894336"/>
-        <c:axId val="70896256"/>
+        <c:axId val="171473152"/>
+        <c:axId val="171483520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70894336"/>
+        <c:axId val="171473152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,14 +3674,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70896256"/>
+        <c:crossAx val="171483520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70896256"/>
+        <c:axId val="171483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70894336"/>
+        <c:crossAx val="171473152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,7 +3838,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3947,25 +3949,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>178.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
+                  <c:v>172.41379310344828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
+                  <c:v>185.18518518518516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,11 +4098,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70938624"/>
-        <c:axId val="70940544"/>
+        <c:axId val="178349568"/>
+        <c:axId val="178351488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70938624"/>
+        <c:axId val="178349568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,14 +4177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70940544"/>
+        <c:crossAx val="178351488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70940544"/>
+        <c:axId val="178351488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70938624"/>
+        <c:crossAx val="178349568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4339,7 +4341,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4479,11 +4481,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65510016"/>
-        <c:axId val="65520384"/>
+        <c:axId val="157761920"/>
+        <c:axId val="157763840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65510016"/>
+        <c:axId val="157761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4504,16 +4506,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65520384"/>
+        <c:crossAx val="157763840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65520384"/>
+        <c:axId val="157763840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,23 +4538,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65510016"/>
+        <c:crossAx val="157761920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4691,11 +4696,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65538304"/>
-        <c:axId val="65565056"/>
+        <c:axId val="157966336"/>
+        <c:axId val="157968256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65538304"/>
+        <c:axId val="157966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,14 +4724,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65565056"/>
+        <c:crossAx val="157968256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65565056"/>
+        <c:axId val="157968256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,7 +4757,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65538304"/>
+        <c:crossAx val="157966336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4766,7 +4771,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4906,11 +4911,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65586688"/>
-        <c:axId val="65588608"/>
+        <c:axId val="158018560"/>
+        <c:axId val="158037120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65586688"/>
+        <c:axId val="158018560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4934,14 +4939,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65588608"/>
+        <c:crossAx val="158037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65588608"/>
+        <c:axId val="158037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4967,7 +4972,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65586688"/>
+        <c:crossAx val="158018560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4981,7 +4986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5121,11 +5126,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65655936"/>
-        <c:axId val="65657856"/>
+        <c:axId val="160578176"/>
+        <c:axId val="160592640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65655936"/>
+        <c:axId val="160578176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,14 +5154,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65657856"/>
+        <c:crossAx val="160592640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65657856"/>
+        <c:axId val="160592640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5182,7 +5187,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65655936"/>
+        <c:crossAx val="160578176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5196,7 +5201,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5336,11 +5341,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65765760"/>
-        <c:axId val="65767680"/>
+        <c:axId val="160618368"/>
+        <c:axId val="161153024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65765760"/>
+        <c:axId val="160618368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5364,14 +5369,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65767680"/>
+        <c:crossAx val="161153024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65767680"/>
+        <c:axId val="161153024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,7 +5402,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65765760"/>
+        <c:crossAx val="160618368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5411,7 +5416,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5551,11 +5556,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65798144"/>
-        <c:axId val="65800064"/>
+        <c:axId val="162948608"/>
+        <c:axId val="162950528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65798144"/>
+        <c:axId val="162948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5579,14 +5584,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65800064"/>
+        <c:crossAx val="162950528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65800064"/>
+        <c:axId val="162950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,7 +5617,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65798144"/>
+        <c:crossAx val="162948608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5626,7 +5631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5766,11 +5771,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65821696"/>
-        <c:axId val="65827968"/>
+        <c:axId val="163259136"/>
+        <c:axId val="163261056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65821696"/>
+        <c:axId val="163259136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5794,14 +5799,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65827968"/>
+        <c:crossAx val="163261056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65827968"/>
+        <c:axId val="163261056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,7 +5832,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65821696"/>
+        <c:crossAx val="163259136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5841,7 +5846,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5981,11 +5986,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65964288"/>
-        <c:axId val="65978752"/>
+        <c:axId val="164708352"/>
+        <c:axId val="164710272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65964288"/>
+        <c:axId val="164708352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6009,14 +6014,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65978752"/>
+        <c:crossAx val="164710272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65978752"/>
+        <c:axId val="164710272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6042,7 +6047,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65964288"/>
+        <c:crossAx val="164708352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6056,7 +6061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6954,7 +6959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6964,7 +6971,7 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
@@ -7496,7 +7503,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7775,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -7986,7 +7993,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="L26" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -7997,7 +8004,7 @@
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8120,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8133,13 +8140,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="54">
       <c r="C1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8156,19 +8163,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8364,24 +8371,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
         <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="54">
       <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8395,22 +8402,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8604,18 +8611,18 @@
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
       <c r="L25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
         <v>41</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8639,8 +8646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8654,13 +8661,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8677,19 +8684,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8885,24 +8892,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8916,22 +8923,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -9118,18 +9125,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -9153,12 +9160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
@@ -9166,16 +9174,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G1" s="25"/>
     </row>
@@ -9183,27 +9191,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="27">
+    <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9390,30 +9398,30 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9425,22 +9433,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9627,27 +9635,27 @@
     </row>
     <row r="24" spans="1:13">
       <c r="K24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5">
       <c r="C27" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27" s="25"/>
     </row>
@@ -9660,22 +9668,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9862,30 +9870,30 @@
     </row>
     <row r="37" spans="1:14">
       <c r="L37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="C40" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -9897,22 +9905,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -10099,30 +10107,30 @@
     </row>
     <row r="50" spans="1:14">
       <c r="L50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="40.5">
       <c r="C53" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -10134,22 +10142,22 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -10336,27 +10344,27 @@
     </row>
     <row r="63" spans="1:14">
       <c r="L63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="40.5">
       <c r="C66" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G66" s="25"/>
     </row>
@@ -10369,22 +10377,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -10571,13 +10579,13 @@
     </row>
     <row r="76" spans="1:14">
       <c r="L76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M76" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
@@ -10607,8 +10615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10621,13 +10629,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -10644,19 +10652,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10850,18 +10858,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -10875,22 +10883,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -11077,15 +11085,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -11124,7 +11132,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -11159,7 +11167,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -11194,7 +11202,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -11239,7 +11247,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -11274,7 +11282,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -11319,12 +11327,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -11349,12 +11357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
@@ -11362,17 +11371,15 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:14">
@@ -11387,19 +11394,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11410,7 +11417,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="4">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="D4" s="3">
         <f>LOG(B4)/LOG(2)+3</f>
@@ -11418,7 +11425,7 @@
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
-        <v>96.153846153846146</v>
+        <v>156.25</v>
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
@@ -11436,7 +11443,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
@@ -11444,7 +11451,7 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
@@ -11462,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -11470,7 +11477,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>102.04081632653062</v>
+        <v>172.41379310344828</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
@@ -11488,7 +11495,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -11496,7 +11503,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>107.5268817204301</v>
+        <v>185.18518518518516</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
@@ -11514,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -11522,7 +11529,7 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>111.11111111111111</v>
+        <v>200</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
@@ -11540,7 +11547,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -11548,7 +11555,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>111.11111111111111</v>
+        <v>200</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
@@ -11566,7 +11573,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -11574,7 +11581,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>112.67605633802818</v>
+        <v>200</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
@@ -11593,24 +11600,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -11624,22 +11631,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -11826,18 +11833,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -82,14 +82,6 @@
     <t>i7 3770K</t>
   </si>
   <si>
-    <t>CPU单线程 结论：
-1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，i7 3770K是4、i7 870是3； 
-2）时间效率，与CPU性能有关，'i7 3770k'  vs 'i7 870' = 4:3=1.33，
-前者提升约33%；
-3）时间效率，与程序编译配置有关，'release' vs 'debug' =4.2:2.6=1.62，
-提升60%（i7 3770k）、50%（i7 870）；</t>
-  </si>
-  <si>
     <t>备注：
 1）时间效率计算公式，时间效率=问题规模/时间 * 50；
 2）固定CPU和编译配置：CPU='i7 3770K'，编译配置='release'；</t>
@@ -567,6 +559,15 @@
 3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
 提升240%（gtx670）、-70%（gts250）； 
 4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，效率降低50%（gts250），为了避免误差确保CPU测试环境不含CUDA；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU单线程 结论：
+1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，i7 3770K是4、i7 870是3； 
+2）时间效率，与CPU性能有关，'i7 3770k'  vs 'i7 870' = 4:3=1.33，
+前者提升约33%；
+3）时间效率，与程序编译配置有关，'release' vs 'debug' =3.7:2.7=1.4，
+提升40%（i7 3770k）、50%（i7 870）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -974,11 +975,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="157713536"/>
-        <c:axId val="157715456"/>
+        <c:axId val="156730496"/>
+        <c:axId val="156732416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157713536"/>
+        <c:axId val="156730496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,14 +1003,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157715456"/>
+        <c:crossAx val="156732416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157715456"/>
+        <c:axId val="156732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1036,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157713536"/>
+        <c:crossAx val="156730496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1049,7 +1050,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1189,11 +1190,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="164727808"/>
-        <c:axId val="164758656"/>
+        <c:axId val="159091712"/>
+        <c:axId val="159126656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164727808"/>
+        <c:axId val="159091712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,17 +1215,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164758656"/>
+        <c:crossAx val="159126656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164758656"/>
+        <c:axId val="159126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,25 +1246,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164727808"/>
+        <c:crossAx val="159091712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1404,11 +1402,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="164788480"/>
-        <c:axId val="164794752"/>
+        <c:axId val="159152384"/>
+        <c:axId val="159158656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164788480"/>
+        <c:axId val="159152384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,17 +1427,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164794752"/>
+        <c:crossAx val="159158656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164794752"/>
+        <c:axId val="159158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,25 +1458,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164788480"/>
+        <c:crossAx val="159152384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1606,11 +1601,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="165164160"/>
-        <c:axId val="165166080"/>
+        <c:axId val="159200384"/>
+        <c:axId val="159202304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165164160"/>
+        <c:axId val="159200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,17 +1626,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165166080"/>
+        <c:crossAx val="159202304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165166080"/>
+        <c:axId val="159202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,25 +1657,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165164160"/>
+        <c:crossAx val="159200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1821,11 +1813,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="165212544"/>
-        <c:axId val="165214464"/>
+        <c:axId val="159244672"/>
+        <c:axId val="159246592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165212544"/>
+        <c:axId val="159244672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,17 +1838,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165214464"/>
+        <c:crossAx val="159246592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165214464"/>
+        <c:axId val="159246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,25 +1869,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165212544"/>
+        <c:crossAx val="159244672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2036,11 +2025,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="165240192"/>
-        <c:axId val="165254656"/>
+        <c:axId val="159608192"/>
+        <c:axId val="159622656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165240192"/>
+        <c:axId val="159608192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,17 +2050,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165254656"/>
+        <c:crossAx val="159622656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165254656"/>
+        <c:axId val="159622656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,25 +2081,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165240192"/>
+        <c:crossAx val="159608192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2371,11 +2357,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="171291008"/>
-        <c:axId val="171292928"/>
+        <c:axId val="163299712"/>
+        <c:axId val="163301632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171291008"/>
+        <c:axId val="163299712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2392,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2450,14 +2435,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171292928"/>
+        <c:crossAx val="163301632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171292928"/>
+        <c:axId val="163301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2487,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2541,7 +2525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171291008"/>
+        <c:crossAx val="163299712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,7 +2539,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2614,7 +2597,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2874,11 +2857,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="170868096"/>
-        <c:axId val="170911232"/>
+        <c:axId val="162876800"/>
+        <c:axId val="162911744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170868096"/>
+        <c:axId val="162876800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2953,14 +2935,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170911232"/>
+        <c:crossAx val="162911744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170911232"/>
+        <c:axId val="162911744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +2987,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3044,7 +3025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170868096"/>
+        <c:crossAx val="162876800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,7 +3039,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3117,7 +3097,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3243,11 +3223,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="171320832"/>
-        <c:axId val="171322752"/>
+        <c:axId val="163325440"/>
+        <c:axId val="163327360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171320832"/>
+        <c:axId val="163325440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,19 +3259,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171322752"/>
+        <c:crossAx val="163327360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171322752"/>
+        <c:axId val="163327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3318,24 +3297,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171320832"/>
+        <c:crossAx val="163325440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3595,11 +3572,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="171473152"/>
-        <c:axId val="171483520"/>
+        <c:axId val="163744000"/>
+        <c:axId val="163754368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171473152"/>
+        <c:axId val="163744000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,14 +3651,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171483520"/>
+        <c:crossAx val="163754368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171483520"/>
+        <c:axId val="163754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3742,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171473152"/>
+        <c:crossAx val="163744000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3838,7 +3815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4098,11 +4075,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="178349568"/>
-        <c:axId val="178351488"/>
+        <c:axId val="163800576"/>
+        <c:axId val="163802496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178349568"/>
+        <c:axId val="163800576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,14 +4154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178351488"/>
+        <c:crossAx val="163802496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178351488"/>
+        <c:axId val="163802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4245,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178349568"/>
+        <c:crossAx val="163800576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4341,7 +4318,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4392,25 +4369,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0404040404040407</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0816326530612246</c:v>
+                  <c:v>3.755868544600939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,11 +4458,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="157761920"/>
-        <c:axId val="157763840"/>
+        <c:axId val="156778880"/>
+        <c:axId val="156780800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157761920"/>
+        <c:axId val="156778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,14 +4486,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157763840"/>
+        <c:crossAx val="156780800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157763840"/>
+        <c:axId val="156780800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,7 +4519,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157761920"/>
+        <c:crossAx val="156778880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4556,7 +4533,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4610,19 +4587,19 @@
                   <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11.904761904761903</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.526315789473683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.256410256410255</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.666666666666668</c:v>
@@ -4668,25 +4645,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>3.6764705882352944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0404040404040407</c:v>
+                  <c:v>3.7037037037037033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0816326530612246</c:v>
+                  <c:v>3.755868544600939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4696,11 +4673,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="157966336"/>
-        <c:axId val="157968256"/>
+        <c:axId val="156856320"/>
+        <c:axId val="156858240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157966336"/>
+        <c:axId val="156856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,14 +4701,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157968256"/>
+        <c:crossAx val="156858240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157968256"/>
+        <c:axId val="156858240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4734,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157966336"/>
+        <c:crossAx val="156856320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,7 +4748,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4911,11 +4888,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158018560"/>
-        <c:axId val="158037120"/>
+        <c:axId val="157301760"/>
+        <c:axId val="157316224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158018560"/>
+        <c:axId val="157301760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,14 +4916,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158037120"/>
+        <c:crossAx val="157316224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158037120"/>
+        <c:axId val="157316224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,7 +4949,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158018560"/>
+        <c:crossAx val="157301760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4986,7 +4963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5126,11 +5103,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160578176"/>
-        <c:axId val="160592640"/>
+        <c:axId val="158476928"/>
+        <c:axId val="158491392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160578176"/>
+        <c:axId val="158476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,14 +5131,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160592640"/>
+        <c:crossAx val="158491392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160592640"/>
+        <c:axId val="158491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5164,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160578176"/>
+        <c:crossAx val="158476928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5201,7 +5178,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5316,19 +5293,19 @@
                   <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11.904761904761903</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.526315789473683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.256410256410255</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.666666666666668</c:v>
@@ -5341,11 +5318,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160618368"/>
-        <c:axId val="161153024"/>
+        <c:axId val="158517120"/>
+        <c:axId val="158531584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160618368"/>
+        <c:axId val="158517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,14 +5346,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161153024"/>
+        <c:crossAx val="158531584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161153024"/>
+        <c:axId val="158531584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5379,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160618368"/>
+        <c:crossAx val="158517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5416,7 +5393,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5556,11 +5533,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162948608"/>
-        <c:axId val="162950528"/>
+        <c:axId val="158619136"/>
+        <c:axId val="158621056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162948608"/>
+        <c:axId val="158619136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,17 +5558,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162950528"/>
+        <c:crossAx val="158621056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162950528"/>
+        <c:axId val="158621056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5613,25 +5589,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162948608"/>
+        <c:crossAx val="158619136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5771,11 +5745,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163259136"/>
-        <c:axId val="163261056"/>
+        <c:axId val="158671616"/>
+        <c:axId val="158673536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163259136"/>
+        <c:axId val="158671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5796,17 +5770,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163261056"/>
+        <c:crossAx val="158673536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163261056"/>
+        <c:axId val="158673536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,25 +5801,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163259136"/>
+        <c:crossAx val="158671616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5986,11 +5957,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="164708352"/>
-        <c:axId val="164710272"/>
+        <c:axId val="159072256"/>
+        <c:axId val="159074176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164708352"/>
+        <c:axId val="159072256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6011,17 +5982,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164710272"/>
+        <c:crossAx val="159074176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164710272"/>
+        <c:axId val="159074176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,25 +6013,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164708352"/>
+        <c:crossAx val="159072256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6959,7 +6927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -7271,7 +7239,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D18" s="3">
         <f>LOG(B18)/LOG(2)+3</f>
@@ -7279,7 +7247,7 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ref="E18:E24" si="4">B18/C18*50</f>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="F18" s="8">
         <f>B18/G18*50</f>
@@ -7297,7 +7265,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="4">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:D24" si="5">LOG(B19)/LOG(2)+3</f>
@@ -7305,7 +7273,7 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" si="4"/>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19:F24" si="6">B19/G19*50</f>
@@ -7323,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="5"/>
@@ -7331,7 +7299,7 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" si="4"/>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="6"/>
@@ -7349,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="5"/>
@@ -7357,7 +7325,7 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="6"/>
@@ -7375,7 +7343,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="5"/>
@@ -7383,7 +7351,7 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="F22" s="8">
         <f>B22/G22*50</f>
@@ -7401,7 +7369,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="5"/>
@@ -7409,7 +7377,7 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" si="4"/>
-        <v>4.0404040404040407</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="6"/>
@@ -7427,7 +7395,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="5"/>
@@ -7435,7 +7403,7 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" si="4"/>
-        <v>4.0816326530612246</v>
+        <v>3.755868544600939</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="6"/>
@@ -7467,7 +7435,7 @@
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7478,7 +7446,7 @@
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -7502,8 +7470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7517,13 +7485,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -7540,19 +7508,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7575,10 +7543,10 @@
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7589,7 +7557,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D7" si="1">LOG(B5)/LOG(2)+3</f>
@@ -7597,14 +7565,14 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.904761904761903</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7627,10 +7595,10 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>4.1666666666666661</v>
+        <v>3.6764705882352944</v>
       </c>
       <c r="G6" s="4">
-        <v>12</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7641,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -7649,14 +7617,14 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G7" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7667,7 +7635,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D10" si="3">LOG(B8)/LOG(2)+3</f>
@@ -7675,14 +7643,14 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G8" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7693,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="3"/>
@@ -7701,14 +7669,14 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.256410256410255</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>4.0404040404040407</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G9" s="4">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7731,10 +7699,10 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>4.0816326530612246</v>
+        <v>3.755868544600939</v>
       </c>
       <c r="G10" s="4">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7748,7 +7716,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
         <v>11</v>
@@ -7762,13 +7730,13 @@
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -7782,22 +7750,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7993,7 +7961,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="L26" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -8004,7 +7972,7 @@
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8127,26 +8095,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="54">
       <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8163,19 +8132,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8224,10 +8193,10 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
-        <v>10</v>
+        <v>11.904761904761903</v>
       </c>
       <c r="G5" s="4">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -8276,10 +8245,10 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -8302,10 +8271,10 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -8328,10 +8297,10 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>10.256410256410255</v>
       </c>
       <c r="G9" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8371,24 +8340,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
         <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="54">
       <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8402,22 +8371,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8611,18 +8580,18 @@
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
       <c r="L25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
         <v>40</v>
-      </c>
-      <c r="M25" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8661,13 +8630,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8684,19 +8653,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8892,24 +8861,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
         <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8923,22 +8892,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -9125,18 +9094,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -9174,16 +9143,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5">
       <c r="C1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="25"/>
     </row>
@@ -9191,27 +9160,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="40.5">
+    <row r="3" spans="1:13" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9398,30 +9367,30 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9433,22 +9402,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9635,27 +9604,27 @@
     </row>
     <row r="24" spans="1:13">
       <c r="K24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" t="s">
         <v>83</v>
-      </c>
-      <c r="M24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5">
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="25"/>
     </row>
@@ -9668,22 +9637,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9870,30 +9839,30 @@
     </row>
     <row r="37" spans="1:14">
       <c r="L37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -9905,22 +9874,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -10107,30 +10076,30 @@
     </row>
     <row r="50" spans="1:14">
       <c r="L50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M50" t="s">
+        <v>82</v>
+      </c>
+      <c r="N50" t="s">
         <v>83</v>
-      </c>
-      <c r="N50" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="40.5">
       <c r="C53" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="F53" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -10142,22 +10111,22 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -10344,27 +10313,27 @@
     </row>
     <row r="63" spans="1:14">
       <c r="L63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M63" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" t="s">
         <v>83</v>
-      </c>
-      <c r="N63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="40.5">
       <c r="C66" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" s="25"/>
     </row>
@@ -10377,22 +10346,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -10579,18 +10548,18 @@
     </row>
     <row r="76" spans="1:14">
       <c r="L76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
       <c r="A79" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -10629,13 +10598,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -10652,19 +10621,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10858,18 +10827,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -10886,19 +10855,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -11085,15 +11054,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -11132,7 +11101,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -11167,7 +11136,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -11202,7 +11171,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -11247,7 +11216,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -11282,7 +11251,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -11327,12 +11296,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -11357,8 +11326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11371,13 +11340,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -11386,7 +11355,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
+    <row r="3" spans="1:14" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -11394,19 +11363,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11600,24 +11569,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
         <v>86</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -11634,19 +11603,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -11833,18 +11802,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -553,21 +553,21 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU多线程初步 结论： 
-1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
-2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
-3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
-提升240%（gtx670）、-70%（gts250）； 
-4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，效率降低50%（gts250），为了避免误差确保CPU测试环境不含CUDA；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>CPU单线程 结论：
 1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，i7 3770K是4、i7 870是3； 
 2）时间效率，与CPU性能有关，'i7 3770k'  vs 'i7 870' = 4:3=1.33，
 前者提升约33%；
 3）时间效率，与程序编译配置有关，'release' vs 'debug' =3.7:2.7=1.4，
 提升40%（i7 3770k）、50%（i7 870）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU多线程初步 结论： 
+1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
+2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
+3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
+提升240%（gtx670）、-70%（gts250）； 
+4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，312ms vs 286ms = 1.1, 效率降低50%（gts250）、10%（gtx670），为了避免误差确保CPU测试环境不含CUDA；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -975,11 +975,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156730496"/>
-        <c:axId val="156732416"/>
+        <c:axId val="159614080"/>
+        <c:axId val="159616000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156730496"/>
+        <c:axId val="159614080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,14 +1003,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156732416"/>
+        <c:crossAx val="159616000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156732416"/>
+        <c:axId val="159616000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1036,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156730496"/>
+        <c:crossAx val="159614080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1050,7 +1050,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1190,11 +1190,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159091712"/>
-        <c:axId val="159126656"/>
+        <c:axId val="161852416"/>
+        <c:axId val="161870976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159091712"/>
+        <c:axId val="161852416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1217,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159126656"/>
+        <c:crossAx val="161870976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159126656"/>
+        <c:axId val="161870976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1249,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159091712"/>
+        <c:crossAx val="161852416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1262,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1402,11 +1402,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159152384"/>
-        <c:axId val="159158656"/>
+        <c:axId val="163215616"/>
+        <c:axId val="163221888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159152384"/>
+        <c:axId val="163215616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1429,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159158656"/>
+        <c:crossAx val="163221888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159158656"/>
+        <c:axId val="163221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1461,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159152384"/>
+        <c:crossAx val="163215616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +1474,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1601,11 +1601,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159200384"/>
-        <c:axId val="159202304"/>
+        <c:axId val="163329152"/>
+        <c:axId val="163331072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159200384"/>
+        <c:axId val="163329152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,14 +1628,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159202304"/>
+        <c:crossAx val="163331072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159202304"/>
+        <c:axId val="163331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1660,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159200384"/>
+        <c:crossAx val="163329152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1673,7 +1673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1813,11 +1813,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159244672"/>
-        <c:axId val="159246592"/>
+        <c:axId val="163377536"/>
+        <c:axId val="163379456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159244672"/>
+        <c:axId val="163377536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,14 +1840,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159246592"/>
+        <c:crossAx val="163379456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159246592"/>
+        <c:axId val="163379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1872,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159244672"/>
+        <c:crossAx val="163377536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1885,7 +1885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2025,11 +2025,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159608192"/>
-        <c:axId val="159622656"/>
+        <c:axId val="163409280"/>
+        <c:axId val="163423744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159608192"/>
+        <c:axId val="163409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,14 +2052,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159622656"/>
+        <c:crossAx val="163423744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159622656"/>
+        <c:axId val="163423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2084,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159608192"/>
+        <c:crossAx val="163409280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2097,7 +2097,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2357,11 +2357,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163299712"/>
-        <c:axId val="163301632"/>
+        <c:axId val="163688832"/>
+        <c:axId val="163690752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163299712"/>
+        <c:axId val="163688832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,14 +2435,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163301632"/>
+        <c:crossAx val="163690752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163301632"/>
+        <c:axId val="163690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163299712"/>
+        <c:crossAx val="163688832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2597,7 +2597,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2857,11 +2857,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162876800"/>
-        <c:axId val="162911744"/>
+        <c:axId val="163528064"/>
+        <c:axId val="163558912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162876800"/>
+        <c:axId val="163528064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,14 +2935,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162911744"/>
+        <c:crossAx val="163558912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162911744"/>
+        <c:axId val="163558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162876800"/>
+        <c:crossAx val="163528064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3097,7 +3097,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3223,11 +3223,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="163325440"/>
-        <c:axId val="163327360"/>
+        <c:axId val="163718656"/>
+        <c:axId val="163720576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163325440"/>
+        <c:axId val="163718656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,14 +3263,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163327360"/>
+        <c:crossAx val="163720576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163327360"/>
+        <c:axId val="163720576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3300,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163325440"/>
+        <c:crossAx val="163718656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3312,7 +3312,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3572,11 +3572,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163744000"/>
-        <c:axId val="163754368"/>
+        <c:axId val="173828352"/>
+        <c:axId val="173842816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163744000"/>
+        <c:axId val="173828352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,7 +3607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3651,14 +3650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163754368"/>
+        <c:crossAx val="173842816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163754368"/>
+        <c:axId val="173842816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3702,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3742,7 +3740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163744000"/>
+        <c:crossAx val="173828352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3756,7 +3754,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3815,7 +3812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4075,11 +4072,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163800576"/>
-        <c:axId val="163802496"/>
+        <c:axId val="173889024"/>
+        <c:axId val="173890944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163800576"/>
+        <c:axId val="173889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4154,14 +4150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163802496"/>
+        <c:crossAx val="173890944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163802496"/>
+        <c:axId val="173890944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,7 +4202,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4245,7 +4240,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163800576"/>
+        <c:crossAx val="173889024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4259,7 +4254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4318,7 +4312,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4458,11 +4452,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156778880"/>
-        <c:axId val="156780800"/>
+        <c:axId val="160051584"/>
+        <c:axId val="160053504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156778880"/>
+        <c:axId val="160051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,14 +4480,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156780800"/>
+        <c:crossAx val="160053504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156780800"/>
+        <c:axId val="160053504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,7 +4513,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156778880"/>
+        <c:crossAx val="160051584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,7 +4527,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4673,11 +4667,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="156856320"/>
-        <c:axId val="156858240"/>
+        <c:axId val="160788480"/>
+        <c:axId val="160790400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156856320"/>
+        <c:axId val="160788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,14 +4695,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156858240"/>
+        <c:crossAx val="160790400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156858240"/>
+        <c:axId val="160790400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,7 +4728,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156856320"/>
+        <c:crossAx val="160788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4748,7 +4742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4888,11 +4882,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="157301760"/>
-        <c:axId val="157316224"/>
+        <c:axId val="160836608"/>
+        <c:axId val="160855168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157301760"/>
+        <c:axId val="160836608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,14 +4910,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157316224"/>
+        <c:crossAx val="160855168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157316224"/>
+        <c:axId val="160855168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,7 +4943,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157301760"/>
+        <c:crossAx val="160836608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4963,7 +4957,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5103,11 +5097,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158476928"/>
-        <c:axId val="158491392"/>
+        <c:axId val="161237632"/>
+        <c:axId val="161248000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158476928"/>
+        <c:axId val="161237632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,14 +5125,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158491392"/>
+        <c:crossAx val="161248000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158491392"/>
+        <c:axId val="161248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5158,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158476928"/>
+        <c:crossAx val="161237632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5178,7 +5172,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5318,11 +5312,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158517120"/>
-        <c:axId val="158531584"/>
+        <c:axId val="161261440"/>
+        <c:axId val="161284096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158517120"/>
+        <c:axId val="161261440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5346,14 +5340,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158531584"/>
+        <c:crossAx val="161284096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158531584"/>
+        <c:axId val="161284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,7 +5373,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158517120"/>
+        <c:crossAx val="161261440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5393,7 +5387,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5533,11 +5527,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158619136"/>
-        <c:axId val="158621056"/>
+        <c:axId val="161371648"/>
+        <c:axId val="161373568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158619136"/>
+        <c:axId val="161371648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,14 +5554,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158621056"/>
+        <c:crossAx val="161373568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158621056"/>
+        <c:axId val="161373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,7 +5586,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158619136"/>
+        <c:crossAx val="161371648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5605,7 +5599,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5745,11 +5739,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="158671616"/>
-        <c:axId val="158673536"/>
+        <c:axId val="161415936"/>
+        <c:axId val="161417856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158671616"/>
+        <c:axId val="161415936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,14 +5766,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158673536"/>
+        <c:crossAx val="161417856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158673536"/>
+        <c:axId val="161417856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,7 +5798,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158671616"/>
+        <c:crossAx val="161415936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5817,7 +5811,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5957,11 +5951,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159072256"/>
-        <c:axId val="159074176"/>
+        <c:axId val="161812480"/>
+        <c:axId val="161814400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159072256"/>
+        <c:axId val="161812480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5984,14 +5978,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159074176"/>
+        <c:crossAx val="161814400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159074176"/>
+        <c:axId val="161814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6016,7 +6010,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159072256"/>
+        <c:crossAx val="161812480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6029,7 +6023,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6927,8 +6921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7435,7 +7429,7 @@
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7470,7 +7464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
@@ -8095,8 +8089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8124,7 +8118,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
+    <row r="3" spans="1:14" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8366,7 +8360,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="40.5">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -8591,7 +8585,7 @@
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
@@ -14,13 +14,14 @@
     <sheet name="5.问题规模与时间效率的关系-拆分" sheetId="7" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-常量" sheetId="5" r:id="rId6"/>
     <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
+    <sheet name="8.问题规模与时间效率的关系-线程数目" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152510"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>表1.1</t>
   </si>
@@ -51,7 +52,7 @@
     <t>release</t>
   </si>
   <si>
-    <t>VS debug</t>
+    <t>debug</t>
   </si>
   <si>
     <t>时间(ms)
@@ -73,13 +74,16 @@
     <t>CPU: i7 3770k</t>
   </si>
   <si>
-    <t>debug</t>
-  </si>
-  <si>
     <t>图1.2</t>
   </si>
   <si>
     <t>i7 3770K</t>
+  </si>
+  <si>
+    <t>CPU单线程 结论：_x000D_
+1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，i7 3770K是3.7、i7 870是2.9； _x000D_
+2）时间效率，与CPU性能有关，CPU性能越高效率越高。定量：'i7 3770k'  vs 'i7 870' = 3.7:2.9=1.3，前者提升约30%；_x000D_
+3）时间效率，与程序编译配置有关，release高于debug约50%。'release' vs 'debug' =3.7:2.7=1.4，2.9:1.9=1.5，提升40%（i7 3770k）、50%（i7 870）；</t>
   </si>
   <si>
     <t>备注：
@@ -113,6 +117,11 @@
   </si>
   <si>
     <t>表2.2</t>
+  </si>
+  <si>
+    <t>问题规模
+(N 百万)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>图2.2</t>
@@ -168,10 +177,43 @@
     <t>GTS250</t>
   </si>
   <si>
+    <t>GPU多线程初步 结论： 
+1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
+2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
+3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
+提升240%（gtx670）、-70%（gts250）； 
+4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，312ms vs 286ms = 1.1, 效率降低50%（gts250）、10%（gtx670），为了避免误差确保CPU测试环境不含CUDA；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>表4.1</t>
   </si>
   <si>
     <t>GPU: gtx670</t>
+  </si>
+  <si>
+    <t>对齐
+VS
+非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非对齐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>图4.1</t>
@@ -193,49 +235,194 @@
     <t>图4.2</t>
   </si>
   <si>
-    <t>表5.1</t>
-  </si>
-  <si>
-    <t>图5.1</t>
-  </si>
-  <si>
-    <t>表5.2</t>
-  </si>
-  <si>
-    <t>图5.2</t>
-  </si>
-  <si>
-    <t>共享
-VS
-非共享</t>
+    <t xml:space="preserve">GPU类型对齐优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
+2）时间效率，在都是类型对齐的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
+前者是后者的6倍； 
+3）时间效率，类型对齐与非类型对齐，效率翻倍提升。定量：合并 vs 非合并 = 102:34=3，17:3.4=5， 前者提升200%（gtx670）、400%（gts250）； 
+4）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>共享</t>
+    <t>表5.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非共享</t>
+    <t>拆分
+VS
+不拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp读取
+同一个值</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间(ms)
-VS 非共享</t>
+拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非拆分</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间(ms)
-共享</t>
+VS 非拆分</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非共享</t>
+    <t>图5.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTS250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gtx670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序
+VS
+非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非排序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替
+VS
+非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp读取
+相邻值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gts250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图5.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU结构体拆分优化 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
+2）时间效率，在都是结构体拆分的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 前者是后者的6倍； 
+3）时间效率，拆分与不拆分对比，效率小幅度提升。定量：x:125=y，16.3:16.7=0.98， 
+提升z%（gtx670）、-2%（gts250）；
+4）时间效率，排序与非排序对比，效率小幅度提升。定量：164:125=1.3，11.7:16.3=0.7， 
+提升30%（gtx670）、-30%（gts250）； 
+5）时间效率，交替与非交替对比，效率小幅度提升。定量：152:125=1.2，16.9:16.3=1.04， 
+前者提升20%（gtx670）、4%（gts250）；
+6）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6.1</t>
   </si>
   <si>
     <t>常量
 VS
 非常量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+常量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -248,17 +435,20 @@
   </si>
   <si>
     <t>时间(ms)
-常量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
 VS 非常量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表5.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>图6.1</t>
+  </si>
+  <si>
+    <t>表6.2</t>
+  </si>
+  <si>
+    <t>图6.2</t>
+  </si>
+  <si>
+    <t>表6.3</t>
   </si>
   <si>
     <t>内存显存
@@ -293,236 +483,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>图5.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>warp读取
-同一个值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU: gtx670</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>交替
-VS
-非交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU: gts250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享
-VS
-非共享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>warp读取
-相邻值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTX670</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTS250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTX670</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTS250</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐
-VS
-非对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐
-VS
-非对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-对齐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GPU类型对齐优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
-2）时间效率，在都是类型对齐的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 
-前者是后者的6倍； 
-3）时间效率，类型对齐与非类型对齐，效率翻倍提升。定量：合并 vs 非合并 = 102:34=3，17:3.4=5， 前者提升200%（gtx670）、400%（gts250）； 
-4）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图5.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图5.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图5.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分
-VS
-不拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表5.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图5.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序
-VS
-非排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 非排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图5.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题规模
-(N 百万)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU线程块内部所有线程共享通信 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
-2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
-前者是后者的3倍； 
-3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
-提升80%（gtx670）、270%（gts250）； 
-4）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
-提升1900%（gtx670）、430%（gts250）；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>图6.3</t>
   </si>
   <si>
     <t>GPU常量显存所有线程共享通信优化 结论： 
@@ -540,41 +501,95 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU结构体拆分优化 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以3%的增速缓慢提升； 
-2）时间效率，在都是结构体拆分的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 102:17=6， 前者是后者的6倍； 
-3）时间效率，拆分与不拆分对比，效率小幅度提升。定量：x:125=y，16.3:16.7=0.98， 
-提升z%（gtx670）、-2%（gts250）；
-4）时间效率，排序与非排序对比，效率小幅度提升。定量：164:125=1.3，11.7:16.3=0.7， 
-提升30%（gtx670）、-30%（gts250）； 
-5）时间效率，交替与非交替对比，效率小幅度提升。定量：152:125=1.2，16.9:16.3=1.04， 
-前者提升20%（gtx670）、4%（gts250）；
-6）时间效率，GPU多线程相对应CPU多线程，效率翻倍提升。定量：GPU VS CPU = 102:10=10，17:12=1.4， 前者提升900%（gtx670）、40%（gts250）；</t>
+    <t>表7.1</t>
+  </si>
+  <si>
+    <t>共享
+VS
+非共享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>CPU单线程 结论：
-1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，i7 3770K是4、i7 870是3； 
-2）时间效率，与CPU性能有关，'i7 3770k'  vs 'i7 870' = 4:3=1.33，
-前者提升约33%；
-3）时间效率，与程序编译配置有关，'release' vs 'debug' =3.7:2.7=1.4，
-提升40%（i7 3770k）、50%（i7 870）；</t>
+    <t>时间(ms)
+共享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU多线程初步 结论： 
-1）时间效率，与问题规模无关，问题规模变化，时间效率恒定不变，gtx670是34、gts250是3.4； 
-2）时间效率，在都是GPU多线程的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 34:3.4=10， 前者是后者的10倍； 
-3）时间效率，GPU多线程与CPU多线程对比，GPU vs CPU =34:10=3.4， 3.4:12=0.3，
-提升240%（gtx670）、-70%（gts250）； 
-4）CUDA对CU调用CPP代码的编译效率不如CPP调用，454ms vs 300 ms = 1.5，312ms vs 286ms = 1.1, 效率降低50%（gts250）、10%（gtx670），为了避免误差确保CPU测试环境不含CUDA；</t>
+    <t>共享</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非共享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非共享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图7.1</t>
+  </si>
+  <si>
+    <t>表7.2</t>
+  </si>
+  <si>
+    <t>图7.2</t>
+  </si>
+  <si>
+    <t>GPU线程块内部所有线程共享通信 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
+2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
+前者是后者的3倍； 
+3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
+提升80%（gtx670）、270%（gts250）； 
+4）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
+提升1900%（gtx670）、430%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.1</t>
+  </si>
+  <si>
+    <t>多个交叉
+VS
+非交叉</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>时间(ms)
+交叉</t>
+  </si>
+  <si>
+    <t>交叉</t>
+  </si>
+  <si>
+    <t>非交叉</t>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 非交叉</t>
+  </si>
+  <si>
+    <t>表8.2</t>
+  </si>
+  <si>
+    <t>GPU线程多个元素交叉与否 结论： _x000D_
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； _x000D_
+2）时间效率，在都是多个元素交叉的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， _x000D_
+前者是后者的3倍； _x000D_
+3）时间效率，多个元素交叉与非交叉，效率翻倍提升。定量：200:x=y，63:x=y， _x000D_
+提升z%（gtx670）、z%（gts250）； _x000D_
+4）时间效率，GPU VS CPU = x:10=y，x:12=y， _x000D_
+提升z%（gtx670）、z%（gts250）；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -843,12 +858,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -872,7 +899,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -909,6 +942,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -919,7 +953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VS debug</c:v>
+                  <c:v>debug</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -933,7 +967,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -970,19 +1010,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159614080"/>
-        <c:axId val="159616000"/>
+        <c:smooth val="0"/>
+        <c:axId val="1686008328"/>
+        <c:axId val="1686008904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159614080"/>
+        <c:axId val="1686008328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1000,20 +1048,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159616000"/>
+        <c:crossAx val="1686008904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159616000"/>
+        <c:axId val="1686008904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1032,21 +1084,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159614080"/>
+        <c:crossAx val="1686008328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1058,12 +1113,24 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1087,7 +1154,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1124,6 +1197,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1148,7 +1222,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1185,19 +1265,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161852416"/>
-        <c:axId val="161870976"/>
+        <c:smooth val="0"/>
+        <c:axId val="1708352072"/>
+        <c:axId val="1708352648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161852416"/>
+        <c:axId val="1708352072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1215,19 +1303,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161870976"/>
+        <c:crossAx val="1708352648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161870976"/>
+        <c:axId val="1708352648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1246,19 +1339,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161852416"/>
+        <c:crossAx val="1708352072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1270,12 +1368,24 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1299,7 +1409,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1336,6 +1452,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1360,7 +1477,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1397,19 +1520,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163215616"/>
-        <c:axId val="163221888"/>
+        <c:smooth val="0"/>
+        <c:axId val="1708356104"/>
+        <c:axId val="1708356680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163215616"/>
+        <c:axId val="1708356104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1427,19 +1558,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163221888"/>
+        <c:crossAx val="1708356680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163221888"/>
+        <c:axId val="1708356680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1458,19 +1594,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163215616"/>
+        <c:crossAx val="1708356104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1482,12 +1623,24 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1511,7 +1664,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1548,6 +1707,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1596,19 +1756,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163329152"/>
-        <c:axId val="163331072"/>
+        <c:smooth val="0"/>
+        <c:axId val="1708507720"/>
+        <c:axId val="1708508296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163329152"/>
+        <c:axId val="1708507720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1626,19 +1794,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163331072"/>
+        <c:crossAx val="1708508296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163331072"/>
+        <c:axId val="1708508296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1657,19 +1830,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163329152"/>
+        <c:crossAx val="1708507720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1681,12 +1859,24 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1710,7 +1900,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1747,6 +1943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1771,7 +1968,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1808,19 +2011,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163377536"/>
-        <c:axId val="163379456"/>
+        <c:smooth val="0"/>
+        <c:axId val="1708511752"/>
+        <c:axId val="1708512328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163377536"/>
+        <c:axId val="1708511752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1838,19 +2049,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163379456"/>
+        <c:crossAx val="1708512328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163379456"/>
+        <c:axId val="1708512328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1869,19 +2085,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163377536"/>
+        <c:crossAx val="1708511752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1893,12 +2114,24 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1922,7 +2155,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1959,6 +2198,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1983,7 +2223,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2020,19 +2266,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163409280"/>
-        <c:axId val="163423744"/>
+        <c:smooth val="0"/>
+        <c:axId val="1717658184"/>
+        <c:axId val="1717658760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163409280"/>
+        <c:axId val="1717658184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2050,19 +2304,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163423744"/>
+        <c:crossAx val="1717658760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163423744"/>
+        <c:axId val="1717658760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2081,19 +2340,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163409280"/>
+        <c:crossAx val="1717658184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2105,12 +2369,24 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2176,11 +2452,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2231,6 +2513,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2297,11 +2580,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2352,19 +2641,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163688832"/>
-        <c:axId val="163690752"/>
+        <c:smooth val="0"/>
+        <c:axId val="1717662216"/>
+        <c:axId val="1717662792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163688832"/>
+        <c:axId val="1717662216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2392,6 +2689,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2401,6 +2699,7 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2432,20 +2731,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163690752"/>
+        <c:crossAx val="1717662792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163690752"/>
+        <c:axId val="1717662792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2487,6 +2788,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2497,6 +2799,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2522,10 +2825,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163688832"/>
+        <c:crossAx val="1717662216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,6 +2842,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2563,12 +2867,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2592,7 +2897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2605,12 +2910,24 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2676,11 +2993,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2731,6 +3054,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2797,11 +3121,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2852,19 +3182,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163528064"/>
-        <c:axId val="163558912"/>
+        <c:smooth val="0"/>
+        <c:axId val="330490440"/>
+        <c:axId val="330491016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163528064"/>
+        <c:axId val="330490440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2892,6 +3230,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2901,6 +3240,7 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2932,20 +3272,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163558912"/>
+        <c:crossAx val="330491016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163558912"/>
+        <c:axId val="330491016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2987,6 +3329,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2997,6 +3340,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3022,10 +3366,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163528064"/>
+        <c:crossAx val="330490440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3039,6 +3383,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3063,12 +3408,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3092,7 +3438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3105,14 +3451,24 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:style val="4"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3123,8 +3479,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3165,6 +3539,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3217,20 +3592,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
-        <c:marker val="1"/>
-        <c:axId val="163718656"/>
-        <c:axId val="163720576"/>
+        <c:smooth val="0"/>
+        <c:axId val="330494472"/>
+        <c:axId val="330495048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163718656"/>
+        <c:axId val="330494472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3259,21 +3641,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163720576"/>
+        <c:crossAx val="330495048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163720576"/>
+        <c:axId val="330495048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3297,18 +3683,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163718656"/>
+        <c:crossAx val="330494472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3320,12 +3712,24 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3391,11 +3795,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3446,6 +3856,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3512,11 +3923,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3567,19 +3984,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="173828352"/>
-        <c:axId val="173842816"/>
+        <c:smooth val="0"/>
+        <c:axId val="348463688"/>
+        <c:axId val="348464264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173828352"/>
+        <c:axId val="348463688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3607,6 +4032,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3616,6 +4042,7 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3647,20 +4074,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173842816"/>
+        <c:crossAx val="348464264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173842816"/>
+        <c:axId val="348464264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3702,6 +4131,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3712,6 +4142,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3737,10 +4168,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173828352"/>
+        <c:crossAx val="348463688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,6 +4185,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3778,12 +4210,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3807,7 +4240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3820,12 +4253,24 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3891,11 +4336,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3946,6 +4397,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4012,11 +4464,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4067,19 +4525,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="173889024"/>
-        <c:axId val="173890944"/>
+        <c:smooth val="0"/>
+        <c:axId val="348467720"/>
+        <c:axId val="348468296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173889024"/>
+        <c:axId val="348467720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4107,6 +4573,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4116,6 +4583,7 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4147,20 +4615,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173890944"/>
+        <c:crossAx val="348468296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173890944"/>
+        <c:axId val="348468296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4202,6 +4672,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4212,6 +4683,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4237,10 +4709,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173889024"/>
+        <c:crossAx val="348467720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4254,6 +4726,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4278,12 +4751,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4307,7 +4781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4320,12 +4794,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4349,7 +4835,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4386,6 +4878,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4410,7 +4903,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4447,19 +4946,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160051584"/>
-        <c:axId val="160053504"/>
+        <c:smooth val="0"/>
+        <c:axId val="1686159944"/>
+        <c:axId val="1686160520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160051584"/>
+        <c:axId val="1686159944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4477,20 +4984,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160053504"/>
+        <c:crossAx val="1686160520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160053504"/>
+        <c:axId val="1686160520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4509,21 +5020,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160051584"/>
+        <c:crossAx val="1686159944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4535,12 +5049,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4564,7 +5090,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4601,6 +5133,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4625,7 +5158,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4662,19 +5201,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160788480"/>
-        <c:axId val="160790400"/>
+        <c:smooth val="0"/>
+        <c:axId val="1686163976"/>
+        <c:axId val="1686164552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160788480"/>
+        <c:axId val="1686163976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4692,20 +5239,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160790400"/>
+        <c:crossAx val="1686164552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160790400"/>
+        <c:axId val="1686164552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4724,21 +5275,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160788480"/>
+        <c:crossAx val="1686163976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4750,12 +5304,24 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4779,7 +5345,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4816,6 +5388,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4840,7 +5413,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4877,19 +5456,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160836608"/>
-        <c:axId val="160855168"/>
+        <c:smooth val="0"/>
+        <c:axId val="1694499400"/>
+        <c:axId val="1694499976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160836608"/>
+        <c:axId val="1694499400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4907,20 +5494,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160855168"/>
+        <c:crossAx val="1694499976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160855168"/>
+        <c:axId val="1694499976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4939,21 +5530,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160836608"/>
+        <c:crossAx val="1694499400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4965,12 +5559,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4994,7 +5600,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5031,6 +5643,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5055,7 +5668,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5092,19 +5711,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161237632"/>
-        <c:axId val="161248000"/>
+        <c:smooth val="0"/>
+        <c:axId val="1694503432"/>
+        <c:axId val="1694504008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161237632"/>
+        <c:axId val="1694503432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5122,20 +5749,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161248000"/>
+        <c:crossAx val="1694504008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161248000"/>
+        <c:axId val="1694504008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5154,21 +5785,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161237632"/>
+        <c:crossAx val="1694503432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5180,12 +5814,24 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5209,7 +5855,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5246,6 +5898,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5270,7 +5923,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5307,19 +5966,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161261440"/>
-        <c:axId val="161284096"/>
+        <c:smooth val="0"/>
+        <c:axId val="1696350792"/>
+        <c:axId val="1696351368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161261440"/>
+        <c:axId val="1696350792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5337,20 +6004,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161284096"/>
+        <c:crossAx val="1696351368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161284096"/>
+        <c:axId val="1696351368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5369,21 +6040,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161261440"/>
+        <c:crossAx val="1696350792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5395,12 +6069,24 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5424,7 +6110,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5461,6 +6153,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5485,7 +6178,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5522,19 +6221,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161371648"/>
-        <c:axId val="161373568"/>
+        <c:smooth val="0"/>
+        <c:axId val="1696354824"/>
+        <c:axId val="1696355400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161371648"/>
+        <c:axId val="1696354824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5552,19 +6259,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161373568"/>
+        <c:crossAx val="1696355400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161373568"/>
+        <c:axId val="1696355400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5583,19 +6295,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161371648"/>
+        <c:crossAx val="1696354824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5607,12 +6324,24 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5636,7 +6365,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5673,6 +6408,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5697,7 +6433,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5734,19 +6476,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161415936"/>
-        <c:axId val="161417856"/>
+        <c:smooth val="0"/>
+        <c:axId val="1696522824"/>
+        <c:axId val="1696523400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161415936"/>
+        <c:axId val="1696522824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5764,19 +6514,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161417856"/>
+        <c:crossAx val="1696523400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161417856"/>
+        <c:axId val="1696523400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5795,19 +6550,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161415936"/>
+        <c:crossAx val="1696522824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5819,12 +6579,24 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5848,7 +6620,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5885,6 +6663,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5909,7 +6688,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5946,19 +6731,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161812480"/>
-        <c:axId val="161814400"/>
+        <c:smooth val="0"/>
+        <c:axId val="1696526856"/>
+        <c:axId val="1696527432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161812480"/>
+        <c:axId val="1696526856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5976,19 +6769,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161814400"/>
+        <c:crossAx val="1696527432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161814400"/>
+        <c:axId val="1696527432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6007,19 +6805,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161812480"/>
+        <c:crossAx val="1696526856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6193,16 +6996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6635,7 +7438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6677,7 +7480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6709,9 +7512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6743,6 +7547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6918,7 +7723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6947,7 +7752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="27">
+    <row r="3" spans="1:14" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7219,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -7418,18 +8223,18 @@
     </row>
     <row r="26" spans="1:14">
       <c r="L26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
       <c r="N26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7461,7 +8266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7716,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -7744,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -7955,7 +8760,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="L26" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
@@ -7966,7 +8771,7 @@
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8086,7 +8891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
@@ -8103,13 +8908,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="54">
       <c r="C1" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8126,19 +8931,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8334,24 +9139,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="54">
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8365,22 +9170,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8574,18 +9379,18 @@
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
       <c r="L25" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8606,7 +9411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -8624,13 +9429,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -8647,19 +9452,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8855,24 +9660,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="L12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -8886,22 +9691,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -9088,18 +9893,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -9120,7 +9925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
@@ -9137,16 +9942,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G1" s="25"/>
     </row>
@@ -9159,22 +9964,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9361,30 +10166,30 @@
     </row>
     <row r="11" spans="1:13">
       <c r="K11" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9396,22 +10201,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9598,27 +10403,27 @@
     </row>
     <row r="24" spans="1:13">
       <c r="K24" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40.5">
       <c r="C27" s="10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G27" s="25"/>
     </row>
@@ -9631,22 +10436,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9833,30 +10638,30 @@
     </row>
     <row r="37" spans="1:14">
       <c r="L37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="C40" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="F40" s="35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -9868,22 +10673,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -10070,30 +10875,30 @@
     </row>
     <row r="50" spans="1:14">
       <c r="L50" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="40.5">
       <c r="C53" s="10" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -10105,22 +10910,22 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -10307,27 +11112,27 @@
     </row>
     <row r="63" spans="1:14">
       <c r="L63" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N63" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="40.5">
       <c r="C66" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G66" s="25"/>
     </row>
@@ -10340,22 +11145,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -10542,18 +11347,18 @@
     </row>
     <row r="76" spans="1:14">
       <c r="L76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M76" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N76" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
       <c r="A79" s="38" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -10575,7 +11380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -10592,13 +11397,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -10615,19 +11420,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10821,18 +11626,18 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -10849,19 +11654,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -11048,15 +11853,15 @@
     </row>
     <row r="25" spans="1:12">
       <c r="L25" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27">
       <c r="C27" s="10" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -11095,7 +11900,7 @@
     </row>
     <row r="29" spans="1:12" ht="27">
       <c r="A29" s="29" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B29" s="28">
         <v>2E-3</v>
@@ -11130,7 +11935,7 @@
     </row>
     <row r="30" spans="1:12" ht="27">
       <c r="A30" s="31" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B30" s="32">
         <v>1.4999999999999999E-2</v>
@@ -11165,7 +11970,7 @@
     </row>
     <row r="31" spans="1:12" ht="54">
       <c r="A31" s="29" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" ref="B31:K31" si="6">B29/B30</f>
@@ -11210,7 +12015,7 @@
     </row>
     <row r="32" spans="1:12" ht="27">
       <c r="A32" s="31" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B32" s="28">
         <v>2.7E-2</v>
@@ -11245,7 +12050,7 @@
     </row>
     <row r="33" spans="1:15" ht="54">
       <c r="A33" s="29" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B33" s="33">
         <f t="shared" ref="B33:K33" si="7">B29/B32</f>
@@ -11290,12 +12095,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="O34" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -11317,7 +12122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11334,13 +12139,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -11357,19 +12162,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -11563,24 +12368,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -11597,19 +12402,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -11796,18 +12601,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="M25" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -11825,4 +12630,493 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5">
+      <c r="C1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="54">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="3">
+        <f>LOG(B4)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F4" s="8">
+        <f>B4/G4*50</f>
+        <v>96.153846153846146</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>102.04081632653062</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>107.5268817204301</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>112.67605633802818</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.5">
+      <c r="C15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="54">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D18" s="3">
+        <f>LOG(B18)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="F18" s="8">
+        <f>B18/G18*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="3"/>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G22" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="5"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G23" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="5"/>
+        <v>17.391304347826086</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:H28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,13 @@
     <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
     <sheet name="8.问题规模与时间效率的关系-线程数目" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152510"/>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>表1.1</t>
   </si>
@@ -551,45 +552,85 @@
     <t>表8.1</t>
   </si>
   <si>
-    <t>多个交叉
+    <t>x</t>
+  </si>
+  <si>
+    <t>表8.2</t>
+  </si>
+  <si>
+    <t>多元素
 VS
-非交叉</t>
-  </si>
-  <si>
-    <t>x</t>
+单元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间(ms)
-交叉</t>
-  </si>
-  <si>
-    <t>交叉</t>
-  </si>
-  <si>
-    <t>非交叉</t>
+多元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间(ms)
-VS 非交叉</t>
-  </si>
-  <si>
-    <t>表8.2</t>
-  </si>
-  <si>
-    <t>GPU线程多个元素交叉与否 结论： _x000D_
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； _x000D_
-2）时间效率，在都是多个元素交叉的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， _x000D_
-前者是后者的3倍； _x000D_
-3）时间效率，多个元素交叉与非交叉，效率翻倍提升。定量：200:x=y，63:x=y， _x000D_
-提升z%（gtx670）、z%（gts250）； _x000D_
-4）时间效率，GPU VS CPU = x:10=y，x:12=y， _x000D_
+VS 单元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替
+VS
+不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题规模
+log2(N)+3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU线程数目优化 结论： _x000D_
+1）时间效率，与问题规模相关，问题规模变化，时间效率增速：交替7%，不交替-20%（gts250）； _x000D__x000D_ _x000D_
+2）时间效率，多元素与单元素，效率翻倍提升。定量：200:x=y，63:x=y， 
+提升z%（gtx670）、z%（gts250）；
+3）时间效率，多元素交替与不交替，效率翻倍提升。定量：200:x=y，63:17=4(min 39:23=1.7,max 67:6=11)， 提升z%（gtx670）、70%~1000%（gts250）；
+4）时间效率，多元素不交替，GPU VS CPU = x:10=y，17:12=1.4， _x000D_
+提升z%（gtx670）、40%（gts250）；
+5）时间效率，单元素，GPU VS CPU = x:10=y，x:12=y， 
 提升z%（gtx670）、z%（gts250）；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -724,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,6 +875,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,37 +892,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -899,13 +926,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -942,7 +963,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -967,13 +987,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1010,27 +1024,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1686008328"/>
-        <c:axId val="1686008904"/>
+        <c:axId val="84391424"/>
+        <c:axId val="84393344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1686008328"/>
+        <c:axId val="84391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1048,24 +1054,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686008904"/>
+        <c:crossAx val="84393344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1686008904"/>
+        <c:axId val="84393344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1084,28 +1085,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686008328"/>
+        <c:crossAx val="84391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1113,24 +1109,12 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1154,13 +1138,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1197,7 +1175,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1222,13 +1199,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1265,27 +1236,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1708352072"/>
-        <c:axId val="1708352648"/>
+        <c:axId val="93395968"/>
+        <c:axId val="93414528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1708352072"/>
+        <c:axId val="93395968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1303,24 +1266,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708352648"/>
+        <c:crossAx val="93414528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1708352648"/>
+        <c:axId val="93414528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1339,28 +1297,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708352072"/>
+        <c:crossAx val="93395968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1368,24 +1321,12 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1409,13 +1350,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1452,7 +1387,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1477,13 +1411,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1520,27 +1448,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1708356104"/>
-        <c:axId val="1708356680"/>
+        <c:axId val="93448448"/>
+        <c:axId val="94769536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1708356104"/>
+        <c:axId val="93448448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1558,24 +1478,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708356680"/>
+        <c:crossAx val="94769536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1708356680"/>
+        <c:axId val="94769536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1594,28 +1509,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708356104"/>
+        <c:crossAx val="93448448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1623,24 +1533,12 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1664,13 +1562,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1707,7 +1599,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1756,27 +1647,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1708507720"/>
-        <c:axId val="1708508296"/>
+        <c:axId val="94815360"/>
+        <c:axId val="94817280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1708507720"/>
+        <c:axId val="94815360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1794,24 +1677,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708508296"/>
+        <c:crossAx val="94817280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1708508296"/>
+        <c:axId val="94817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1830,28 +1708,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708507720"/>
+        <c:crossAx val="94815360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1859,24 +1732,12 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1900,13 +1761,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1943,7 +1798,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1968,13 +1822,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2011,27 +1859,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1708511752"/>
-        <c:axId val="1708512328"/>
+        <c:axId val="94871936"/>
+        <c:axId val="94873856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1708511752"/>
+        <c:axId val="94871936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2049,24 +1889,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708512328"/>
+        <c:crossAx val="94873856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1708512328"/>
+        <c:axId val="94873856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2085,28 +1920,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1708511752"/>
+        <c:crossAx val="94871936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2114,24 +1944,12 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2155,13 +1973,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2198,7 +2010,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2223,13 +2034,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2266,27 +2071,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1717658184"/>
-        <c:axId val="1717658760"/>
+        <c:axId val="94895488"/>
+        <c:axId val="94914048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1717658184"/>
+        <c:axId val="94895488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2304,24 +2101,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1717658760"/>
+        <c:crossAx val="94914048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1717658760"/>
+        <c:axId val="94914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2340,28 +2132,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1717658184"/>
+        <c:crossAx val="94895488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2369,24 +2156,12 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2452,17 +2227,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2513,7 +2282,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2580,17 +2348,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2641,27 +2403,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1717662216"/>
-        <c:axId val="1717662792"/>
+        <c:axId val="95277440"/>
+        <c:axId val="95279360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1717662216"/>
+        <c:axId val="95277440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2689,7 +2443,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2699,7 +2452,6 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2731,22 +2483,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717662792"/>
+        <c:crossAx val="95279360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1717662792"/>
+        <c:axId val="95279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2788,7 +2538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2799,7 +2548,6 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2825,10 +2573,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717662216"/>
+        <c:crossAx val="95277440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,7 +2590,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2867,13 +2614,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2897,12 +2643,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2910,24 +2656,12 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2993,17 +2727,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3054,7 +2782,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3121,17 +2848,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3182,27 +2903,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="330490440"/>
-        <c:axId val="330491016"/>
+        <c:axId val="77221248"/>
+        <c:axId val="77260288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330490440"/>
+        <c:axId val="77221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3230,7 +2943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3240,7 +2952,6 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3272,22 +2983,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330491016"/>
+        <c:crossAx val="77260288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330491016"/>
+        <c:axId val="77260288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3329,7 +3038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3340,7 +3048,6 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3366,10 +3073,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330490440"/>
+        <c:crossAx val="77221248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3408,13 +3114,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3438,12 +3143,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3451,24 +3156,14 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="4"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3487,13 +3182,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -3539,7 +3228,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3592,27 +3280,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:dropLines/>
-        <c:smooth val="0"/>
-        <c:axId val="330494472"/>
-        <c:axId val="330495048"/>
+        <c:marker val="1"/>
+        <c:axId val="95626752"/>
+        <c:axId val="95628672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330494472"/>
+        <c:axId val="95626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3641,25 +3322,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330495048"/>
+        <c:crossAx val="95628672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330495048"/>
+        <c:axId val="95628672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3683,28 +3360,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330494472"/>
+        <c:crossAx val="95626752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3712,24 +3384,12 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3795,17 +3455,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3856,7 +3510,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3923,17 +3576,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3984,27 +3631,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="348463688"/>
-        <c:axId val="348464264"/>
+        <c:axId val="96106752"/>
+        <c:axId val="96117120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348463688"/>
+        <c:axId val="96106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4032,7 +3671,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4042,7 +3681,6 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4074,22 +3712,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348464264"/>
+        <c:crossAx val="96117120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348464264"/>
+        <c:axId val="96117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4131,7 +3767,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4142,7 +3778,6 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4168,10 +3803,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348463688"/>
+        <c:crossAx val="96106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4185,7 +3820,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4210,13 +3845,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4240,12 +3874,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4253,24 +3887,12 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4336,17 +3958,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4397,7 +4013,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4464,17 +4079,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4525,27 +4134,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="348467720"/>
-        <c:axId val="348468296"/>
+        <c:axId val="97216000"/>
+        <c:axId val="97217920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348467720"/>
+        <c:axId val="97216000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4573,7 +4174,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4583,7 +4184,6 @@
           </c:spPr>
         </c:title>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4615,22 +4215,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348468296"/>
+        <c:crossAx val="97217920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348468296"/>
+        <c:axId val="97217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4672,7 +4270,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4683,7 +4281,6 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4709,10 +4306,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348467720"/>
+        <c:crossAx val="97216000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4726,7 +4323,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4751,13 +4348,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4781,12 +4377,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4794,24 +4390,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4835,13 +4419,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4878,7 +4456,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4903,13 +4480,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4946,27 +4517,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1686159944"/>
-        <c:axId val="1686160520"/>
+        <c:axId val="84468480"/>
+        <c:axId val="84470400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1686159944"/>
+        <c:axId val="84468480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4984,24 +4547,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686160520"/>
+        <c:crossAx val="84470400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1686160520"/>
+        <c:axId val="84470400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5020,28 +4578,526 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686159944"/>
+        <c:crossAx val="84468480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$43:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.019607843137251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.573770491803288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$43:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.755395683453238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="56922880"/>
+        <c:axId val="56925184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56922880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56925184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56925184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56922880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5049,24 +5105,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5090,13 +5134,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5133,7 +5171,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5158,13 +5195,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5201,27 +5232,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1686163976"/>
-        <c:axId val="1686164552"/>
+        <c:axId val="92451200"/>
+        <c:axId val="92453120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1686163976"/>
+        <c:axId val="92451200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5239,24 +5262,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686164552"/>
+        <c:crossAx val="92453120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1686164552"/>
+        <c:axId val="92453120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5275,28 +5293,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1686163976"/>
+        <c:crossAx val="92451200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5304,24 +5317,12 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5345,13 +5346,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5388,7 +5383,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5413,13 +5407,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5456,27 +5444,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1694499400"/>
-        <c:axId val="1694499976"/>
+        <c:axId val="92495232"/>
+        <c:axId val="92501504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1694499400"/>
+        <c:axId val="92495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5494,24 +5474,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694499976"/>
+        <c:crossAx val="92501504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1694499976"/>
+        <c:axId val="92501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5530,28 +5505,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694499400"/>
+        <c:crossAx val="92495232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5559,24 +5529,12 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5600,13 +5558,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5643,7 +5595,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5668,13 +5619,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5711,27 +5656,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1694503432"/>
-        <c:axId val="1694504008"/>
+        <c:axId val="92875776"/>
+        <c:axId val="92890240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1694503432"/>
+        <c:axId val="92875776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5749,24 +5686,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694504008"/>
+        <c:crossAx val="92890240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1694504008"/>
+        <c:axId val="92890240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5785,28 +5717,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694503432"/>
+        <c:crossAx val="92875776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5814,24 +5741,12 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5855,13 +5770,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5898,7 +5807,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5923,13 +5831,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5966,27 +5868,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1696350792"/>
-        <c:axId val="1696351368"/>
+        <c:axId val="92915968"/>
+        <c:axId val="92537216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696350792"/>
+        <c:axId val="92915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6004,24 +5898,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696351368"/>
+        <c:crossAx val="92537216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696351368"/>
+        <c:axId val="92537216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6040,28 +5929,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696350792"/>
+        <c:crossAx val="92915968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6069,24 +5953,12 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6110,13 +5982,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6153,7 +6019,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6178,13 +6043,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6221,27 +6080,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1696354824"/>
-        <c:axId val="1696355400"/>
+        <c:axId val="92595712"/>
+        <c:axId val="92597632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696354824"/>
+        <c:axId val="92595712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6259,24 +6110,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696355400"/>
+        <c:crossAx val="92597632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696355400"/>
+        <c:axId val="92597632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6295,28 +6141,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696354824"/>
+        <c:crossAx val="92595712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6324,24 +6165,12 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6365,13 +6194,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6408,7 +6231,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6433,13 +6255,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6476,27 +6292,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1696522824"/>
-        <c:axId val="1696523400"/>
+        <c:axId val="92959488"/>
+        <c:axId val="92961408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696522824"/>
+        <c:axId val="92959488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6514,24 +6322,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696523400"/>
+        <c:crossAx val="92961408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696523400"/>
+        <c:axId val="92961408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6550,28 +6353,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696522824"/>
+        <c:crossAx val="92959488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6579,24 +6377,12 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6620,13 +6406,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6663,7 +6443,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6688,13 +6467,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6731,27 +6504,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1696526856"/>
-        <c:axId val="1696527432"/>
+        <c:axId val="93048832"/>
+        <c:axId val="93050752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696526856"/>
+        <c:axId val="93048832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6769,24 +6534,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696527432"/>
+        <c:crossAx val="93050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696527432"/>
+        <c:axId val="93050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6805,28 +6565,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1696526856"/>
+        <c:crossAx val="93048832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7437,8 +7192,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7480,7 +7270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7512,10 +7302,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7547,7 +7336,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7723,7 +7511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7752,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
+    <row r="3" spans="1:14" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7794,7 +7582,7 @@
         <v>3.125</v>
       </c>
       <c r="F4" s="8">
-        <f>B4/G4*50</f>
+        <f t="shared" ref="F4:F10" si="0">B4/G4*50</f>
         <v>1.7857142857142856</v>
       </c>
       <c r="G4" s="4">
@@ -7812,15 +7600,15 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D10" si="0">LOG(B5)/LOG(2)+3</f>
+        <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E10" si="1">B5/C5*50</f>
+        <f t="shared" ref="E5:E10" si="2">B5/C5*50</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F7" si="2">B5/G5*50</f>
+        <f t="shared" si="0"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="G5" s="4">
@@ -7838,15 +7626,15 @@
         <v>17</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882351</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="2"/>
         <v>1.8518518518518516</v>
       </c>
       <c r="G6" s="4">
@@ -7864,15 +7652,15 @@
         <v>35</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="1"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="2"/>
         <v>1.8867924528301887</v>
       </c>
       <c r="G7" s="4">
@@ -7890,15 +7678,15 @@
         <v>69</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="1"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="F8" s="8">
-        <f>B8/G8*50</f>
         <v>2</v>
       </c>
       <c r="G8" s="4">
@@ -7916,15 +7704,15 @@
         <v>137</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="2"/>
+        <v>2.9197080291970803</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="1"/>
-        <v>2.9197080291970803</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9:F10" si="3">B9/G9*50</f>
         <v>2</v>
       </c>
       <c r="G9" s="4">
@@ -7942,15 +7730,15 @@
         <v>270</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.9629629629629632</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>2.9629629629629632</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="3"/>
         <v>1.9184652278177456</v>
       </c>
       <c r="G10" s="4">
@@ -8045,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E24" si="4">B18/C18*50</f>
+        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
         <v>3.6764705882352944</v>
       </c>
       <c r="F18" s="8">
@@ -8067,15 +7855,15 @@
         <v>6.8</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D24" si="5">LOG(B19)/LOG(2)+3</f>
+        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6764705882352944</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F24" si="6">B19/G19*50</f>
+        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="G19" s="4">
@@ -8093,15 +7881,15 @@
         <v>13.6</v>
       </c>
       <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>3.6764705882352944</v>
+      </c>
+      <c r="F20" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="4"/>
-        <v>3.6764705882352944</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="6"/>
         <v>2.6315789473684208</v>
       </c>
       <c r="G20" s="4">
@@ -8119,15 +7907,15 @@
         <v>27</v>
       </c>
       <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="4"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="6"/>
         <v>2.7027027027027026</v>
       </c>
       <c r="G21" s="4">
@@ -8145,11 +7933,11 @@
         <v>54</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="F22" s="8">
@@ -8171,15 +7959,15 @@
         <v>108</v>
       </c>
       <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="4"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="6"/>
         <v>2.7972027972027971</v>
       </c>
       <c r="G23" s="4">
@@ -8197,15 +7985,15 @@
         <v>213</v>
       </c>
       <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>3.755868544600939</v>
+      </c>
+      <c r="F24" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="4"/>
-        <v>3.755868544600939</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="6"/>
         <v>2.7972027972027971</v>
       </c>
       <c r="G24" s="4">
@@ -8233,26 +8021,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8266,7 +8054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -8333,11 +8121,11 @@
         <v>0.8</v>
       </c>
       <c r="D4" s="3">
-        <f>LOG(B4)/LOG(2)+3</f>
+        <f t="shared" ref="D4:D10" si="0">LOG(B4)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
+        <f t="shared" ref="E4:E10" si="1">B4/C4*50</f>
         <v>15.625</v>
       </c>
       <c r="F4" s="8">
@@ -8359,11 +8147,11 @@
         <v>2.1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D7" si="1">LOG(B5)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.904761904761903</v>
       </c>
       <c r="F5" s="8">
@@ -8385,11 +8173,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F6" s="8">
@@ -8411,11 +8199,11 @@
         <v>9.6</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
         <v>10.416666666666668</v>
       </c>
       <c r="F7" s="8">
@@ -8437,11 +8225,11 @@
         <v>19</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D10" si="3">LOG(B8)/LOG(2)+3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.526315789473683</v>
       </c>
       <c r="F8" s="8">
@@ -8463,11 +8251,11 @@
         <v>39</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.256410256410255</v>
       </c>
       <c r="F9" s="8">
@@ -8489,11 +8277,11 @@
         <v>75</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.666666666666668</v>
       </c>
       <c r="F10" s="8">
@@ -8582,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E24" si="4">B18/C18*50</f>
+        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
         <v>12.5</v>
       </c>
       <c r="F18" s="8">
@@ -8604,15 +8392,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D24" si="5">LOG(B19)/LOG(2)+3</f>
+        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F24" si="6">B19/G19*50</f>
+        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="G19" s="4">
@@ -8630,15 +8418,15 @@
         <v>5</v>
       </c>
       <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="6"/>
         <v>2.9411764705882351</v>
       </c>
       <c r="G20" s="4">
@@ -8656,15 +8444,15 @@
         <v>9</v>
       </c>
       <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="6"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="G21" s="4">
@@ -8682,15 +8470,15 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="F22" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="4"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="6"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="G22" s="4">
@@ -8708,15 +8496,15 @@
         <v>33</v>
       </c>
       <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="4"/>
-        <v>12.121212121212121</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="6"/>
         <v>2.9197080291970803</v>
       </c>
       <c r="G23" s="4">
@@ -8734,15 +8522,15 @@
         <v>65</v>
       </c>
       <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>12.307692307692308</v>
+      </c>
+      <c r="F24" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="4"/>
-        <v>12.307692307692308</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="6"/>
         <v>2.9629629629629632</v>
       </c>
       <c r="G24" s="4">
@@ -8770,16 +8558,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -8891,10 +8679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:H29"/>
     </sheetView>
   </sheetViews>
@@ -9389,16 +9177,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9411,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -9903,16 +9691,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9925,7 +9713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
@@ -11357,16 +11145,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11380,7 +11168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -12099,16 +11887,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12122,7 +11910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12611,16 +12399,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="120" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12633,14 +12421,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12652,10 +12444,10 @@
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -12663,7 +12455,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="54">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -12671,19 +12463,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12877,139 +12669,165 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
-      <c r="C15" s="10" t="s">
+    <row r="14" spans="1:7" ht="40.5">
+      <c r="C14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="54">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>127</v>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D17" s="3">
+        <f>LOG(B17)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ref="E17:E23" si="3">B17/C17*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="F17" s="8">
+        <f>B17/G17*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="4">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="D18" s="3">
-        <f>LOG(B18)/LOG(2)+3</f>
-        <v>1</v>
+        <f t="shared" ref="D18:D23" si="4">LOG(B18)/LOG(2)+3</f>
+        <v>2</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
-        <v>39.0625</v>
+        <f t="shared" si="3"/>
+        <v>49.019607843137251</v>
       </c>
       <c r="F18" s="8">
-        <f>B18/G18*50</f>
-        <v>15.625</v>
+        <f t="shared" ref="F18:F23" si="5">B18/G18*50</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="G18" s="4">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="3"/>
-        <v>49.019607843137251</v>
+        <v>56.81818181818182</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
+        <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G19" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
-        <v>0.88</v>
+        <v>1.6</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="3"/>
-        <v>56.81818181818182</v>
+        <v>62.5</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
       <c r="C21" s="4">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="3"/>
@@ -13020,103 +12838,563 @@
         <v>16.666666666666664</v>
       </c>
       <c r="G21" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>65.573770491803288</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="G22" s="4">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="3"/>
-        <v>65.573770491803288</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="5"/>
         <v>17.391304347826086</v>
       </c>
       <c r="G23" s="4">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.5">
+      <c r="C27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D30" s="3">
+        <f>LOG(B30)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ref="E30:E36" si="6">B30/C30*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F30" s="8">
+        <f>B30/G30*50</f>
+        <v>96.153846153846146</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:D36" si="7">LOG(B31)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="6"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ref="F31:F36" si="8">B31/G31*50</f>
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="6"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="8"/>
+        <v>102.04081632653062</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="6"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="8"/>
+        <v>107.5268817204301</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="8"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="8"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6">
         <v>7</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B36" s="3">
         <v>16</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C36" s="4">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="8"/>
+        <v>112.67605633802818</v>
+      </c>
+      <c r="G36" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="40.5">
+      <c r="C40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="27">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D43" s="3">
+        <f>LOG(B43)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ref="E43:E49" si="9">B43/C43*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="F43" s="8">
+        <f>B43/G43*50</f>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:D49" si="10">LOG(B44)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="9"/>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" ref="F44:F49" si="11">B44/G44*50</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="9"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="9"/>
+        <v>62.5</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="11"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G46" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="9"/>
+        <v>62.5</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="11"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="G47" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="9"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="11"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G48" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
         <v>12</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="4"/>
+      <c r="D49" s="3">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" si="3"/>
+      <c r="E49" s="8">
+        <f t="shared" si="9"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="5"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="G24" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="F49" s="8">
+        <f t="shared" si="11"/>
+        <v>5.755395683453238</v>
+      </c>
+      <c r="G49" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" spans="1:8" ht="145.5" customHeight="1">
+      <c r="A53" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A53:H53"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="8.问题规模与时间效率的关系-线程数目" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="147">
   <si>
     <t>表1.1</t>
   </si>
@@ -615,15 +614,61 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>多元素
+不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+多元素
+不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元素
+交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTS250</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GPU线程数目优化 结论： _x000D_
 1）时间效率，与问题规模相关，问题规模变化，时间效率增速：交替7%，不交替-20%（gts250）； _x000D__x000D_ _x000D_
-2）时间效率，多元素与单元素，效率翻倍提升。定量：200:x=y，63:x=y， 
-提升z%（gtx670）、z%（gts250）；
-3）时间效率，多元素交替与不交替，效率翻倍提升。定量：200:x=y，63:17=4(min 39:23=1.7,max 67:6=11)， 提升z%（gtx670）、70%~1000%（gts250）；
-4）时间效率，多元素不交替，GPU VS CPU = x:10=y，17:12=1.4， _x000D_
+2）时间效率，多元素交替与单元素，效率翻倍提升。定量：200:x=y，63:25=2.5， 
+提升z%（gtx670）、150%（gts250）；
+3）时间效率，多元素不交替与单元素，效率下滑。定量：x:x=y，17:25=0.7， 
+提升z%（gtx670）、-30%（gts250）；
+4）时间效率，多元素交替与不交替，效率翻倍提升。定量：200:x=y，63:17=4(min 39:23=1.7,max 67:6=11)， 提升z%（gtx670）、70%~1000%（gts250）；
+5）时间效率，GPU多元素不交替，GPU VS CPU = x:10=y，17:12=1.4， _x000D_
 提升z%（gtx670）、40%（gts250）；
-5）时间效率，单元素，GPU VS CPU = x:10=y，x:12=y， 
-提升z%（gtx670）、z%（gts250）；</t>
+6）时间效率，GPU单元素，效率翻倍提升，GPU VS CPU = x:10=y，25:12=2.1， 
+提升z%（gtx670）、110%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1029,11 +1074,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84391424"/>
-        <c:axId val="84393344"/>
+        <c:axId val="80308864"/>
+        <c:axId val="80319232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84391424"/>
+        <c:axId val="80308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,14 +1101,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84393344"/>
+        <c:crossAx val="80319232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84393344"/>
+        <c:axId val="80319232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1133,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84391424"/>
+        <c:crossAx val="80308864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,7 +1146,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,11 +1286,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93395968"/>
-        <c:axId val="93414528"/>
+        <c:axId val="80986496"/>
+        <c:axId val="80988416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93395968"/>
+        <c:axId val="80986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,14 +1313,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93414528"/>
+        <c:crossAx val="80988416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93414528"/>
+        <c:axId val="80988416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1345,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93395968"/>
+        <c:crossAx val="80986496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1358,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1453,11 +1498,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93448448"/>
-        <c:axId val="94769536"/>
+        <c:axId val="81087872"/>
+        <c:axId val="81110528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93448448"/>
+        <c:axId val="81087872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,14 +1525,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94769536"/>
+        <c:crossAx val="81110528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94769536"/>
+        <c:axId val="81110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1557,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93448448"/>
+        <c:crossAx val="81087872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,7 +1570,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1652,11 +1697,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94815360"/>
-        <c:axId val="94817280"/>
+        <c:axId val="81152256"/>
+        <c:axId val="81158528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94815360"/>
+        <c:axId val="81152256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,14 +1724,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94817280"/>
+        <c:crossAx val="81158528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94817280"/>
+        <c:axId val="81158528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1756,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94815360"/>
+        <c:crossAx val="81152256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,7 +1769,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1864,11 +1909,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94871936"/>
-        <c:axId val="94873856"/>
+        <c:axId val="81184256"/>
+        <c:axId val="81186176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94871936"/>
+        <c:axId val="81184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,14 +1936,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94873856"/>
+        <c:crossAx val="81186176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94873856"/>
+        <c:axId val="81186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1968,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94871936"/>
+        <c:crossAx val="81184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1936,7 +1981,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2076,11 +2121,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94895488"/>
-        <c:axId val="94914048"/>
+        <c:axId val="81310464"/>
+        <c:axId val="81312384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94895488"/>
+        <c:axId val="81310464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,14 +2148,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94914048"/>
+        <c:crossAx val="81312384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94914048"/>
+        <c:axId val="81312384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2180,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94895488"/>
+        <c:crossAx val="81310464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,7 +2193,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2408,11 +2453,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="95277440"/>
-        <c:axId val="95279360"/>
+        <c:axId val="81577472"/>
+        <c:axId val="81579392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95277440"/>
+        <c:axId val="81577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,14 +2531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95279360"/>
+        <c:crossAx val="81579392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95279360"/>
+        <c:axId val="81579392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95277440"/>
+        <c:crossAx val="81577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,7 +2693,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2908,11 +2953,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77221248"/>
-        <c:axId val="77260288"/>
+        <c:axId val="81453824"/>
+        <c:axId val="81455744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77221248"/>
+        <c:axId val="81453824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,14 +3031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77260288"/>
+        <c:crossAx val="81455744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77260288"/>
+        <c:axId val="81455744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77221248"/>
+        <c:crossAx val="81453824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3148,7 +3193,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3286,11 +3331,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="95626752"/>
-        <c:axId val="95628672"/>
+        <c:axId val="81603200"/>
+        <c:axId val="81621760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95626752"/>
+        <c:axId val="81603200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,14 +3371,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95628672"/>
+        <c:crossAx val="81621760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95628672"/>
+        <c:axId val="81621760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3408,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95626752"/>
+        <c:crossAx val="81603200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3376,7 +3421,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3636,11 +3681,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="96106752"/>
-        <c:axId val="96117120"/>
+        <c:axId val="81751424"/>
+        <c:axId val="81774080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96106752"/>
+        <c:axId val="81751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,14 +3760,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96117120"/>
+        <c:crossAx val="81774080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96117120"/>
+        <c:axId val="81774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,7 +3851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96106752"/>
+        <c:crossAx val="81751424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3879,7 +3924,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4139,11 +4184,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="97216000"/>
-        <c:axId val="97217920"/>
+        <c:axId val="81685120"/>
+        <c:axId val="81703680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97216000"/>
+        <c:axId val="81685120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,14 +4263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97217920"/>
+        <c:crossAx val="81703680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97217920"/>
+        <c:axId val="81703680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4354,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97216000"/>
+        <c:crossAx val="81685120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4382,7 +4427,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4522,11 +4567,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84468480"/>
-        <c:axId val="84470400"/>
+        <c:axId val="79968128"/>
+        <c:axId val="79982592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84468480"/>
+        <c:axId val="79968128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,14 +4594,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84470400"/>
+        <c:crossAx val="79982592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84470400"/>
+        <c:axId val="79982592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,7 +4626,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84468480"/>
+        <c:crossAx val="79968128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4594,7 +4639,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4854,11 +4899,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="56922880"/>
-        <c:axId val="56925184"/>
+        <c:axId val="81922304"/>
+        <c:axId val="81940864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56922880"/>
+        <c:axId val="81922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,14 +4978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56925184"/>
+        <c:crossAx val="81940864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56925184"/>
+        <c:axId val="81940864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5069,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56922880"/>
+        <c:crossAx val="81922304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5097,7 +5142,1609 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多元素
+不交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$17:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.755395683453238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单元素</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$17:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.806451612903224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多元素
+交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$17:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.019607843137251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.573770491803288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="102917248"/>
+        <c:axId val="102919168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102917248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102919168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102919168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102917248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多元素</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.41379310344828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.18518518518516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>单元素</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>96.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.04081632653062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.5268817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67605633802818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>多元素
+交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.41379310344828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.18518518518516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="157201920"/>
+        <c:axId val="157203840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="157201920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157203840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157203840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157201920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$30:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.41379310344828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.18518518518516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不交替</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$30:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>96.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.04081632653062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.5268817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67605633802818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="156234112"/>
+        <c:axId val="156236032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156234112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156236032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156236032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156234112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5237,11 +6884,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92451200"/>
-        <c:axId val="92453120"/>
+        <c:axId val="80516608"/>
+        <c:axId val="80518528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92451200"/>
+        <c:axId val="80516608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5264,14 +6911,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92453120"/>
+        <c:crossAx val="80518528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92453120"/>
+        <c:axId val="80518528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5296,7 +6943,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92451200"/>
+        <c:crossAx val="80516608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5309,7 +6956,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5449,11 +7096,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92495232"/>
-        <c:axId val="92501504"/>
+        <c:axId val="80556800"/>
+        <c:axId val="80558720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92495232"/>
+        <c:axId val="80556800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,14 +7123,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92501504"/>
+        <c:crossAx val="80558720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92501504"/>
+        <c:axId val="80558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,7 +7155,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92495232"/>
+        <c:crossAx val="80556800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5521,7 +7168,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5661,11 +7308,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92875776"/>
-        <c:axId val="92890240"/>
+        <c:axId val="80630144"/>
+        <c:axId val="80632064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92875776"/>
+        <c:axId val="80630144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,16 +7333,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92890240"/>
+        <c:crossAx val="80632064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92890240"/>
+        <c:axId val="80632064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5717,23 +7365,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92875776"/>
+        <c:crossAx val="80630144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5873,11 +7523,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92915968"/>
-        <c:axId val="92537216"/>
+        <c:axId val="80645504"/>
+        <c:axId val="80754176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92915968"/>
+        <c:axId val="80645504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5900,14 +7550,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92537216"/>
+        <c:crossAx val="80754176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92537216"/>
+        <c:axId val="80754176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +7582,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92915968"/>
+        <c:crossAx val="80645504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5945,7 +7595,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6085,11 +7735,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92595712"/>
-        <c:axId val="92597632"/>
+        <c:axId val="80824960"/>
+        <c:axId val="80847616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92595712"/>
+        <c:axId val="80824960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,14 +7762,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92597632"/>
+        <c:crossAx val="80847616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92597632"/>
+        <c:axId val="80847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +7794,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92595712"/>
+        <c:crossAx val="80824960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6157,7 +7807,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6297,11 +7947,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92959488"/>
-        <c:axId val="92961408"/>
+        <c:axId val="80873344"/>
+        <c:axId val="80879616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92959488"/>
+        <c:axId val="80873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,16 +7972,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92961408"/>
+        <c:crossAx val="80879616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92961408"/>
+        <c:axId val="80879616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,23 +8004,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92959488"/>
+        <c:crossAx val="80873344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6509,11 +8162,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93048832"/>
-        <c:axId val="93050752"/>
+        <c:axId val="80942208"/>
+        <c:axId val="80944128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93048832"/>
+        <c:axId val="80942208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,14 +8189,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93050752"/>
+        <c:crossAx val="80944128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93050752"/>
+        <c:axId val="80944128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,7 +8221,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93048832"/>
+        <c:crossAx val="80942208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6581,7 +8234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7224,6 +8877,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12422,10 +14165,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:H53"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12434,9 +14177,10 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5">
+    <row r="1" spans="1:15" ht="40.5">
       <c r="C1" s="10" t="s">
         <v>121</v>
       </c>
@@ -12451,11 +14195,11 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -12477,8 +14221,14 @@
       <c r="G3" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -12503,8 +14253,15 @@
       <c r="G4" s="4">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="8">
+        <f>B4/I4*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -12529,8 +14286,15 @@
       <c r="G5" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H10" si="3">B5/I5*50</f>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -12555,8 +14319,15 @@
       <c r="G6" s="4">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="8">
+        <f t="shared" si="3"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -12581,8 +14352,15 @@
       <c r="G7" s="4">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -12607,8 +14385,15 @@
       <c r="G8" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="8">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -12633,8 +14418,15 @@
       <c r="G9" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="8">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -12659,8 +14451,15 @@
       <c r="G10" s="4">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="8">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -12668,8 +14467,17 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.5">
+      <c r="M11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="40.5">
       <c r="C14" s="10" t="s">
         <v>123</v>
       </c>
@@ -12679,16 +14487,14 @@
       <c r="E14" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="F14" s="25"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:15">
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="27">
+    <row r="16" spans="1:15" ht="40.5">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -12696,13 +14502,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>127</v>
@@ -12710,8 +14516,14 @@
       <c r="G16" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -12719,15 +14531,15 @@
         <v>0.25</v>
       </c>
       <c r="C17" s="4">
-        <v>0.32</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D17" s="3">
         <f>LOG(B17)/LOG(2)+3</f>
         <v>1</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E23" si="3">B17/C17*50</f>
-        <v>39.0625</v>
+        <f t="shared" ref="E17:E23" si="4">B17/C17*50</f>
+        <v>22.727272727272727</v>
       </c>
       <c r="F17" s="8">
         <f>B17/G17*50</f>
@@ -12736,8 +14548,15 @@
       <c r="G17" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="8">
+        <f>B17/I17*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -12745,25 +14564,32 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="4">
-        <v>0.51</v>
+        <v>1.7</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D23" si="4">LOG(B18)/LOG(2)+3</f>
+        <f t="shared" ref="D18:D23" si="5">LOG(B18)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="3"/>
-        <v>49.019607843137251</v>
+        <f t="shared" si="4"/>
+        <v>14.705882352941178</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F23" si="5">B18/G18*50</f>
+        <f t="shared" ref="F18:F23" si="6">B18/G18*50</f>
         <v>16.666666666666664</v>
       </c>
       <c r="G18" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:H23" si="7">B18/I18*50</f>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -12771,25 +14597,32 @@
         <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>0.88</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="3"/>
-        <v>56.81818181818182</v>
+        <v>12.5</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="8">
+        <f t="shared" si="7"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -12797,25 +14630,32 @@
         <v>2</v>
       </c>
       <c r="C20" s="4">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="4"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="7"/>
+        <v>62.5</v>
+      </c>
+      <c r="I20" s="4">
         <v>1.6</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -12823,25 +14663,32 @@
         <v>4</v>
       </c>
       <c r="C21" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="4"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="7"/>
+        <v>62.5</v>
+      </c>
+      <c r="I21" s="4">
         <v>3.2</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G21" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -12849,25 +14696,32 @@
         <v>8</v>
       </c>
       <c r="C22" s="4">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="4"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="4">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="7"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="I22" s="4">
         <v>6.1</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="3"/>
-        <v>65.573770491803288</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="5"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="G22" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="6">
         <v>7</v>
       </c>
@@ -12875,25 +14729,32 @@
         <v>16</v>
       </c>
       <c r="C23" s="4">
+        <v>139</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="4"/>
+        <v>5.755395683453238</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>25.806451612903224</v>
+      </c>
+      <c r="G23" s="4">
+        <v>31</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="7"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I23" s="4">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="5"/>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="G23" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
@@ -12901,8 +14762,17 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="M24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -12911,7 +14781,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5">
+    <row r="27" spans="1:15" ht="40.5">
       <c r="C27" s="10" t="s">
         <v>129</v>
       </c>
@@ -12926,11 +14796,11 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:15">
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="46.5" customHeight="1">
+    <row r="29" spans="1:15" ht="46.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -12954,7 +14824,7 @@
       </c>
       <c r="H29" s="37"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:15">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -12969,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:E36" si="6">B30/C30*50</f>
+        <f t="shared" ref="E30:E36" si="8">B30/C30*50</f>
         <v>156.25</v>
       </c>
       <c r="F30" s="8">
@@ -12980,7 +14850,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:15">
       <c r="A31" s="6">
         <v>2</v>
       </c>
@@ -12991,22 +14861,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ref="D31:D36" si="7">LOG(B31)/LOG(2)+3</f>
+        <f t="shared" ref="D31:D36" si="9">LOG(B31)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>178.57142857142856</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ref="F31:F36" si="8">B31/G31*50</f>
+        <f t="shared" ref="F31:F36" si="10">B31/G31*50</f>
         <v>100</v>
       </c>
       <c r="G31" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:15">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -13017,22 +14887,22 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>172.41379310344828</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102.04081632653062</v>
       </c>
       <c r="G32" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:13">
       <c r="A33" s="6">
         <v>4</v>
       </c>
@@ -13043,22 +14913,22 @@
         <v>0.54</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>185.18518518518516</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107.5268817204301</v>
       </c>
       <c r="G33" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:13">
       <c r="A34" s="6">
         <v>5</v>
       </c>
@@ -13069,22 +14939,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>111.11111111111111</v>
       </c>
       <c r="G34" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:13">
       <c r="A35" s="6">
         <v>6</v>
       </c>
@@ -13095,22 +14965,22 @@
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>111.11111111111111</v>
       </c>
       <c r="G35" s="4">
         <v>3.6</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:13">
       <c r="A36" s="6">
         <v>7</v>
       </c>
@@ -13121,22 +14991,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>112.67605633802818</v>
       </c>
       <c r="G36" s="4">
         <v>7.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:13">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
@@ -13144,8 +15014,17 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="40.5">
+      <c r="K37" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="40.5">
       <c r="C40" s="10" t="s">
         <v>130</v>
       </c>
@@ -13158,11 +15037,11 @@
       <c r="F40" s="25"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:13">
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="27">
+    <row r="42" spans="1:13" ht="27">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -13185,7 +15064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:13">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -13200,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" ref="E43:E49" si="9">B43/C43*50</f>
+        <f t="shared" ref="E43:E49" si="11">B43/C43*50</f>
         <v>39.0625</v>
       </c>
       <c r="F43" s="8">
@@ -13211,7 +15090,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:13">
       <c r="A44" s="6">
         <v>2</v>
       </c>
@@ -13222,22 +15101,22 @@
         <v>0.51</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" ref="D44:D49" si="10">LOG(B44)/LOG(2)+3</f>
+        <f t="shared" ref="D44:D49" si="12">LOG(B44)/LOG(2)+3</f>
         <v>2</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49.019607843137251</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" ref="F44:F49" si="11">B44/G44*50</f>
+        <f t="shared" ref="F44:F49" si="13">B44/G44*50</f>
         <v>14.705882352941178</v>
       </c>
       <c r="G44" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:13">
       <c r="A45" s="6">
         <v>3</v>
       </c>
@@ -13248,22 +15127,22 @@
         <v>0.88</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56.81818181818182</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
       <c r="G45" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:13">
       <c r="A46" s="6">
         <v>4</v>
       </c>
@@ -13274,22 +15153,22 @@
         <v>1.6</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62.5</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G46" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:13">
       <c r="A47" s="6">
         <v>5</v>
       </c>
@@ -13300,22 +15179,22 @@
         <v>3.2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62.5</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.181818181818183</v>
       </c>
       <c r="G47" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:13">
       <c r="A48" s="6">
         <v>6</v>
       </c>
@@ -13326,22 +15205,22 @@
         <v>6.1</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>65.573770491803288</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11.111111111111111</v>
       </c>
       <c r="G48" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:13">
       <c r="A49" s="6">
         <v>7</v>
       </c>
@@ -13352,22 +15231,33 @@
         <v>12</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>66.666666666666657</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.755395683453238</v>
       </c>
       <c r="G49" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="50" spans="1:13">
+      <c r="K50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" t="s">
+        <v>140</v>
+      </c>
+      <c r="M50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -13376,9 +15266,9 @@
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
     </row>
-    <row r="53" spans="1:8" ht="145.5" customHeight="1">
+    <row r="53" spans="1:13" ht="194.25" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
     <sheet name="8.问题规模与时间效率的关系-线程数目" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>表1.1</t>
   </si>
@@ -551,9 +551,6 @@
     <t>表8.1</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>表8.2</t>
   </si>
   <si>
@@ -563,54 +560,12 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>时间(ms)
-多元素</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多元素</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>单元素</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间(ms)
 VS 单元素</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表8.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表8.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>交替
-VS
-不交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 不交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题规模
-log2(N)+3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -642,10 +597,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表8.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>表8.1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -654,21 +605,17 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表8.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU线程数目优化 结论： _x000D_
-1）时间效率，与问题规模相关，问题规模变化，时间效率增速：交替7%，不交替-20%（gts250）； _x000D__x000D_ _x000D_
-2）时间效率，多元素交替与单元素，效率翻倍提升。定量：200:x=y，63:25=2.5， 
-提升z%（gtx670）、150%（gts250）；
-3）时间效率，多元素不交替与单元素，效率下滑。定量：x:x=y，17:25=0.7， 
-提升z%（gtx670）、-30%（gts250）；
-4）时间效率，多元素交替与不交替，效率翻倍提升。定量：200:x=y，63:17=4(min 39:23=1.7,max 67:6=11)， 提升z%（gtx670）、70%~1000%（gts250）；
-5）时间效率，GPU多元素不交替，GPU VS CPU = x:10=y，17:12=1.4， _x000D_
-提升z%（gtx670）、40%（gts250）；
-6）时间效率，GPU单元素，效率翻倍提升，GPU VS CPU = x:10=y，25:12=2.1， 
-提升z%（gtx670）、110%（gts250）；</t>
+1）时间效率，与问题规模相关，问题规模变化，时间效率增速：交替7%不交替-20%（gts250）、交替4%不交替-7%（gtx670）； _x000D__x000D_ _x000D_
+2）时间效率，多元素交替与单元素，效率翻倍提升。定量：200:159=1.3，63:25=2.5， 
+提升30%%（gtx670）、150%（gts250）；
+3）时间效率，多元素不交替与单元素，效率下滑。定量：15:185=0.1，17:25=0.7， 
+提升-90%（gtx670）、-30%（gts250）；
+4）时间效率，多元素交替与不交替，效率翻倍提升。定量：(min 156:24.5=6,max 200:15.4=13)，(min 39:23=1.7,max 67:6=11)， 提升500%~1200%（gtx670）、70%~1000%（gts250）；
+5）时间效率，GPU多元素不交替，GPU VS CPU = 15:10=1.5，17:12=1.4， _x000D_
+提升50%（gtx670）、40%（gts250）；
+6）时间效率，GPU单元素，效率翻倍提升，GPU VS CPU = 160:10=16，25:12=2.1， 
+提升1500%（gtx670）、110%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1074,11 +1021,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80308864"/>
-        <c:axId val="80319232"/>
+        <c:axId val="159299456"/>
+        <c:axId val="159309824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80308864"/>
+        <c:axId val="159299456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1048,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80319232"/>
+        <c:crossAx val="159309824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80319232"/>
+        <c:axId val="159309824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1080,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80308864"/>
+        <c:crossAx val="159299456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,7 +1093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1286,11 +1233,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80986496"/>
-        <c:axId val="80988416"/>
+        <c:axId val="161677312"/>
+        <c:axId val="161679232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80986496"/>
+        <c:axId val="161677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +1260,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80988416"/>
+        <c:crossAx val="161679232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80988416"/>
+        <c:axId val="161679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1292,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80986496"/>
+        <c:crossAx val="161677312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,7 +1305,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1498,11 +1445,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81087872"/>
-        <c:axId val="81110528"/>
+        <c:axId val="161717248"/>
+        <c:axId val="161723520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81087872"/>
+        <c:axId val="161717248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,14 +1472,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81110528"/>
+        <c:crossAx val="161723520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81110528"/>
+        <c:axId val="161723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1504,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81087872"/>
+        <c:crossAx val="161717248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,7 +1517,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1697,11 +1644,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81152256"/>
-        <c:axId val="81158528"/>
+        <c:axId val="162027392"/>
+        <c:axId val="162037760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81152256"/>
+        <c:axId val="162027392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,14 +1671,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81158528"/>
+        <c:crossAx val="162037760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81158528"/>
+        <c:axId val="162037760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1703,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81152256"/>
+        <c:crossAx val="162027392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,7 +1716,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1909,11 +1856,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81184256"/>
-        <c:axId val="81186176"/>
+        <c:axId val="162137216"/>
+        <c:axId val="162139136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81184256"/>
+        <c:axId val="162137216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,14 +1883,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81186176"/>
+        <c:crossAx val="162139136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81186176"/>
+        <c:axId val="162139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +1915,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81184256"/>
+        <c:crossAx val="162137216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,7 +1928,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2121,11 +2068,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81310464"/>
-        <c:axId val="81312384"/>
+        <c:axId val="162181504"/>
+        <c:axId val="162183424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81310464"/>
+        <c:axId val="162181504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,14 +2095,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81312384"/>
+        <c:crossAx val="162183424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81312384"/>
+        <c:axId val="162183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2127,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81310464"/>
+        <c:crossAx val="162181504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2193,7 +2140,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2453,11 +2400,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81577472"/>
-        <c:axId val="81579392"/>
+        <c:axId val="162985088"/>
+        <c:axId val="162987008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81577472"/>
+        <c:axId val="162985088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,14 +2478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81579392"/>
+        <c:crossAx val="162987008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81579392"/>
+        <c:axId val="162987008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81577472"/>
+        <c:crossAx val="162985088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,7 +2640,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2953,11 +2900,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81453824"/>
-        <c:axId val="81455744"/>
+        <c:axId val="162992512"/>
+        <c:axId val="162994432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81453824"/>
+        <c:axId val="162992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,14 +2978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81455744"/>
+        <c:crossAx val="162994432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81455744"/>
+        <c:axId val="162994432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81453824"/>
+        <c:crossAx val="162992512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3193,7 +3140,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3331,11 +3278,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="81603200"/>
-        <c:axId val="81621760"/>
+        <c:axId val="163010816"/>
+        <c:axId val="163025280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81603200"/>
+        <c:axId val="163010816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,14 +3318,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81621760"/>
+        <c:crossAx val="163025280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81621760"/>
+        <c:axId val="163025280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +3355,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81603200"/>
+        <c:crossAx val="163010816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3421,7 +3368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3681,11 +3628,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81751424"/>
-        <c:axId val="81774080"/>
+        <c:axId val="163101696"/>
+        <c:axId val="163107968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81751424"/>
+        <c:axId val="163101696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,14 +3707,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81774080"/>
+        <c:crossAx val="163107968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81774080"/>
+        <c:axId val="163107968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81751424"/>
+        <c:crossAx val="163101696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3924,7 +3871,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4184,11 +4131,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="81685120"/>
-        <c:axId val="81703680"/>
+        <c:axId val="163150080"/>
+        <c:axId val="163156352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81685120"/>
+        <c:axId val="163150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,14 +4210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81703680"/>
+        <c:crossAx val="163156352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81703680"/>
+        <c:axId val="163156352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81685120"/>
+        <c:crossAx val="163150080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4427,7 +4374,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4567,11 +4514,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79968128"/>
-        <c:axId val="79982592"/>
+        <c:axId val="160597120"/>
+        <c:axId val="160599040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79968128"/>
+        <c:axId val="160597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,14 +4541,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79982592"/>
+        <c:crossAx val="160599040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79982592"/>
+        <c:axId val="160599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4573,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79968128"/>
+        <c:crossAx val="160597120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4639,516 +4586,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>交替</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$43:$E$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>39.0625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.019607843137251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.81818181818182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.573770491803288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.666666666666657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不交替</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$43:$F$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.705882352941178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.755395683453238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="81922304"/>
-        <c:axId val="81940864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="81922304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>问题规模</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81940864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81940864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>时间效率</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81922304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -5414,6 +4858,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$17:$H$23</c:f>
@@ -5449,11 +4896,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="102917248"/>
-        <c:axId val="102919168"/>
+        <c:axId val="163924224"/>
+        <c:axId val="163942784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102917248"/>
+        <c:axId val="163924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5528,14 +4975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102919168"/>
+        <c:crossAx val="163942784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102919168"/>
+        <c:axId val="163942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +5066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102917248"/>
+        <c:crossAx val="163924224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5692,13 +5139,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -5715,7 +5162,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>多元素</c:v>
+                  <c:v>多元素
+不交替</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5803,25 +5251,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>156.25</c:v>
+                  <c:v>24.509803921568626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.57142857142856</c:v>
+                  <c:v>23.584905660377355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.41379310344828</c:v>
+                  <c:v>23.364485981308412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.18518518518516</c:v>
+                  <c:v>14.577259475218657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>15.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>17.391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,6 +5314,83 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.4444444444444442E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.999999999999995E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.1111111111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.1"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.11666666666666667"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8246072431041104E-17"/>
+                  <c:y val="0.11666666666666664"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.10555555555555556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showVal val="1"/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5924,25 +5449,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>138.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
+                  <c:v>151.5151515151515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
+                  <c:v>158.73015873015873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>165.28925619834712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>168.77637130801685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
+                  <c:v>170.57569296375266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5963,6 +5488,79 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0914560770156413E-2"/>
+                  <c:y val="-0.05"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6474127557160047E-2"/>
+                  <c:y val="-5.000000000000001E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4067388688327317E-2"/>
+                  <c:y val="-7.2222222222222215E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.684717208182912E-2"/>
+                  <c:y val="-5.5555555555555566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4440433212996302E-2"/>
+                  <c:y val="-4.4444444444444432E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8880866425992781E-2"/>
+                  <c:y val="-4.9999999999999989E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8507821901323708E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$4:$H$10</c:f>
@@ -5998,11 +5596,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="157201920"/>
-        <c:axId val="157203840"/>
+        <c:axId val="163515008"/>
+        <c:axId val="163541760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157201920"/>
+        <c:axId val="163515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,14 +5675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157203840"/>
+        <c:crossAx val="163541760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157203840"/>
+        <c:axId val="163541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,7 +5766,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157201920"/>
+        <c:crossAx val="163515008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6241,510 +5839,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>交替</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$30:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>156.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>178.57142857142856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>172.41379310344828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>185.18518518518516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>不交替</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showVal val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$30:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="156234112"/>
-        <c:axId val="156236032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156234112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>问题规模</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156236032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156236032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>时间效率</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156234112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6884,11 +5979,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80516608"/>
-        <c:axId val="80518528"/>
+        <c:axId val="159351552"/>
+        <c:axId val="159353472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80516608"/>
+        <c:axId val="159351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,14 +6006,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80518528"/>
+        <c:crossAx val="159353472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80518528"/>
+        <c:axId val="159353472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,7 +6038,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80516608"/>
+        <c:crossAx val="159351552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6956,7 +6051,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7096,11 +6191,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80556800"/>
-        <c:axId val="80558720"/>
+        <c:axId val="160661504"/>
+        <c:axId val="160663424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80556800"/>
+        <c:axId val="160661504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7123,14 +6218,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80558720"/>
+        <c:crossAx val="160663424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80558720"/>
+        <c:axId val="160663424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,7 +6250,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80556800"/>
+        <c:crossAx val="160661504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7168,7 +6263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7308,11 +6403,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80630144"/>
-        <c:axId val="80632064"/>
+        <c:axId val="160984448"/>
+        <c:axId val="160994816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80630144"/>
+        <c:axId val="160984448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,17 +6428,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80632064"/>
+        <c:crossAx val="160994816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80632064"/>
+        <c:axId val="160994816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,25 +6459,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80630144"/>
+        <c:crossAx val="160984448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7523,11 +6615,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80645504"/>
-        <c:axId val="80754176"/>
+        <c:axId val="161012352"/>
+        <c:axId val="161104640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80645504"/>
+        <c:axId val="161012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7550,14 +6642,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80754176"/>
+        <c:crossAx val="161104640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80754176"/>
+        <c:axId val="161104640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7582,7 +6674,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80645504"/>
+        <c:crossAx val="161012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7595,7 +6687,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7735,11 +6827,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80824960"/>
-        <c:axId val="80847616"/>
+        <c:axId val="161184000"/>
+        <c:axId val="161190272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80824960"/>
+        <c:axId val="161184000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7762,14 +6854,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80847616"/>
+        <c:crossAx val="161190272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80847616"/>
+        <c:axId val="161190272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7794,7 +6886,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80824960"/>
+        <c:crossAx val="161184000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7807,7 +6899,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7947,11 +7039,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80873344"/>
-        <c:axId val="80879616"/>
+        <c:axId val="161486336"/>
+        <c:axId val="161488256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80873344"/>
+        <c:axId val="161486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,17 +7064,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80879616"/>
+        <c:crossAx val="161488256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80879616"/>
+        <c:axId val="161488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,25 +7095,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80873344"/>
+        <c:crossAx val="161486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8162,11 +7251,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80942208"/>
-        <c:axId val="80944128"/>
+        <c:axId val="161633024"/>
+        <c:axId val="161634944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80942208"/>
+        <c:axId val="161633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8189,14 +7278,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80944128"/>
+        <c:crossAx val="161634944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80944128"/>
+        <c:axId val="161634944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8221,7 +7310,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80942208"/>
+        <c:crossAx val="161633024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8234,7 +7323,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8849,36 +7938,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -8901,7 +7960,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8931,37 +7990,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13656,7 +12685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -14165,15 +13194,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -14188,18 +13217,16 @@
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:15">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="27">
+    <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -14207,7 +13234,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -14216,13 +13243,13 @@
         <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>84</v>
@@ -14236,7 +13263,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="4">
-        <v>0.08</v>
+        <v>0.51</v>
       </c>
       <c r="D4" s="3">
         <f>LOG(B4)/LOG(2)+3</f>
@@ -14244,14 +13271,14 @@
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
-        <v>156.25</v>
+        <v>24.509803921568626</v>
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
-        <v>96.153846153846146</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="8">
         <f>B4/I4*50</f>
@@ -14269,7 +13296,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.14000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
@@ -14277,14 +13304,14 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>178.57142857142856</v>
+        <v>23.584905660377355</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
-        <v>100</v>
+        <v>138.88888888888889</v>
       </c>
       <c r="G5" s="4">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" ref="H5:H10" si="3">B5/I5*50</f>
@@ -14302,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.28999999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -14310,14 +13337,14 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>172.41379310344828</v>
+        <v>23.364485981308412</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>102.04081632653062</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="G6" s="4">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="3"/>
@@ -14335,7 +13362,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.54</v>
+        <v>6.86</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -14343,14 +13370,14 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>185.18518518518516</v>
+        <v>14.577259475218657</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>107.5268817204301</v>
+        <v>158.73015873015873</v>
       </c>
       <c r="G7" s="4">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
@@ -14368,7 +13395,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -14376,14 +13403,14 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>111.11111111111111</v>
+        <v>165.28925619834712</v>
       </c>
       <c r="G8" s="4">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="3"/>
@@ -14401,7 +13428,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -14409,14 +13436,14 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>111.11111111111111</v>
+        <v>168.77637130801685</v>
       </c>
       <c r="G9" s="4">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="3"/>
@@ -14434,7 +13461,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -14442,14 +13469,14 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>112.67605633802818</v>
+        <v>170.57569296375266</v>
       </c>
       <c r="G10" s="4">
-        <v>7.1</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="3"/>
@@ -14468,24 +13495,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="7"/>
@@ -14502,22 +13529,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>84</v>
@@ -14763,13 +13790,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -14781,506 +13808,30 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="40.5">
-      <c r="C27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
     <row r="28" spans="1:15">
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:15" ht="194.25" customHeight="1">
+      <c r="A29" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="D30" s="3">
-        <f>LOG(B30)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" ref="E30:E36" si="8">B30/C30*50</f>
-        <v>156.25</v>
-      </c>
-      <c r="F30" s="8">
-        <f>B30/G30*50</f>
-        <v>96.153846153846146</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" ref="D31:D36" si="9">LOG(B31)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="8"/>
-        <v>178.57142857142856</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" ref="F31:F36" si="10">B31/G31*50</f>
-        <v>100</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="6">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="8"/>
-        <v>172.41379310344828</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="10"/>
-        <v>102.04081632653062</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="8"/>
-        <v>185.18518518518516</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="10"/>
-        <v>107.5268817204301</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="6">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="10"/>
-        <v>111.11111111111111</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="6">
-        <v>6</v>
-      </c>
-      <c r="B35" s="3">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="10"/>
-        <v>111.11111111111111</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="6">
-        <v>7</v>
-      </c>
-      <c r="B36" s="3">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="10"/>
-        <v>112.67605633802818</v>
-      </c>
-      <c r="G36" s="4">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="K37" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" t="s">
-        <v>140</v>
-      </c>
-      <c r="M37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="40.5">
-      <c r="C40" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" ht="27">
-      <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="D43" s="3">
-        <f>LOG(B43)/LOG(2)+3</f>
-        <v>1</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" ref="E43:E49" si="11">B43/C43*50</f>
-        <v>39.0625</v>
-      </c>
-      <c r="F43" s="8">
-        <f>B43/G43*50</f>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="6">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" ref="D44:D49" si="12">LOG(B44)/LOG(2)+3</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" si="11"/>
-        <v>49.019607843137251</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" ref="F44:F49" si="13">B44/G44*50</f>
-        <v>14.705882352941178</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="6">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" si="11"/>
-        <v>56.81818181818182</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="13"/>
-        <v>12.5</v>
-      </c>
-      <c r="G45" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="6">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3">
-        <v>2</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="E46" s="8">
-        <f t="shared" si="11"/>
-        <v>62.5</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="13"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="6">
-        <v>5</v>
-      </c>
-      <c r="B47" s="3">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" si="11"/>
-        <v>62.5</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="13"/>
-        <v>18.181818181818183</v>
-      </c>
-      <c r="G47" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="6">
-        <v>6</v>
-      </c>
-      <c r="B48" s="3">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" si="11"/>
-        <v>65.573770491803288</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="13"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="G48" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6">
-        <v>7</v>
-      </c>
-      <c r="B49" s="3">
-        <v>16</v>
-      </c>
-      <c r="C49" s="4">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="11"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="13"/>
-        <v>5.755395683453238</v>
-      </c>
-      <c r="G49" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="K50" t="s">
-        <v>142</v>
-      </c>
-      <c r="L50" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-    </row>
-    <row r="53" spans="1:13" ht="194.25" customHeight="1">
-      <c r="A53" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="5.问题规模与时间效率的关系-拆分" sheetId="7" r:id="rId5"/>
     <sheet name="6.问题规模与时间效率的关系-常量" sheetId="5" r:id="rId6"/>
     <sheet name="7.问题规模与时间效率的关系-共享" sheetId="6" r:id="rId7"/>
-    <sheet name="8.问题规模与时间效率的关系-线程数目" sheetId="8" r:id="rId8"/>
+    <sheet name="8.问题规模与时间效率的关系-多元素" sheetId="8" r:id="rId8"/>
+    <sheet name="9.问题规模与时间效率的关系-空间换时间" sheetId="12" r:id="rId9"/>
+    <sheet name="10.VisualProfiler&amp;OccupancyCalc" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
   <si>
     <t>表1.1</t>
   </si>
@@ -605,7 +607,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU线程数目优化 结论： _x000D_
+    <t>GPU每个线程处理多个元素 结论： _x000D_
 1）时间效率，与问题规模相关，问题规模变化，时间效率增速：交替7%不交替-20%（gts250）、交替4%不交替-7%（gtx670）； _x000D__x000D_ _x000D_
 2）时间效率，多元素交替与单元素，效率翻倍提升。定量：200:159=1.3，63:25=2.5， 
 提升30%%（gtx670）、150%（gts250）；
@@ -618,16 +620,168 @@
 提升1500%（gtx670）、110%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>表9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+GPU最优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率
+GPU最优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+CPU最优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率
+CPU最优</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU
+CPU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gts 250
+i7 870</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+CPU初始</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率
+CPU初始</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">效率倍数
+GPU vs CPU 最优 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">效率倍数
+GPU vs CPU 初始 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gtx670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU: 
+i7 870</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU: 
+i7 3770K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtx 670
+i7 3770K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量
+Mbytes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换时间
+VS
+不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间换时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+空间换时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现数据量
+Mbytes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原数据量
+Mbytes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU显存空间换时间 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
+2）时间效率，空间换时间与不换，效率轻微下降。定量：200:111=1.8，58.5:59.9=0.98， 
+提升80%（gtx670）、-2%（gts250）； </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +838,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -757,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +1046,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1021,11 +1198,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159299456"/>
-        <c:axId val="159309824"/>
+        <c:axId val="75463296"/>
+        <c:axId val="75469568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159299456"/>
+        <c:axId val="75463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,16 +1223,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159309824"/>
+        <c:crossAx val="75469568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159309824"/>
+        <c:axId val="75469568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,23 +1255,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159299456"/>
+        <c:crossAx val="75463296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1233,11 +1413,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161677312"/>
-        <c:axId val="161679232"/>
+        <c:axId val="77263232"/>
+        <c:axId val="77265152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161677312"/>
+        <c:axId val="77263232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,14 +1440,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161679232"/>
+        <c:crossAx val="77265152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161679232"/>
+        <c:axId val="77265152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1472,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161677312"/>
+        <c:crossAx val="77263232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,7 +1485,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1445,11 +1625,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161717248"/>
-        <c:axId val="161723520"/>
+        <c:axId val="79322496"/>
+        <c:axId val="79345152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161717248"/>
+        <c:axId val="79322496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,14 +1652,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161723520"/>
+        <c:crossAx val="79345152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161723520"/>
+        <c:axId val="79345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1684,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161717248"/>
+        <c:crossAx val="79322496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,7 +1697,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1644,11 +1824,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162027392"/>
-        <c:axId val="162037760"/>
+        <c:axId val="79382784"/>
+        <c:axId val="79389056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162027392"/>
+        <c:axId val="79382784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,14 +1851,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162037760"/>
+        <c:crossAx val="79389056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162037760"/>
+        <c:axId val="79389056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1883,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162027392"/>
+        <c:crossAx val="79382784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,7 +1896,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1856,11 +2036,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162137216"/>
-        <c:axId val="162139136"/>
+        <c:axId val="79418880"/>
+        <c:axId val="79420800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162137216"/>
+        <c:axId val="79418880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,14 +2063,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162139136"/>
+        <c:crossAx val="79420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162139136"/>
+        <c:axId val="79420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +2095,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162137216"/>
+        <c:crossAx val="79418880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1928,7 +2108,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2068,11 +2248,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162181504"/>
-        <c:axId val="162183424"/>
+        <c:axId val="80061184"/>
+        <c:axId val="80063104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162181504"/>
+        <c:axId val="80061184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,14 +2275,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162183424"/>
+        <c:crossAx val="80063104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162183424"/>
+        <c:axId val="80063104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2307,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162181504"/>
+        <c:crossAx val="80061184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2140,7 +2320,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2400,11 +2580,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162985088"/>
-        <c:axId val="162987008"/>
+        <c:axId val="100062720"/>
+        <c:axId val="100064640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162985088"/>
+        <c:axId val="100062720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,14 +2658,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162987008"/>
+        <c:crossAx val="100064640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162987008"/>
+        <c:axId val="100064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162985088"/>
+        <c:crossAx val="100062720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2640,7 +2820,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2900,11 +3080,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162992512"/>
-        <c:axId val="162994432"/>
+        <c:axId val="99672832"/>
+        <c:axId val="99674752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162992512"/>
+        <c:axId val="99672832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,14 +3158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162994432"/>
+        <c:crossAx val="99674752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162994432"/>
+        <c:axId val="99674752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162992512"/>
+        <c:crossAx val="99672832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3140,7 +3320,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3278,11 +3458,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="163010816"/>
-        <c:axId val="163025280"/>
+        <c:axId val="100035200"/>
+        <c:axId val="100102912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163010816"/>
+        <c:axId val="100035200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3318,14 +3498,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163025280"/>
+        <c:crossAx val="100102912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163025280"/>
+        <c:axId val="100102912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3535,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163010816"/>
+        <c:crossAx val="100035200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3368,7 +3548,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3628,11 +3808,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163101696"/>
-        <c:axId val="163107968"/>
+        <c:axId val="100240768"/>
+        <c:axId val="100259328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163101696"/>
+        <c:axId val="100240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,14 +3887,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163107968"/>
+        <c:crossAx val="100259328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163107968"/>
+        <c:axId val="100259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163101696"/>
+        <c:crossAx val="100240768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3871,7 +4051,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4131,11 +4311,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163150080"/>
-        <c:axId val="163156352"/>
+        <c:axId val="100305536"/>
+        <c:axId val="100315904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163150080"/>
+        <c:axId val="100305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,14 +4390,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163156352"/>
+        <c:crossAx val="100315904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163156352"/>
+        <c:axId val="100315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,7 +4481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163150080"/>
+        <c:crossAx val="100305536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4374,7 +4554,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4514,11 +4694,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160597120"/>
-        <c:axId val="160599040"/>
+        <c:axId val="75380608"/>
+        <c:axId val="75390976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160597120"/>
+        <c:axId val="75380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,16 +4719,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160599040"/>
+        <c:crossAx val="75390976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160599040"/>
+        <c:axId val="75390976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,23 +4751,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160597120"/>
+        <c:crossAx val="75380608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4605,7 +4788,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$16</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4693,7 +4876,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$17:$E$23</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$E$17:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4727,7 +4910,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$16</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4814,7 +4997,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$17:$F$23</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$F$17:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4848,7 +5031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$16</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$H$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4858,12 +5041,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$17:$H$23</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4896,11 +5076,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163924224"/>
-        <c:axId val="163942784"/>
+        <c:axId val="102829440"/>
+        <c:axId val="102852096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163924224"/>
+        <c:axId val="102829440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,14 +5155,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163942784"/>
+        <c:crossAx val="102852096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163942784"/>
+        <c:axId val="102852096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5246,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163924224"/>
+        <c:crossAx val="102829440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5139,7 +5319,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5158,7 +5338,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$3</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5246,7 +5426,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$E$4:$E$10</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5280,7 +5460,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$3</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5319,7 +5499,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.4444444444444442E-2"/>
+                  <c:y val="9.4444444444444456E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5330,7 +5510,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.999999999999995E-2"/>
+                  <c:y val="9.9999999999999992E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5363,7 +5543,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.11666666666666667"/>
+                  <c:y val="0.11666666666666668"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5373,8 +5553,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8246072431041104E-17"/>
-                  <c:y val="0.11666666666666664"/>
+                  <c:x val="-8.8246072431041203E-17"/>
+                  <c:y val="0.11666666666666665"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5385,7 +5565,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.10555555555555556"/>
+                  <c:y val="0.10555555555555557"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5444,7 +5624,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$F$4:$F$10</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5478,7 +5658,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$3</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5493,7 +5673,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0914560770156413E-2"/>
+                  <c:x val="-4.0914560770156407E-2"/>
                   <c:y val="-0.05"/>
                 </c:manualLayout>
               </c:layout>
@@ -5503,8 +5683,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6474127557160047E-2"/>
-                  <c:y val="-5.000000000000001E-2"/>
+                  <c:x val="-2.6474127557160058E-2"/>
+                  <c:y val="-5.0000000000000017E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5513,8 +5693,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4067388688327317E-2"/>
-                  <c:y val="-7.2222222222222215E-2"/>
+                  <c:x val="-2.4067388688327324E-2"/>
+                  <c:y val="-7.2222222222222229E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5523,8 +5703,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.684717208182912E-2"/>
-                  <c:y val="-5.5555555555555566E-2"/>
+                  <c:x val="-1.6847172081829124E-2"/>
+                  <c:y val="-5.5555555555555559E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5533,7 +5713,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4440433212996302E-2"/>
+                  <c:x val="-1.4440433212996304E-2"/>
                   <c:y val="-4.4444444444444432E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5543,8 +5723,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8880866425992781E-2"/>
-                  <c:y val="-4.9999999999999989E-2"/>
+                  <c:x val="-2.8880866425992784E-2"/>
+                  <c:y val="-4.9999999999999996E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5553,8 +5733,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8507821901323708E-2"/>
-                  <c:y val="-5.5555555555555552E-2"/>
+                  <c:x val="-3.8507821901323715E-2"/>
+                  <c:y val="-5.5555555555555539E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5563,7 +5743,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'8.问题规模与时间效率的关系-线程数目'!$H$4:$H$10</c:f>
+              <c:f>'8.问题规模与时间效率的关系-多元素'!$H$4:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5596,11 +5776,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163515008"/>
-        <c:axId val="163541760"/>
+        <c:axId val="102860288"/>
+        <c:axId val="100403072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163515008"/>
+        <c:axId val="102860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5675,14 +5855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163541760"/>
+        <c:crossAx val="100403072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163541760"/>
+        <c:axId val="100403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5766,7 +5946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163515008"/>
+        <c:crossAx val="102860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5839,7 +6019,1646 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空间换时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$E$18:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.191489361702125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.479532163742689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.99212598425197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.492063492063487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不换</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$F$18:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.642857142857139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.763440860215049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.880239520958092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.796610169491515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="229646720"/>
+        <c:axId val="229649408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="229646720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229649408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="229649408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229646720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空间换时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.41379310344828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.18518518518516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不换</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.问题规模与时间效率的关系-空间换时间'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>96.153846153846146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.04081632653062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.5268817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67605633802818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="230207872"/>
+        <c:axId val="230209792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230207872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230209792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230209792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>时间效率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230207872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率
+GPU最优</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.019607843137251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.573770491803288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率
+CPU最优</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.121212121212121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.307692307692308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="70598656"/>
+        <c:axId val="70600192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70598656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70600192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70600192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="70598656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率
+GPU最优</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$E$21:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.41379310344828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.18518518518516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率
+CPU最优</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$G$21:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.904761904761903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.526315789473683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.256410256410255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="163225600"/>
+        <c:axId val="163227904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163225600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163227904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163227904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="163225600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率倍数
+GPU vs CPU 最优 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9215686274509802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4098360655737716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4166666666666652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率倍数
+GPU vs CPU 初始 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.647058823529409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.31818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.459016393442624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="139425280"/>
+        <c:axId val="139426816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139425280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139426816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139426816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="139425280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率倍数
+GPU vs CPU 最优 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$H$21:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.241379310344829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.749999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>效率倍数
+GPU vs CPU 初始 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.VisualProfiler&amp;OccupancyCalc'!$K$21:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.571428571428562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.896551724137929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:axId val="139251712"/>
+        <c:axId val="163955072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139251712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163955072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163955072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="139251712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5979,11 +7798,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="159351552"/>
-        <c:axId val="159353472"/>
+        <c:axId val="76195328"/>
+        <c:axId val="76197248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159351552"/>
+        <c:axId val="76195328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6004,16 +7823,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159353472"/>
+        <c:crossAx val="76197248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159353472"/>
+        <c:axId val="76197248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6035,23 +7855,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159351552"/>
+        <c:crossAx val="76195328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6191,11 +8013,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160661504"/>
-        <c:axId val="160663424"/>
+        <c:axId val="76563200"/>
+        <c:axId val="76565120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160661504"/>
+        <c:axId val="76563200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,16 +8038,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160663424"/>
+        <c:crossAx val="76565120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160663424"/>
+        <c:axId val="76565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6247,23 +8070,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160661504"/>
+        <c:crossAx val="76563200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6403,11 +8228,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160984448"/>
-        <c:axId val="160994816"/>
+        <c:axId val="76636544"/>
+        <c:axId val="76638464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160984448"/>
+        <c:axId val="76636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,16 +8253,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160994816"/>
+        <c:crossAx val="76638464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160994816"/>
+        <c:axId val="76638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,23 +8285,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160984448"/>
+        <c:crossAx val="76636544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6615,11 +8443,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161012352"/>
-        <c:axId val="161104640"/>
+        <c:axId val="76656000"/>
+        <c:axId val="77018624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161012352"/>
+        <c:axId val="76656000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,16 +8468,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161104640"/>
+        <c:crossAx val="77018624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161104640"/>
+        <c:axId val="77018624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6671,23 +8500,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161012352"/>
+        <c:crossAx val="76656000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6827,11 +8658,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161184000"/>
-        <c:axId val="161190272"/>
+        <c:axId val="77089408"/>
+        <c:axId val="77112064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161184000"/>
+        <c:axId val="77089408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6854,14 +8685,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161190272"/>
+        <c:crossAx val="77112064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161190272"/>
+        <c:axId val="77112064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6886,7 +8717,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161184000"/>
+        <c:crossAx val="77089408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6899,7 +8730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7039,11 +8870,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161486336"/>
-        <c:axId val="161488256"/>
+        <c:axId val="77137792"/>
+        <c:axId val="77148160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161486336"/>
+        <c:axId val="77137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,14 +8897,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161488256"/>
+        <c:crossAx val="77148160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161488256"/>
+        <c:axId val="77148160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +8929,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161486336"/>
+        <c:crossAx val="77137792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7111,7 +8942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7251,11 +9082,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161633024"/>
-        <c:axId val="161634944"/>
+        <c:axId val="77210752"/>
+        <c:axId val="77212672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161633024"/>
+        <c:axId val="77210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7278,14 +9109,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161634944"/>
+        <c:crossAx val="77212672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161634944"/>
+        <c:axId val="77212672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,7 +9141,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161633024"/>
+        <c:crossAx val="77210752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7323,7 +9154,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7386,6 +9217,131 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7999,6 +9955,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -8286,7 +10307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -8825,12 +10846,783 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27">
+      <c r="C1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40.5">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="3">
+        <f>LOG(B4)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="8">
+        <f>B4/D4*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <f>B4/F4*50</f>
+        <v>12.5</v>
+      </c>
+      <c r="H4" s="43">
+        <f>E4/G4</f>
+        <v>3.125</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
+        <f>B4/I4*50</f>
+        <v>3.125</v>
+      </c>
+      <c r="K4" s="43">
+        <f>E4/J4</f>
+        <v>12.5</v>
+      </c>
+      <c r="L4" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C10" si="0">LOG(B5)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E9" si="1">B5/D5*50</f>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G10" si="2">B5/F5*50</f>
+        <v>12.5</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" ref="H5:H10" si="3">E5/G5</f>
+        <v>3.9215686274509802</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" ref="J5:J10" si="4">B5/I5*50</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="K5" s="43">
+        <f t="shared" ref="K5:K10" si="5">E5/J5</f>
+        <v>17.647058823529409</v>
+      </c>
+      <c r="L5" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="3"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="I6" s="4">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882351</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="5"/>
+        <v>19.31818181818182</v>
+      </c>
+      <c r="L6" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="3"/>
+        <v>5.625</v>
+      </c>
+      <c r="I7" s="4">
+        <v>35</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="4"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="5"/>
+        <v>21.875</v>
+      </c>
+      <c r="L7" s="44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="3"/>
+        <v>5.3125</v>
+      </c>
+      <c r="I8" s="4">
+        <v>69</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="4"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="5"/>
+        <v>21.5625</v>
+      </c>
+      <c r="L8" s="44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="F9" s="4">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="3"/>
+        <v>5.4098360655737716</v>
+      </c>
+      <c r="I9" s="4">
+        <v>137</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="4"/>
+        <v>2.9197080291970803</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="5"/>
+        <v>22.459016393442624</v>
+      </c>
+      <c r="L9" s="44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <f>B10/D10*50</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F10" s="4">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>12.307692307692308</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="3"/>
+        <v>5.4166666666666652</v>
+      </c>
+      <c r="I10" s="4">
+        <v>270</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="4"/>
+        <v>2.9629629629629632</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="5"/>
+        <v>22.499999999999996</v>
+      </c>
+      <c r="L10" s="44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="27">
+      <c r="O16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="40.5">
+      <c r="C18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40.5">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="3">
+        <f>LOG(B21)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="8">
+        <f>B21/D21*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="8">
+        <f>B21/F21*50</f>
+        <v>15.625</v>
+      </c>
+      <c r="H21" s="43">
+        <f>E21/G21</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="J21" s="8">
+        <f>B21/I21*50</f>
+        <v>3.6764705882352944</v>
+      </c>
+      <c r="K21" s="43">
+        <f>E21/J21</f>
+        <v>42.5</v>
+      </c>
+      <c r="L21" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:C27" si="6">LOG(B22)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E26" si="7">B22/D22*50</f>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:G27" si="8">B22/F22*50</f>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" ref="H22:H27" si="9">E22/G22</f>
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" ref="J22:J27" si="10">B22/I22*50</f>
+        <v>3.6764705882352944</v>
+      </c>
+      <c r="K22" s="43">
+        <f t="shared" ref="K22:K27" si="11">E22/J22</f>
+        <v>48.571428571428562</v>
+      </c>
+      <c r="L22" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="7"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="9"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="I23" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="10"/>
+        <v>3.6764705882352944</v>
+      </c>
+      <c r="K23" s="43">
+        <f t="shared" si="11"/>
+        <v>46.896551724137929</v>
+      </c>
+      <c r="L23" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="7"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="8"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="9"/>
+        <v>17.777777777777775</v>
+      </c>
+      <c r="I24" s="4">
+        <v>27</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="K24" s="43">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="L24" s="44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="F25" s="4">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="8"/>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="9"/>
+        <v>19.000000000000004</v>
+      </c>
+      <c r="I25" s="4">
+        <v>54</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="K25" s="43">
+        <f t="shared" si="11"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="L25" s="44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="4">
+        <v>39</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="8"/>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="9"/>
+        <v>19.5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>108</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="K26" s="43">
+        <f t="shared" si="11"/>
+        <v>54.000000000000007</v>
+      </c>
+      <c r="L26" s="44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8">
+        <f>B27/D27*50</f>
+        <v>200</v>
+      </c>
+      <c r="F27" s="4">
+        <v>75</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="8"/>
+        <v>10.666666666666668</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="9"/>
+        <v>18.749999999999996</v>
+      </c>
+      <c r="I27" s="4">
+        <v>213</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="10"/>
+        <v>3.755868544600939</v>
+      </c>
+      <c r="K27" s="43">
+        <f t="shared" si="11"/>
+        <v>53.25</v>
+      </c>
+      <c r="L27" s="44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17" ht="27">
+      <c r="O33" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9454,8 +12246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12685,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13196,8 +15988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13838,4 +16630,614 @@
   <pageSetup paperSize="259" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="40.5">
+      <c r="C1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="27">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="3">
+        <f>LOG(B4)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F4" s="8">
+        <f>B4/G4*50</f>
+        <v>96.153846153846146</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="H4" s="44">
+        <v>4</v>
+      </c>
+      <c r="I4" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="44">
+        <v>8</v>
+      </c>
+      <c r="I5" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>102.04081632653062</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H6" s="44">
+        <v>16</v>
+      </c>
+      <c r="I6" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>107.5268817204301</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H7" s="44">
+        <v>32</v>
+      </c>
+      <c r="I7" s="44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="44">
+        <v>64</v>
+      </c>
+      <c r="I8" s="44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="H9" s="44">
+        <v>128</v>
+      </c>
+      <c r="I9" s="44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>112.67605633802818</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="H10" s="44">
+        <v>256</v>
+      </c>
+      <c r="I10" s="44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="L11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="40.5">
+      <c r="C15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D18" s="3">
+        <f>LOG(B18)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" ref="E18:E24" si="3">B18/C18*50</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="F18" s="8">
+        <f>B18/G18*50</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:D24" si="4">LOG(B19)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="3"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F24" si="5">B19/G19*50</f>
+        <v>44.642857142857139</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H19" s="44">
+        <v>8</v>
+      </c>
+      <c r="I19" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>53.191489361702125</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="5"/>
+        <v>53.763440860215049</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H20" s="44">
+        <v>16</v>
+      </c>
+      <c r="I20" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>58.479532163742689</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>59.880239520958092</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="H21" s="44">
+        <v>32</v>
+      </c>
+      <c r="I21" s="44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>59.523809523809526</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="5"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="H22" s="44">
+        <v>64</v>
+      </c>
+      <c r="I22" s="44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
+        <v>62.99212598425197</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="5"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="44">
+        <v>128</v>
+      </c>
+      <c r="I23" s="44">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="6">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>63.492063492063487</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="5"/>
+        <v>67.796610169491515</v>
+      </c>
+      <c r="G24" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H24" s="44">
+        <v>256</v>
+      </c>
+      <c r="I24" s="44">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="68.25" customHeight="1">
+      <c r="A28" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:H28"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="183">
   <si>
     <t>表1.1</t>
   </si>
@@ -539,17 +539,6 @@
     <t>图7.2</t>
   </si>
   <si>
-    <t>GPU线程块内部所有线程共享通信 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
-2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
-前者是后者的3倍； 
-3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
-提升80%（gtx670）、270%（gts250）； 
-4）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
-提升1900%（gtx670）、430%（gts250）；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>表8.1</t>
   </si>
   <si>
@@ -769,6 +758,93 @@
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
 2）时间效率，空间换时间与不换，效率轻微下降。定量：200:111=1.8，58.5:59.9=0.98， 
 提升80%（gtx670）、-2%（gts250）； </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播
+VS
+不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU: gtx670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻
+VS
+不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU线程块内部所有线程共享通信 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
+2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
+前者是后者的3倍； 
+3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
+提升80%（gtx670）、270%（gts250）； 
+4）时间效率，共享广播减少冲突与不广播，效率几乎不变。定量：x:200=y，60:63=0.95， 
+提升z%（gtx670）、-5%（gts250）；
+5）时间效率，共享交替减少冲突与不交替，效率几乎不变。定量：x:200=y，60:63=0.95， 
+提升z%（gtx670）、-5%（gts250）；  
+6）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
+提升1900%（gtx670）、430%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1034,6 +1110,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1045,15 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,11 +1274,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75463296"/>
-        <c:axId val="75469568"/>
+        <c:axId val="70832896"/>
+        <c:axId val="70834816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75463296"/>
+        <c:axId val="70832896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,17 +1299,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75469568"/>
+        <c:crossAx val="70834816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75469568"/>
+        <c:axId val="70834816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,25 +1330,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75463296"/>
+        <c:crossAx val="70832896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1413,11 +1486,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77263232"/>
-        <c:axId val="77265152"/>
+        <c:axId val="75426432"/>
+        <c:axId val="75473664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77263232"/>
+        <c:axId val="75426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,14 +1513,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77265152"/>
+        <c:crossAx val="75473664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77265152"/>
+        <c:axId val="75473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1545,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77263232"/>
+        <c:crossAx val="75426432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +1558,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1625,11 +1698,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79322496"/>
-        <c:axId val="79345152"/>
+        <c:axId val="75487104"/>
+        <c:axId val="76156928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79322496"/>
+        <c:axId val="75487104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,14 +1725,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79345152"/>
+        <c:crossAx val="76156928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79345152"/>
+        <c:axId val="76156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1757,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79322496"/>
+        <c:crossAx val="75487104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,7 +1770,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1824,11 +1897,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79382784"/>
-        <c:axId val="79389056"/>
+        <c:axId val="76198656"/>
+        <c:axId val="76200576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79382784"/>
+        <c:axId val="76198656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,14 +1924,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79389056"/>
+        <c:crossAx val="76200576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79389056"/>
+        <c:axId val="76200576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1956,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79382784"/>
+        <c:crossAx val="76198656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1896,7 +1969,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2036,11 +2109,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79418880"/>
-        <c:axId val="79420800"/>
+        <c:axId val="76546048"/>
+        <c:axId val="76547968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79418880"/>
+        <c:axId val="76546048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,14 +2136,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79420800"/>
+        <c:crossAx val="76547968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79420800"/>
+        <c:axId val="76547968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2168,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79418880"/>
+        <c:crossAx val="76546048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,7 +2181,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2248,11 +2321,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80061184"/>
-        <c:axId val="80063104"/>
+        <c:axId val="76569600"/>
+        <c:axId val="76616832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80061184"/>
+        <c:axId val="76569600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2348,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80063104"/>
+        <c:crossAx val="76616832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80063104"/>
+        <c:axId val="76616832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2380,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80061184"/>
+        <c:crossAx val="76569600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,7 +2393,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2580,11 +2653,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100062720"/>
-        <c:axId val="100064640"/>
+        <c:axId val="77021184"/>
+        <c:axId val="77023104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100062720"/>
+        <c:axId val="77021184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,14 +2731,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100064640"/>
+        <c:crossAx val="77023104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100064640"/>
+        <c:axId val="77023104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100062720"/>
+        <c:crossAx val="77021184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,7 +2893,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3080,11 +3153,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="99672832"/>
-        <c:axId val="99674752"/>
+        <c:axId val="77040640"/>
+        <c:axId val="77063296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99672832"/>
+        <c:axId val="77040640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,14 +3231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99674752"/>
+        <c:crossAx val="77063296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99674752"/>
+        <c:axId val="77063296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99672832"/>
+        <c:crossAx val="77040640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,7 +3393,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3458,11 +3531,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="100035200"/>
-        <c:axId val="100102912"/>
+        <c:axId val="77087872"/>
+        <c:axId val="77089792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100035200"/>
+        <c:axId val="77087872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,14 +3571,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100102912"/>
+        <c:crossAx val="77089792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100102912"/>
+        <c:axId val="77089792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3608,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100035200"/>
+        <c:crossAx val="77087872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3548,7 +3621,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3808,11 +3881,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100240768"/>
-        <c:axId val="100259328"/>
+        <c:axId val="77141888"/>
+        <c:axId val="77160448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100240768"/>
+        <c:axId val="77141888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,14 +3960,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100259328"/>
+        <c:crossAx val="77160448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100259328"/>
+        <c:axId val="77160448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +4051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100240768"/>
+        <c:crossAx val="77141888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4051,7 +4124,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4311,11 +4384,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="100305536"/>
-        <c:axId val="100315904"/>
+        <c:axId val="77173888"/>
+        <c:axId val="77175808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100305536"/>
+        <c:axId val="77173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,14 +4463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100315904"/>
+        <c:crossAx val="77175808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100315904"/>
+        <c:axId val="77175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100305536"/>
+        <c:crossAx val="77173888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4554,7 +4627,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4694,11 +4767,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75380608"/>
-        <c:axId val="75390976"/>
+        <c:axId val="70934528"/>
+        <c:axId val="70936448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75380608"/>
+        <c:axId val="70934528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,17 +4792,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75390976"/>
+        <c:crossAx val="70936448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75390976"/>
+        <c:axId val="70936448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,25 +4823,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75380608"/>
+        <c:crossAx val="70934528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5076,11 +5146,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="102829440"/>
-        <c:axId val="102852096"/>
+        <c:axId val="77236096"/>
+        <c:axId val="77262848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102829440"/>
+        <c:axId val="77236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5111,7 +5181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5155,14 +5224,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102852096"/>
+        <c:crossAx val="77262848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102852096"/>
+        <c:axId val="77262848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +5276,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5246,7 +5314,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102829440"/>
+        <c:crossAx val="77236096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5260,7 +5328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5319,7 +5386,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5499,7 +5566,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.4444444444444456E-2"/>
+                  <c:y val="9.444444444444447E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5510,7 +5577,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.9999999999999992E-2"/>
+                  <c:y val="0.10000000000000003"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5543,7 +5610,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.11666666666666668"/>
+                  <c:y val="0.1166666666666667"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5553,8 +5620,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8246072431041203E-17"/>
-                  <c:y val="0.11666666666666665"/>
+                  <c:x val="-8.8246072431041289E-17"/>
+                  <c:y val="0.11666666666666667"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5565,7 +5632,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.10555555555555557"/>
+                  <c:y val="0.10555555555555558"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5683,8 +5750,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6474127557160058E-2"/>
-                  <c:y val="-5.0000000000000017E-2"/>
+                  <c:x val="-2.6474127557160065E-2"/>
+                  <c:y val="-5.0000000000000024E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5693,8 +5760,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4067388688327324E-2"/>
-                  <c:y val="-7.2222222222222229E-2"/>
+                  <c:x val="-2.4067388688327335E-2"/>
+                  <c:y val="-7.2222222222222243E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5703,8 +5770,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6847172081829124E-2"/>
-                  <c:y val="-5.5555555555555559E-2"/>
+                  <c:x val="-1.6847172081829127E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5713,7 +5780,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4440433212996304E-2"/>
+                  <c:x val="-1.4440433212996305E-2"/>
                   <c:y val="-4.4444444444444432E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5723,8 +5790,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8880866425992784E-2"/>
-                  <c:y val="-4.9999999999999996E-2"/>
+                  <c:x val="-2.8880866425992788E-2"/>
+                  <c:y val="-0.05"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5734,7 +5801,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.8507821901323715E-2"/>
-                  <c:y val="-5.5555555555555539E-2"/>
+                  <c:y val="-5.5555555555555525E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5776,11 +5843,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="102860288"/>
-        <c:axId val="100403072"/>
+        <c:axId val="79329536"/>
+        <c:axId val="79344000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102860288"/>
+        <c:axId val="79329536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +5878,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5855,14 +5921,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100403072"/>
+        <c:crossAx val="79344000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100403072"/>
+        <c:axId val="79344000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,7 +5973,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5946,7 +6011,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102860288"/>
+        <c:crossAx val="79329536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5960,7 +6025,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6019,7 +6083,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6279,11 +6343,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="229646720"/>
-        <c:axId val="229649408"/>
+        <c:axId val="79386496"/>
+        <c:axId val="79400960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229646720"/>
+        <c:axId val="79386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6358,14 +6422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229649408"/>
+        <c:crossAx val="79400960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229649408"/>
+        <c:axId val="79400960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,7 +6513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229646720"/>
+        <c:crossAx val="79386496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6522,7 +6586,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6782,11 +6846,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="230207872"/>
-        <c:axId val="230209792"/>
+        <c:axId val="80024704"/>
+        <c:axId val="80026624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230207872"/>
+        <c:axId val="80024704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6861,14 +6925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230209792"/>
+        <c:crossAx val="80026624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230209792"/>
+        <c:axId val="80026624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6952,7 +7016,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230207872"/>
+        <c:crossAx val="80024704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7025,7 +7089,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7144,25 +7208,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70598656"/>
-        <c:axId val="70600192"/>
+        <c:axId val="80129408"/>
+        <c:axId val="99619968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70598656"/>
+        <c:axId val="80129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70600192"/>
+        <c:crossAx val="99619968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70600192"/>
+        <c:axId val="99619968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7171,20 +7235,19 @@
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="70598656"/>
+        <c:crossAx val="80129408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7303,25 +7366,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163225600"/>
-        <c:axId val="163227904"/>
+        <c:axId val="99665792"/>
+        <c:axId val="99667328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163225600"/>
+        <c:axId val="99665792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163227904"/>
+        <c:crossAx val="99667328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163227904"/>
+        <c:axId val="99667328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7329,20 +7392,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="163225600"/>
+        <c:crossAx val="99665792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7461,25 +7523,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="139425280"/>
-        <c:axId val="139426816"/>
+        <c:axId val="99774848"/>
+        <c:axId val="99776384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139425280"/>
+        <c:axId val="99774848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139426816"/>
+        <c:crossAx val="99776384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139426816"/>
+        <c:axId val="99776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7487,20 +7549,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="139425280"/>
+        <c:crossAx val="99774848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7619,25 +7680,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="139251712"/>
-        <c:axId val="163955072"/>
+        <c:axId val="99789440"/>
+        <c:axId val="99795328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139251712"/>
+        <c:axId val="99789440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163955072"/>
+        <c:crossAx val="99795328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163955072"/>
+        <c:axId val="99795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7645,20 +7706,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="139251712"/>
+        <c:crossAx val="99789440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7798,11 +7858,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76195328"/>
-        <c:axId val="76197248"/>
+        <c:axId val="71048576"/>
+        <c:axId val="71050752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76195328"/>
+        <c:axId val="71048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7823,17 +7883,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76197248"/>
+        <c:crossAx val="71050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76197248"/>
+        <c:axId val="71050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7855,25 +7914,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76195328"/>
+        <c:crossAx val="71048576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8013,11 +8070,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76563200"/>
-        <c:axId val="76565120"/>
+        <c:axId val="71080576"/>
+        <c:axId val="71090944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76563200"/>
+        <c:axId val="71080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8038,17 +8095,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76565120"/>
+        <c:crossAx val="71090944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76565120"/>
+        <c:axId val="71090944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8070,25 +8126,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76563200"/>
+        <c:crossAx val="71080576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8228,11 +8282,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76636544"/>
-        <c:axId val="76638464"/>
+        <c:axId val="73537792"/>
+        <c:axId val="73544064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76636544"/>
+        <c:axId val="73537792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8253,17 +8307,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76638464"/>
+        <c:crossAx val="73544064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76638464"/>
+        <c:axId val="73544064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,25 +8338,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76636544"/>
+        <c:crossAx val="73537792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8443,11 +8494,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76656000"/>
-        <c:axId val="77018624"/>
+        <c:axId val="73565696"/>
+        <c:axId val="73567616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76656000"/>
+        <c:axId val="73565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8468,17 +8519,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77018624"/>
+        <c:crossAx val="73567616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77018624"/>
+        <c:axId val="73567616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8500,25 +8550,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76656000"/>
+        <c:crossAx val="73565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8658,11 +8706,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77089408"/>
-        <c:axId val="77112064"/>
+        <c:axId val="74970240"/>
+        <c:axId val="74972160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77089408"/>
+        <c:axId val="74970240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8685,14 +8733,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77112064"/>
+        <c:crossAx val="74972160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77112064"/>
+        <c:axId val="74972160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8717,7 +8765,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77089408"/>
+        <c:crossAx val="74970240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8730,7 +8778,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8870,11 +8918,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77137792"/>
-        <c:axId val="77148160"/>
+        <c:axId val="75383168"/>
+        <c:axId val="75385088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77137792"/>
+        <c:axId val="75383168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8897,14 +8945,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77148160"/>
+        <c:crossAx val="75385088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77148160"/>
+        <c:axId val="75385088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8929,7 +8977,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77137792"/>
+        <c:crossAx val="75383168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8942,7 +8990,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9082,11 +9130,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77210752"/>
-        <c:axId val="77212672"/>
+        <c:axId val="75398528"/>
+        <c:axId val="75408896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77210752"/>
+        <c:axId val="75398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9109,14 +9157,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77212672"/>
+        <c:crossAx val="75408896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77212672"/>
+        <c:axId val="75408896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9141,7 +9189,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77210752"/>
+        <c:crossAx val="75398528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9154,7 +9202,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10814,26 +10862,26 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="102.75" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="31" spans="1:14" ht="48.75" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10869,16 +10917,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27">
       <c r="C1" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="40.5">
@@ -10892,31 +10940,31 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>154</v>
+      <c r="L3" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -10944,7 +10992,7 @@
         <f>B4/F4*50</f>
         <v>12.5</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="39">
         <f>E4/G4</f>
         <v>3.125</v>
       </c>
@@ -10955,11 +11003,11 @@
         <f>B4/I4*50</f>
         <v>3.125</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="39">
         <f>E4/J4</f>
         <v>12.5</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="40">
         <v>8</v>
       </c>
     </row>
@@ -10988,7 +11036,7 @@
         <f t="shared" ref="G5:G10" si="2">B5/F5*50</f>
         <v>12.5</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="39">
         <f t="shared" ref="H5:H10" si="3">E5/G5</f>
         <v>3.9215686274509802</v>
       </c>
@@ -10999,11 +11047,11 @@
         <f t="shared" ref="J5:J10" si="4">B5/I5*50</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="39">
         <f t="shared" ref="K5:K10" si="5">E5/J5</f>
         <v>17.647058823529409</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="40">
         <v>16</v>
       </c>
     </row>
@@ -11032,7 +11080,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="39">
         <f t="shared" si="3"/>
         <v>5.6818181818181817</v>
       </c>
@@ -11043,11 +11091,11 @@
         <f t="shared" si="4"/>
         <v>2.9411764705882351</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="39">
         <f t="shared" si="5"/>
         <v>19.31818181818182</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="40">
         <v>32</v>
       </c>
     </row>
@@ -11076,7 +11124,7 @@
         <f t="shared" si="2"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="39">
         <f t="shared" si="3"/>
         <v>5.625</v>
       </c>
@@ -11087,11 +11135,11 @@
         <f t="shared" si="4"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="39">
         <f t="shared" si="5"/>
         <v>21.875</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="40">
         <v>64</v>
       </c>
     </row>
@@ -11120,7 +11168,7 @@
         <f t="shared" si="2"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="39">
         <f t="shared" si="3"/>
         <v>5.3125</v>
       </c>
@@ -11131,11 +11179,11 @@
         <f t="shared" si="4"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="39">
         <f t="shared" si="5"/>
         <v>21.5625</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="40">
         <v>128</v>
       </c>
     </row>
@@ -11164,7 +11212,7 @@
         <f t="shared" si="2"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="39">
         <f t="shared" si="3"/>
         <v>5.4098360655737716</v>
       </c>
@@ -11175,11 +11223,11 @@
         <f t="shared" si="4"/>
         <v>2.9197080291970803</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="39">
         <f t="shared" si="5"/>
         <v>22.459016393442624</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="40">
         <v>256</v>
       </c>
     </row>
@@ -11208,7 +11256,7 @@
         <f t="shared" si="2"/>
         <v>12.307692307692308</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="39">
         <f t="shared" si="3"/>
         <v>5.4166666666666652</v>
       </c>
@@ -11219,37 +11267,37 @@
         <f t="shared" si="4"/>
         <v>2.9629629629629632</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="39">
         <f t="shared" si="5"/>
         <v>22.499999999999996</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="40">
         <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="27">
       <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="40.5">
+    </row>
+    <row r="18" spans="1:12" ht="27">
       <c r="C18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40.5">
@@ -11263,31 +11311,31 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>154</v>
+      <c r="L20" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -11315,7 +11363,7 @@
         <f>B21/F21*50</f>
         <v>15.625</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="39">
         <f>E21/G21</f>
         <v>10</v>
       </c>
@@ -11326,11 +11374,11 @@
         <f>B21/I21*50</f>
         <v>3.6764705882352944</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="39">
         <f>E21/J21</f>
         <v>42.5</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="40">
         <v>8</v>
       </c>
     </row>
@@ -11359,7 +11407,7 @@
         <f t="shared" ref="G22:G27" si="8">B22/F22*50</f>
         <v>11.904761904761903</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="39">
         <f t="shared" ref="H22:H27" si="9">E22/G22</f>
         <v>15</v>
       </c>
@@ -11370,11 +11418,11 @@
         <f t="shared" ref="J22:J27" si="10">B22/I22*50</f>
         <v>3.6764705882352944</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="39">
         <f t="shared" ref="K22:K27" si="11">E22/J22</f>
         <v>48.571428571428562</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="40">
         <v>16</v>
       </c>
     </row>
@@ -11403,7 +11451,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="39">
         <f t="shared" si="9"/>
         <v>17.241379310344829</v>
       </c>
@@ -11414,11 +11462,11 @@
         <f t="shared" si="10"/>
         <v>3.6764705882352944</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="39">
         <f t="shared" si="11"/>
         <v>46.896551724137929</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="40">
         <v>32</v>
       </c>
     </row>
@@ -11447,7 +11495,7 @@
         <f t="shared" si="8"/>
         <v>10.416666666666668</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="39">
         <f t="shared" si="9"/>
         <v>17.777777777777775</v>
       </c>
@@ -11458,11 +11506,11 @@
         <f t="shared" si="10"/>
         <v>3.7037037037037033</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="39">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="40">
         <v>64</v>
       </c>
     </row>
@@ -11491,7 +11539,7 @@
         <f t="shared" si="8"/>
         <v>10.526315789473683</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="39">
         <f t="shared" si="9"/>
         <v>19.000000000000004</v>
       </c>
@@ -11502,11 +11550,11 @@
         <f t="shared" si="10"/>
         <v>3.7037037037037033</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="39">
         <f t="shared" si="11"/>
         <v>54.000000000000007</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="40">
         <v>128</v>
       </c>
     </row>
@@ -11535,7 +11583,7 @@
         <f t="shared" si="8"/>
         <v>10.256410256410255</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="39">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
@@ -11546,11 +11594,11 @@
         <f t="shared" si="10"/>
         <v>3.7037037037037033</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="39">
         <f t="shared" si="11"/>
         <v>54.000000000000007</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="40">
         <v>256</v>
       </c>
     </row>
@@ -11579,7 +11627,7 @@
         <f t="shared" si="8"/>
         <v>10.666666666666668</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="39">
         <f t="shared" si="9"/>
         <v>18.749999999999996</v>
       </c>
@@ -11590,23 +11638,23 @@
         <f t="shared" si="10"/>
         <v>3.755868544600939</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="39">
         <f t="shared" si="11"/>
         <v>53.25</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="40">
         <v>512</v>
       </c>
     </row>
     <row r="33" spans="15:17" ht="27">
       <c r="O33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="P33" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q33" s="26" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -12122,16 +12170,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="116.25" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7"/>
@@ -12741,16 +12789,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="125.25" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13255,16 +13303,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="140.25" customHeight="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14709,16 +14757,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="178.5" customHeight="1">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15451,16 +15499,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="173.25" customHeight="1">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15475,10 +15523,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15486,6 +15534,7 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15962,17 +16011,909 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="120" customHeight="1">
-      <c r="A28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+    <row r="28" spans="1:14" ht="180.75" customHeight="1">
+      <c r="A28" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="32" spans="1:14" ht="40.5">
+      <c r="C32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="27">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D35" s="3">
+        <f>LOG(B35)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35:E41" si="6">B35/C35*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F35" s="8">
+        <f>B35/G35*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D41" si="7">LOG(B36)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="6"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ref="F36:F41" si="8">B36/G36*50</f>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="6"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="8"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="6"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="8"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="40.5">
+      <c r="C45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="27">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D48" s="3">
+        <f>LOG(B48)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" ref="E48:E54" si="9">B48/C48*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="F48" s="8">
+        <f>B48/G48*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" ref="D49:D54" si="10">LOG(B49)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="9"/>
+        <v>44.642857142857139</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" ref="F49:F54" si="11">B49/G49*50</f>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="9"/>
+        <v>53.763440860215049</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="11"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="9"/>
+        <v>59.880239520958092</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="11"/>
+        <v>62.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="9"/>
+        <v>63.694267515923563</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="11"/>
+        <v>62.5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="9"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="11"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="G53" s="4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4">
+        <v>11.86</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="9"/>
+        <v>67.453625632377751</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="11"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G54" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40.5">
+      <c r="C58" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="27">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D61" s="3">
+        <f>LOG(B61)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" ref="E61:E67" si="12">B61/C61*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="F61" s="8">
+        <f>B61/G61*50</f>
+        <v>156.25</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ref="D62:D67" si="13">LOG(B62)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="12"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" ref="F62:F67" si="14">B62/G62*50</f>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="12"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="14"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="12"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="14"/>
+        <v>185.18518518518516</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6">
+        <v>6</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3">
+        <v>16</v>
+      </c>
+      <c r="C67" s="4">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="40.5">
+      <c r="C71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" ht="27">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D74" s="3">
+        <f>LOG(B74)/LOG(2)+3</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <f t="shared" ref="E74:E80" si="15">B74/C74*50</f>
+        <v>33.783783783783782</v>
+      </c>
+      <c r="F74" s="8">
+        <f>B74/G74*50</f>
+        <v>39.0625</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ref="D75:D80" si="16">LOG(B75)/LOG(2)+3</f>
+        <v>2</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="15"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" ref="F75:F80" si="17">B75/G75*50</f>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="15"/>
+        <v>53.191489361702125</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" si="17"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="15"/>
+        <v>59.523809523809526</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" si="17"/>
+        <v>62.5</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="15"/>
+        <v>63.694267515923563</v>
+      </c>
+      <c r="F78" s="8">
+        <f t="shared" si="17"/>
+        <v>62.5</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4">
+        <v>6</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="15"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" si="17"/>
+        <v>65.573770491803288</v>
+      </c>
+      <c r="G79" s="4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4">
+        <v>11.74</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="15"/>
+        <v>68.143100511073257</v>
+      </c>
+      <c r="F80" s="8">
+        <f t="shared" si="17"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G80" s="4">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16003,13 +16944,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="7"/>
@@ -16026,22 +16967,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>84</v>
@@ -16287,24 +17228,24 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
         <v>132</v>
-      </c>
-      <c r="N11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.5">
       <c r="C14" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="7"/>
@@ -16321,22 +17262,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>84</v>
@@ -16582,13 +17523,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
       <c r="M24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" t="s">
         <v>129</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>130</v>
-      </c>
-      <c r="O24" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -16610,16 +17551,16 @@
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:15" ht="194.25" customHeight="1">
-      <c r="A29" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16636,7 +17577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:H28"/>
     </sheetView>
   </sheetViews>
@@ -16651,13 +17592,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
       <c r="C1" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>69</v>
@@ -16676,25 +17617,25 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>164</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16722,10 +17663,10 @@
       <c r="G4" s="4">
         <v>0.13</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="40">
         <v>4</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="40">
         <v>8</v>
       </c>
     </row>
@@ -16754,10 +17695,10 @@
       <c r="G5" s="4">
         <v>0.25</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="40">
         <v>8</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="40">
         <v>16</v>
       </c>
     </row>
@@ -16786,10 +17727,10 @@
       <c r="G6" s="4">
         <v>0.49</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>16</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="40">
         <v>32</v>
       </c>
     </row>
@@ -16818,10 +17759,10 @@
       <c r="G7" s="4">
         <v>0.93</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>32</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="40">
         <v>64</v>
       </c>
     </row>
@@ -16850,10 +17791,10 @@
       <c r="G8" s="4">
         <v>1.8</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>64</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="40">
         <v>128</v>
       </c>
     </row>
@@ -16882,10 +17823,10 @@
       <c r="G9" s="4">
         <v>3.6</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="40">
         <v>128</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="40">
         <v>256</v>
       </c>
     </row>
@@ -16914,10 +17855,10 @@
       <c r="G10" s="4">
         <v>7.1</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>256</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="40">
         <v>512</v>
       </c>
     </row>
@@ -16930,7 +17871,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
       <c r="L11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" t="s">
         <v>65</v>
@@ -16941,13 +17882,13 @@
     </row>
     <row r="15" spans="1:14" ht="40.5">
       <c r="C15" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
@@ -16964,25 +17905,25 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="38" t="s">
         <v>164</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -17010,10 +17951,10 @@
       <c r="G18" s="4">
         <v>0.36</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="40">
         <v>4</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>8</v>
       </c>
     </row>
@@ -17042,10 +17983,10 @@
       <c r="G19" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="40">
         <v>8</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="40">
         <v>16</v>
       </c>
     </row>
@@ -17074,10 +18015,10 @@
       <c r="G20" s="4">
         <v>0.93</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="40">
         <v>16</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="40">
         <v>32</v>
       </c>
     </row>
@@ -17106,10 +18047,10 @@
       <c r="G21" s="4">
         <v>1.67</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="40">
         <v>32</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="40">
         <v>64</v>
       </c>
     </row>
@@ -17138,10 +18079,10 @@
       <c r="G22" s="4">
         <v>3.1</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="40">
         <v>64</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="40">
         <v>128</v>
       </c>
     </row>
@@ -17170,10 +18111,10 @@
       <c r="G23" s="4">
         <v>6</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="40">
         <v>128</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="40">
         <v>256</v>
       </c>
     </row>
@@ -17202,16 +18143,16 @@
       <c r="G24" s="4">
         <v>11.8</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="40">
         <v>256</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="40">
         <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="L25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s">
         <v>65</v>
@@ -17221,16 +18162,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A28" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="A28" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="9.问题规模与时间效率的关系-空间换时间" sheetId="12" r:id="rId9"/>
     <sheet name="10.VisualProfiler&amp;OccupancyCalc" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="182">
   <si>
     <t>表1.1</t>
   </si>
@@ -754,18 +754,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">GPU显存空间换时间 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
-2）时间效率，空间换时间与不换，效率轻微下降。定量：200:111=1.8，58.5:59.9=0.98， 
-提升80%（gtx670）、-2%（gts250）； </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>表7.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -833,16 +822,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">GPU显存空间换时间 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%(gtx670)9%(gts250)的增速缓慢提升； 
+2）时间效率，空间换时间与不换，效率轻微下降。定量：182:192=0.95，58.5:59.9=0.98， 
+提升-5%（gtx670）、-2%（gts250）； </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>GPU线程块内部所有线程共享通信 结论： 
 1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%的增速缓慢提升； 
 2）时间效率，在都共享的条件下，与GPU性能有关，'gtx670'  vs 'gts250' = 185:63=2.9， 
 前者是后者的3倍； 
 3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
 提升80%（gtx670）、270%（gts250）； 
-4）时间效率，共享广播减少冲突与不广播，效率几乎不变。定量：x:200=y，60:63=0.95， 
-提升z%（gtx670）、-5%（gts250）；
-5）时间效率，共享交替减少冲突与不交替，效率几乎不变。定量：x:200=y，60:63=0.95， 
-提升z%（gtx670）、-5%（gts250）；  
+4）时间效率，共享广播减少冲突与不广播，效率几乎不变。定量：200:200=1，60:63=0.95， 
+提升0%（gtx670）、-5%（gts250）；
+5）时间效率，共享交替减少冲突与不交替，效率几乎不变。定量：200:200=1，60:63=0.95， 
+提升0%（gtx670）、-5%（gts250）；  
 6）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
 提升1900%（gtx670）、430%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1274,11 +1270,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70832896"/>
-        <c:axId val="70834816"/>
+        <c:axId val="145283712"/>
+        <c:axId val="145298176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70832896"/>
+        <c:axId val="145283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,14 +1297,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70834816"/>
+        <c:crossAx val="145298176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70834816"/>
+        <c:axId val="145298176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1329,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70832896"/>
+        <c:crossAx val="145283712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1346,7 +1342,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1486,11 +1482,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75426432"/>
-        <c:axId val="75473664"/>
+        <c:axId val="160707328"/>
+        <c:axId val="160709248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75426432"/>
+        <c:axId val="160707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,14 +1509,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75473664"/>
+        <c:crossAx val="160709248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75473664"/>
+        <c:axId val="160709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1541,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75426432"/>
+        <c:crossAx val="160707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1554,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1698,11 +1694,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75487104"/>
-        <c:axId val="76156928"/>
+        <c:axId val="160755712"/>
+        <c:axId val="160757632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75487104"/>
+        <c:axId val="160755712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,14 +1721,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76156928"/>
+        <c:crossAx val="160757632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76156928"/>
+        <c:axId val="160757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1753,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75487104"/>
+        <c:crossAx val="160755712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,7 +1766,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1897,11 +1893,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76198656"/>
-        <c:axId val="76200576"/>
+        <c:axId val="160668288"/>
+        <c:axId val="160678656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76198656"/>
+        <c:axId val="160668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,14 +1920,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76200576"/>
+        <c:crossAx val="160678656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76200576"/>
+        <c:axId val="160678656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1952,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76198656"/>
+        <c:crossAx val="160668288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1969,7 +1965,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2109,11 +2105,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76546048"/>
-        <c:axId val="76547968"/>
+        <c:axId val="161630080"/>
+        <c:axId val="161640448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76546048"/>
+        <c:axId val="161630080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2132,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76547968"/>
+        <c:crossAx val="161640448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76547968"/>
+        <c:axId val="161640448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2164,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76546048"/>
+        <c:crossAx val="161630080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,7 +2177,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2321,11 +2317,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76569600"/>
-        <c:axId val="76616832"/>
+        <c:axId val="161674368"/>
+        <c:axId val="161676288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76569600"/>
+        <c:axId val="161674368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,14 +2344,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76616832"/>
+        <c:crossAx val="161676288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76616832"/>
+        <c:axId val="161676288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2376,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76569600"/>
+        <c:crossAx val="161674368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2393,7 +2389,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2653,11 +2649,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77021184"/>
-        <c:axId val="77023104"/>
+        <c:axId val="163456896"/>
+        <c:axId val="163471360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77021184"/>
+        <c:axId val="163456896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,14 +2727,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77023104"/>
+        <c:crossAx val="163471360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77023104"/>
+        <c:axId val="163471360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77021184"/>
+        <c:crossAx val="163456896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,7 +2889,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,11 +3149,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77040640"/>
-        <c:axId val="77063296"/>
+        <c:axId val="163591296"/>
+        <c:axId val="163593216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77040640"/>
+        <c:axId val="163591296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,14 +3227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77063296"/>
+        <c:crossAx val="163593216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77063296"/>
+        <c:axId val="163593216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77040640"/>
+        <c:crossAx val="163591296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3393,7 +3389,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3531,11 +3527,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="77087872"/>
-        <c:axId val="77089792"/>
+        <c:axId val="163613696"/>
+        <c:axId val="163619968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77087872"/>
+        <c:axId val="163613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,14 +3567,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77089792"/>
+        <c:crossAx val="163619968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77089792"/>
+        <c:axId val="163619968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,7 +3604,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77087872"/>
+        <c:crossAx val="163613696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3621,7 +3617,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3881,11 +3877,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77141888"/>
-        <c:axId val="77160448"/>
+        <c:axId val="163647488"/>
+        <c:axId val="163649408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77141888"/>
+        <c:axId val="163647488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,14 +3956,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77160448"/>
+        <c:crossAx val="163649408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77160448"/>
+        <c:axId val="163649408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77141888"/>
+        <c:crossAx val="163647488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4124,7 +4120,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4235,25 +4231,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>156.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>178.57142857142856</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>172.41379310344828</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.18518518518516</c:v>
+                  <c:v>192.30769230769229</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>204.08163265306123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>207.25388601036272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4384,11 +4380,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77173888"/>
-        <c:axId val="77175808"/>
+        <c:axId val="163691520"/>
+        <c:axId val="163714176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77173888"/>
+        <c:axId val="163691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,14 +4459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77175808"/>
+        <c:crossAx val="163714176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77175808"/>
+        <c:axId val="163714176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77173888"/>
+        <c:crossAx val="163691520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4627,7 +4623,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4767,11 +4763,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70934528"/>
-        <c:axId val="70936448"/>
+        <c:axId val="145340288"/>
+        <c:axId val="145342464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70934528"/>
+        <c:axId val="145340288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4794,14 +4790,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70936448"/>
+        <c:crossAx val="145342464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70936448"/>
+        <c:axId val="145342464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,7 +4822,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70934528"/>
+        <c:crossAx val="145340288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4839,7 +4835,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5111,6 +5107,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'8.问题规模与时间效率的关系-多元素'!$H$17:$H$23</c:f>
@@ -5146,11 +5145,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77236096"/>
-        <c:axId val="77262848"/>
+        <c:axId val="163835904"/>
+        <c:axId val="163837824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77236096"/>
+        <c:axId val="163835904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,14 +5223,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77262848"/>
+        <c:crossAx val="163837824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77262848"/>
+        <c:axId val="163837824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5314,7 +5313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77236096"/>
+        <c:crossAx val="163835904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5386,7 +5385,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5566,7 +5565,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.444444444444447E-2"/>
+                  <c:y val="9.4444444444444497E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5610,7 +5609,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.1166666666666667"/>
+                  <c:y val="0.11666666666666671"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5620,8 +5619,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8246072431041289E-17"/>
-                  <c:y val="0.11666666666666667"/>
+                  <c:x val="-8.8246072431041388E-17"/>
+                  <c:y val="0.11666666666666668"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5632,7 +5631,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="0.10555555555555558"/>
+                  <c:y val="0.1055555555555556"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -5750,7 +5749,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6474127557160065E-2"/>
+                  <c:x val="-2.6474127557160075E-2"/>
                   <c:y val="-5.0000000000000024E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5760,8 +5759,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4067388688327335E-2"/>
-                  <c:y val="-7.2222222222222243E-2"/>
+                  <c:x val="-2.4067388688327342E-2"/>
+                  <c:y val="-7.2222222222222257E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5771,7 +5770,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.6847172081829127E-2"/>
-                  <c:y val="-5.5555555555555552E-2"/>
+                  <c:y val="-5.5555555555555539E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5790,7 +5789,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8880866425992788E-2"/>
+                  <c:x val="-2.8880866425992795E-2"/>
                   <c:y val="-0.05"/>
                 </c:manualLayout>
               </c:layout>
@@ -5801,7 +5800,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.8507821901323715E-2"/>
-                  <c:y val="-5.5555555555555525E-2"/>
+                  <c:y val="-5.5555555555555518E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -5843,11 +5842,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79329536"/>
-        <c:axId val="79344000"/>
+        <c:axId val="165192064"/>
+        <c:axId val="165193984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79329536"/>
+        <c:axId val="165192064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,14 +5920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79344000"/>
+        <c:crossAx val="165193984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79344000"/>
+        <c:axId val="165193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6011,7 +6010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79329536"/>
+        <c:crossAx val="165192064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6083,7 +6082,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6343,11 +6342,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79386496"/>
-        <c:axId val="79400960"/>
+        <c:axId val="165289984"/>
+        <c:axId val="165291904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79386496"/>
+        <c:axId val="165289984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6422,14 +6421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79400960"/>
+        <c:crossAx val="165291904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79400960"/>
+        <c:axId val="165291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79386496"/>
+        <c:crossAx val="165289984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6586,7 +6585,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6668,7 +6667,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
             <c:showVal val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -6697,25 +6696,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>156.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>178.57142857142856</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>172.41379310344828</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.18518518518516</c:v>
+                  <c:v>181.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>181.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>190.47619047619045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>195.12195121951223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6818,25 +6817,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.153846153846146</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.04081632653062</c:v>
+                  <c:v>178.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5268817204301</c:v>
+                  <c:v>192.30769230769229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.11111111111111</c:v>
+                  <c:v>204.08163265306123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.67605633802818</c:v>
+                  <c:v>207.25388601036272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6846,11 +6845,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80024704"/>
-        <c:axId val="80026624"/>
+        <c:axId val="165329920"/>
+        <c:axId val="165336192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80024704"/>
+        <c:axId val="165329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6925,14 +6924,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80026624"/>
+        <c:crossAx val="165336192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80026624"/>
+        <c:axId val="165336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,7 +7015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80024704"/>
+        <c:crossAx val="165329920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7089,7 +7088,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7208,25 +7207,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80129408"/>
-        <c:axId val="99619968"/>
+        <c:axId val="165479936"/>
+        <c:axId val="165481472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80129408"/>
+        <c:axId val="165479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99619968"/>
+        <c:crossAx val="165481472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99619968"/>
+        <c:axId val="165481472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,7 +7234,7 @@
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80129408"/>
+        <c:crossAx val="165479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7247,7 +7246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7366,25 +7365,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="99665792"/>
-        <c:axId val="99667328"/>
+        <c:axId val="165511168"/>
+        <c:axId val="165512704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99665792"/>
+        <c:axId val="165511168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99667328"/>
+        <c:crossAx val="165512704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99667328"/>
+        <c:axId val="165512704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7392,7 +7391,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="99665792"/>
+        <c:crossAx val="165511168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7404,7 +7403,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7523,25 +7522,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="99774848"/>
-        <c:axId val="99776384"/>
+        <c:axId val="165554432"/>
+        <c:axId val="165572608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99774848"/>
+        <c:axId val="165554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99776384"/>
+        <c:crossAx val="165572608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99776384"/>
+        <c:axId val="165572608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7549,7 +7548,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="99774848"/>
+        <c:crossAx val="165554432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7561,7 +7560,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7680,25 +7679,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="99789440"/>
-        <c:axId val="99795328"/>
+        <c:axId val="165593856"/>
+        <c:axId val="165595392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99789440"/>
+        <c:axId val="165593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99795328"/>
+        <c:crossAx val="165595392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99795328"/>
+        <c:axId val="165595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7706,7 +7705,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="99789440"/>
+        <c:crossAx val="165593856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7718,7 +7717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7858,11 +7857,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71048576"/>
-        <c:axId val="71050752"/>
+        <c:axId val="157738496"/>
+        <c:axId val="157740416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71048576"/>
+        <c:axId val="157738496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7885,14 +7884,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71050752"/>
+        <c:crossAx val="157740416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71050752"/>
+        <c:axId val="157740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7917,7 +7916,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71048576"/>
+        <c:crossAx val="157738496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7930,7 +7929,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8070,11 +8069,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71080576"/>
-        <c:axId val="71090944"/>
+        <c:axId val="158069504"/>
+        <c:axId val="158071424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71080576"/>
+        <c:axId val="158069504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8097,14 +8096,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71090944"/>
+        <c:crossAx val="158071424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71090944"/>
+        <c:axId val="158071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8129,7 +8128,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71080576"/>
+        <c:crossAx val="158069504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8142,7 +8141,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8282,11 +8281,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73537792"/>
-        <c:axId val="73544064"/>
+        <c:axId val="158130560"/>
+        <c:axId val="158132480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73537792"/>
+        <c:axId val="158130560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8309,14 +8308,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73544064"/>
+        <c:crossAx val="158132480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73544064"/>
+        <c:axId val="158132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8341,7 +8340,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73537792"/>
+        <c:crossAx val="158130560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8354,7 +8353,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8494,11 +8493,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73565696"/>
-        <c:axId val="73567616"/>
+        <c:axId val="160304512"/>
+        <c:axId val="160327168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73565696"/>
+        <c:axId val="160304512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8521,14 +8520,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73567616"/>
+        <c:crossAx val="160327168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73567616"/>
+        <c:axId val="160327168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8553,7 +8552,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73565696"/>
+        <c:crossAx val="160304512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8566,7 +8565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8706,11 +8705,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74970240"/>
-        <c:axId val="74972160"/>
+        <c:axId val="160406528"/>
+        <c:axId val="160420992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74970240"/>
+        <c:axId val="160406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8733,14 +8732,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74972160"/>
+        <c:crossAx val="160420992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74972160"/>
+        <c:axId val="160420992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8765,7 +8764,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74970240"/>
+        <c:crossAx val="160406528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8778,7 +8777,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8918,11 +8917,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75383168"/>
-        <c:axId val="75385088"/>
+        <c:axId val="160446720"/>
+        <c:axId val="160465280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75383168"/>
+        <c:axId val="160446720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8945,14 +8944,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75385088"/>
+        <c:crossAx val="160465280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75385088"/>
+        <c:axId val="160465280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8977,7 +8976,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75383168"/>
+        <c:crossAx val="160446720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8990,7 +8989,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9130,11 +9129,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75398528"/>
-        <c:axId val="75408896"/>
+        <c:axId val="160527872"/>
+        <c:axId val="160529792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75398528"/>
+        <c:axId val="160527872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,14 +9156,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75408896"/>
+        <c:crossAx val="160529792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75408896"/>
+        <c:axId val="160529792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9189,7 +9188,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75398528"/>
+        <c:crossAx val="160527872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9202,7 +9201,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15525,8 +15524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15586,7 +15585,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="3">
         <f>LOG(B4)/LOG(2)+3</f>
@@ -15594,7 +15593,7 @@
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
@@ -15612,7 +15611,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
@@ -15620,7 +15619,7 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
@@ -15638,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -15646,7 +15645,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
@@ -15664,7 +15663,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -15672,7 +15671,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>185.18518518518516</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
@@ -15716,7 +15715,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -15724,7 +15723,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>204.08163265306123</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
@@ -15742,7 +15741,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -15750,7 +15749,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>207.25388601036272</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
@@ -16013,7 +16012,7 @@
     </row>
     <row r="28" spans="1:14" ht="180.75" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -16025,17 +16024,15 @@
     </row>
     <row r="32" spans="1:14" ht="40.5">
       <c r="C32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="F32" s="25"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
@@ -16050,19 +16047,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -16073,7 +16070,7 @@
         <v>0.25</v>
       </c>
       <c r="C35" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D35" s="3">
         <f>LOG(B35)/LOG(2)+3</f>
@@ -16081,14 +16078,14 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" ref="E35:E41" si="6">B35/C35*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="F35" s="8">
         <f>B35/G35*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="G35" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -16099,7 +16096,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ref="D36:D41" si="7">LOG(B36)/LOG(2)+3</f>
@@ -16107,14 +16104,14 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" si="6"/>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F41" si="8">B36/G36*50</f>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="G36" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -16125,7 +16122,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="7"/>
@@ -16133,14 +16130,14 @@
       </c>
       <c r="E37" s="8">
         <f t="shared" si="6"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="8"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="G37" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -16151,7 +16148,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="7"/>
@@ -16159,14 +16156,14 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" si="6"/>
-        <v>185.18518518518516</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="8"/>
-        <v>185.18518518518516</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="G38" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -16203,7 +16200,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="7"/>
@@ -16211,14 +16208,14 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>205.12820512820517</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>204.08163265306123</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -16229,7 +16226,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="4">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="7"/>
@@ -16237,25 +16234,25 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>207.79220779220776</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>207.25388601036272</v>
       </c>
       <c r="G41" s="4">
-        <v>4</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="40.5">
       <c r="C45" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="7"/>
@@ -16272,19 +16269,19 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -16471,17 +16468,15 @@
     </row>
     <row r="58" spans="1:7" ht="40.5">
       <c r="C58" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="F58" s="25"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7">
@@ -16496,19 +16491,19 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -16519,7 +16514,7 @@
         <v>0.25</v>
       </c>
       <c r="C61" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D61" s="3">
         <f>LOG(B61)/LOG(2)+3</f>
@@ -16527,14 +16522,14 @@
       </c>
       <c r="E61" s="8">
         <f t="shared" ref="E61:E67" si="12">B61/C61*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="F61" s="8">
         <f>B61/G61*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="G61" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -16545,7 +16540,7 @@
         <v>0.5</v>
       </c>
       <c r="C62" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" ref="D62:D67" si="13">LOG(B62)/LOG(2)+3</f>
@@ -16553,14 +16548,14 @@
       </c>
       <c r="E62" s="8">
         <f t="shared" si="12"/>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="F62" s="8">
         <f t="shared" ref="F62:F67" si="14">B62/G62*50</f>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="G62" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -16571,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="13"/>
@@ -16579,14 +16574,14 @@
       </c>
       <c r="E63" s="8">
         <f t="shared" si="12"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" si="14"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="G63" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -16597,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="13"/>
@@ -16605,14 +16600,14 @@
       </c>
       <c r="E64" s="8">
         <f t="shared" si="12"/>
-        <v>185.18518518518516</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" si="14"/>
-        <v>185.18518518518516</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="G64" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -16649,7 +16644,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="13"/>
@@ -16657,14 +16652,14 @@
       </c>
       <c r="E66" s="8">
         <f t="shared" si="12"/>
-        <v>200</v>
+        <v>205.12820512820517</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>204.08163265306123</v>
       </c>
       <c r="G66" s="4">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -16675,7 +16670,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="4">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" si="13"/>
@@ -16683,25 +16678,25 @@
       </c>
       <c r="E67" s="8">
         <f t="shared" si="12"/>
-        <v>200</v>
+        <v>207.25388601036272</v>
       </c>
       <c r="F67" s="8">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>207.25388601036272</v>
       </c>
       <c r="G67" s="4">
-        <v>4</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="40.5">
       <c r="C71" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="7"/>
@@ -16718,19 +16713,19 @@
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -17577,8 +17572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17588,6 +17583,8 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.5">
@@ -17600,9 +17597,7 @@
       <c r="E1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:14">
@@ -17646,7 +17641,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="3">
         <f>LOG(B4)/LOG(2)+3</f>
@@ -17654,14 +17649,14 @@
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E10" si="0">B4/C4*50</f>
-        <v>156.25</v>
+        <v>125</v>
       </c>
       <c r="F4" s="8">
         <f>B4/G4*50</f>
-        <v>96.153846153846146</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="40">
         <v>4</v>
@@ -17678,7 +17673,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="1">LOG(B5)/LOG(2)+3</f>
@@ -17686,14 +17681,14 @@
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>178.57142857142856</v>
+        <v>156.25</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F10" si="2">B5/G5*50</f>
-        <v>100</v>
+        <v>156.25</v>
       </c>
       <c r="G5" s="4">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="H5" s="40">
         <v>8</v>
@@ -17710,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
@@ -17718,14 +17713,14 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>172.41379310344828</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>102.04081632653062</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="G6" s="4">
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H6" s="40">
         <v>16</v>
@@ -17742,7 +17737,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
@@ -17750,14 +17745,14 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>185.18518518518516</v>
+        <v>181.81818181818181</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>107.5268817204301</v>
+        <v>192.30769230769229</v>
       </c>
       <c r="G7" s="4">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="H7" s="40">
         <v>32</v>
@@ -17774,7 +17769,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
@@ -17782,14 +17777,14 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>181.81818181818181</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>111.11111111111111</v>
+        <v>200</v>
       </c>
       <c r="G8" s="4">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H8" s="40">
         <v>64</v>
@@ -17806,7 +17801,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
@@ -17814,14 +17809,14 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>190.47619047619045</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>111.11111111111111</v>
+        <v>204.08163265306123</v>
       </c>
       <c r="G9" s="4">
-        <v>3.6</v>
+        <v>1.96</v>
       </c>
       <c r="H9" s="40">
         <v>128</v>
@@ -17838,7 +17833,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
@@ -17846,14 +17841,14 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>195.12195121951223</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>112.67605633802818</v>
+        <v>207.25388601036272</v>
       </c>
       <c r="G10" s="4">
-        <v>7.1</v>
+        <v>3.86</v>
       </c>
       <c r="H10" s="40">
         <v>256</v>
@@ -18163,7 +18158,7 @@
     </row>
     <row r="28" spans="1:14" ht="68.25" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>

--- a/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
+++ b/doc/基于CUDA的三维动画实时绘制效率改善算法.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="5220" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1.问题规模与时间效率的关系-CPU单线程" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="9.问题规模与时间效率的关系-空间换时间" sheetId="12" r:id="rId9"/>
     <sheet name="10.VisualProfiler&amp;OccupancyCalc" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
   <si>
     <t>表1.1</t>
   </si>
@@ -539,15 +539,87 @@
     <t>图7.2</t>
   </si>
   <si>
-    <t>表8.1</t>
+    <t>表7.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表8.2</t>
+    <t>广播
+VS
+不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻
+VS
+不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不相邻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8.1</t>
   </si>
   <si>
     <t>多元素
 VS
 单元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+多元素
+不交替</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元素
+不交替</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -561,30 +633,7 @@
   </si>
   <si>
     <t>多元素
-不交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-多元素
-不交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多元素
 交替</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表8.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTS250</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -592,7 +641,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GTX670</t>
+    <t>表8.2</t>
+  </si>
+  <si>
+    <t>表8.2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -611,6 +663,64 @@
   </si>
   <si>
     <t>表9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>换时间
+VS
+不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+空间换时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间换时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+VS 不换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现数据量
+Mbytes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原数据量
+Mbytes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图9.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU显存空间换时间 结论： 
+1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%(gtx670)9%(gts250)的增速缓慢提升； 
+2）时间效率，空间换时间与不换，效率轻微下降。定量：182:192=0.95，58.5:59.9=0.98， 
+提升-5%（gtx670）、-2%（gts250）； </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU: 
+i7 870</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -638,17 +748,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>图9.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU
-CPU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>gts 250
-i7 870</t>
+    <t xml:space="preserve">效率倍数
+GPU vs CPU 最优 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -663,24 +764,21 @@
   </si>
   <si>
     <t xml:space="preserve">效率倍数
-GPU vs CPU 最优 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">效率倍数
 GPU vs CPU 初始 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表9.2</t>
+    <t>数据量
+Mbytes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GPU: gtx670</t>
+    <t>GPU
+CPU</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>CPU: 
+    <t>gts 250
 i7 870</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -690,81 +788,63 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>图9.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>gtx 670
 i7 3770K</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>数据量
-Mbytes</t>
+    <t>NVIDIA Visual Profiler</t>
+  </si>
+  <si>
+    <t>线程数目</t>
+  </si>
+  <si>
+    <t>寄存器个数</t>
+  </si>
+  <si>
+    <t>共享存储器</t>
+  </si>
+  <si>
+    <t>内显存
+带宽</t>
+  </si>
+  <si>
+    <t>显存读
+效率</t>
+  </si>
+  <si>
+    <t>显存写
+效率</t>
+  </si>
+  <si>
+    <t>表7.7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>换时间
-VS
-不换</t>
+    <t>GPU: gtx670</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>空间换时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 不换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-空间换时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表9.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表9.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图9.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>图9.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>现数据量
-Mbytes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原数据量
-Mbytes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表7.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播
+    <t>拆分广播
 VS
 不广播</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)
+广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>广播</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不广播</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -773,59 +853,21 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>时间(ms)
-广播</t>
+    <t>表7.8</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>不广播</t>
+    <t>表7.9</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>表7.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU: gtx670</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表7.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表7.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻
+    <t>拆分相邻
 VS
 不相邻</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>相邻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-相邻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不相邻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(ms)
-VS 不相邻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GPU显存空间换时间 结论： 
-1）时间效率，与问题规模弱相关，问题规模变化，时间效率以7%(gtx670)9%(gts250)的增速缓慢提升； 
-2）时间效率，空间换时间与不换，效率轻微下降。定量：182:192=0.95，58.5:59.9=0.98， 
-提升-5%（gtx670）、-2%（gts250）； </t>
+    <t>表7.10</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -836,9 +878,9 @@
 3）时间效率，共享与非共享对比，效率翻倍提升。定量：200:111=1.8，63:17=3.7， 
 提升80%（gtx670）、270%（gts250）； 
 4）时间效率，共享广播减少冲突与不广播，效率几乎不变。定量：200:200=1，60:63=0.95， 
-提升0%（gtx670）、-5%（gts250）；
+提升0%（gtx670）、-5%（gts250）；拆分结构体以后结果一样(gts250)。
 5）时间效率，共享交替减少冲突与不交替，效率几乎不变。定量：200:200=1，60:63=0.95， 
-提升0%（gtx670）、-5%（gts250）；  
+提升0%（gtx670）、-5%（gts250）；拆分结构体以后结果一样(gts250)。  
 6）时间效率，GPU VS CPU = 200:10=20，63:12=5.3， 
 提升1900%（gtx670）、430%（gts250）；</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -997,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,12 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,6 +1150,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1133,6 +1179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1270,11 +1324,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="145283712"/>
-        <c:axId val="145298176"/>
+        <c:axId val="163195136"/>
+        <c:axId val="163220480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145283712"/>
+        <c:axId val="163195136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,14 +1351,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145298176"/>
+        <c:crossAx val="163220480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145298176"/>
+        <c:axId val="163220480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1383,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145283712"/>
+        <c:crossAx val="163195136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1396,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1482,11 +1536,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160707328"/>
-        <c:axId val="160709248"/>
+        <c:axId val="114719360"/>
+        <c:axId val="114733824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160707328"/>
+        <c:axId val="114719360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,14 +1563,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160709248"/>
+        <c:crossAx val="114733824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160709248"/>
+        <c:axId val="114733824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1595,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160707328"/>
+        <c:crossAx val="114719360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1554,7 +1608,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1694,11 +1748,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160755712"/>
-        <c:axId val="160757632"/>
+        <c:axId val="114820992"/>
+        <c:axId val="114831360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160755712"/>
+        <c:axId val="114820992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,14 +1775,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160757632"/>
+        <c:crossAx val="114831360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160757632"/>
+        <c:axId val="114831360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1807,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160755712"/>
+        <c:crossAx val="114820992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1766,7 +1820,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1893,11 +1947,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="160668288"/>
-        <c:axId val="160678656"/>
+        <c:axId val="114873088"/>
+        <c:axId val="114875008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160668288"/>
+        <c:axId val="114873088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +1974,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160678656"/>
+        <c:crossAx val="114875008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160678656"/>
+        <c:axId val="114875008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +2006,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160668288"/>
+        <c:crossAx val="114873088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,7 +2019,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2105,11 +2159,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161630080"/>
-        <c:axId val="161640448"/>
+        <c:axId val="114925568"/>
+        <c:axId val="114927488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161630080"/>
+        <c:axId val="114925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,14 +2186,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161640448"/>
+        <c:crossAx val="114927488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161640448"/>
+        <c:axId val="114927488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2218,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161630080"/>
+        <c:crossAx val="114925568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2177,7 +2231,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2317,11 +2371,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="161674368"/>
-        <c:axId val="161676288"/>
+        <c:axId val="114945024"/>
+        <c:axId val="114947200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161674368"/>
+        <c:axId val="114945024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,14 +2398,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161676288"/>
+        <c:crossAx val="114947200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161676288"/>
+        <c:axId val="114947200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2430,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161674368"/>
+        <c:crossAx val="114945024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2389,7 +2443,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2649,11 +2703,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163456896"/>
-        <c:axId val="163471360"/>
+        <c:axId val="115044352"/>
+        <c:axId val="115046272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163456896"/>
+        <c:axId val="115044352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,14 +2781,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163471360"/>
+        <c:crossAx val="115046272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163471360"/>
+        <c:axId val="115046272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163456896"/>
+        <c:crossAx val="115044352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,7 +2943,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3149,11 +3203,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163591296"/>
-        <c:axId val="163593216"/>
+        <c:axId val="115092480"/>
+        <c:axId val="115106944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163591296"/>
+        <c:axId val="115092480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,14 +3281,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163593216"/>
+        <c:crossAx val="115106944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163593216"/>
+        <c:axId val="115106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3371,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163591296"/>
+        <c:crossAx val="115092480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,7 +3443,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3527,11 +3581,11 @@
         </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="163613696"/>
-        <c:axId val="163619968"/>
+        <c:axId val="115135616"/>
+        <c:axId val="115137536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163613696"/>
+        <c:axId val="115135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3567,14 +3621,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163619968"/>
+        <c:crossAx val="115137536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163619968"/>
+        <c:axId val="115137536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +3658,7 @@
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163613696"/>
+        <c:crossAx val="115135616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3617,7 +3671,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3877,11 +3931,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163647488"/>
-        <c:axId val="163649408"/>
+        <c:axId val="120223616"/>
+        <c:axId val="120242176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163647488"/>
+        <c:axId val="120223616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,14 +4010,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163649408"/>
+        <c:crossAx val="120242176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163649408"/>
+        <c:axId val="120242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +4101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163647488"/>
+        <c:crossAx val="120223616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4120,7 +4174,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4380,11 +4434,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163691520"/>
-        <c:axId val="163714176"/>
+        <c:axId val="120341632"/>
+        <c:axId val="120343552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163691520"/>
+        <c:axId val="120341632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,7 +4469,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4459,14 +4512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163714176"/>
+        <c:crossAx val="120343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163714176"/>
+        <c:axId val="120343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4511,7 +4564,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4550,7 +4602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163691520"/>
+        <c:crossAx val="120341632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4564,7 +4616,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4623,7 +4674,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4763,11 +4814,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="145340288"/>
-        <c:axId val="145342464"/>
+        <c:axId val="100126080"/>
+        <c:axId val="100132352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145340288"/>
+        <c:axId val="100126080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,14 +4841,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145342464"/>
+        <c:crossAx val="100132352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145342464"/>
+        <c:axId val="100132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,7 +4873,7 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145340288"/>
+        <c:crossAx val="100126080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4835,7 +4886,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5108,7 +5159,19 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -5145,11 +5208,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="163835904"/>
-        <c:axId val="163837824"/>
+        <c:axId val="120452992"/>
+        <c:axId val="120586240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163835904"/>
+        <c:axId val="120452992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,6 +5243,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5223,14 +5287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163837824"/>
+        <c:crossAx val="120586240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163837824"/>
+        <c:axId val="120586240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5275,6 +5339,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5313,7 +5378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163835904"/>
+        <c:crossAx val="120452992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5327,6 +5392,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5385,7 +5451,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5565,11 +5631,14 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="9.4444444444444497E-2"/>
+                  <c:y val="9.4444444444444511E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
               <c:showVal val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -5581,6 +5650,9 @@
               </c:layout>
               <c:dLblPos val="t"/>
               <c:showVal val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -5592,6 +5664,9 @@
               </c:layout>
               <c:dLblPos val="t"/>
               <c:showVal val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -5603,39 +5678,51 @@
               </c:layout>
               <c:dLblPos val="t"/>
               <c:showVal val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" 